--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1009"/>
+  <dimension ref="A1:R1019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K980" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L980" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M980" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q980" t="n">
         <v>10</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,36 +70985,36 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K981" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L981" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M981" t="n">
-        <v>4000</v>
+        <v>4747</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q981" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71052,41 +71052,41 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="K982" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L982" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M982" t="n">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>300</v>
+        <v>633</v>
       </c>
       <c r="Q982" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,36 +71129,36 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K983" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L983" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M983" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>267</v>
+        <v>417</v>
       </c>
       <c r="Q983" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71196,41 +71196,41 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="K984" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L984" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M984" t="n">
-        <v>3000</v>
+        <v>6494</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>167</v>
+        <v>433</v>
       </c>
       <c r="Q984" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,36 +71273,36 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="K985" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L985" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M985" t="n">
-        <v>4000</v>
+        <v>4744</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q985" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71340,7 +71340,7 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="K986" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L986" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M986" t="n">
-        <v>4000</v>
+        <v>6488</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="Q986" t="n">
         <v>15</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="K987" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L987" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M987" t="n">
-        <v>3000</v>
+        <v>4750</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K988" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L988" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M988" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="Q988" t="n">
         <v>15</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="K989" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L989" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M989" t="n">
-        <v>3000</v>
+        <v>4740</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71637,7 +71637,7 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K990" t="n">
         <v>4000</v>
@@ -71650,19 +71650,19 @@
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="Q990" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K991" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L991" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M991" t="n">
-        <v>2763</v>
+        <v>4000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>154</v>
+        <v>400</v>
       </c>
       <c r="Q991" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K992" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L992" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M992" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q992" t="n">
         <v>10</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71844,7 +71844,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K993" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L993" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M993" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="Q993" t="n">
         <v>15</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71916,29 +71916,29 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K994" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L994" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M994" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
@@ -71947,10 +71947,10 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="Q994" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,20 +71997,20 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K995" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L995" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M995" t="n">
-        <v>6750</v>
+        <v>4000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
@@ -72019,10 +72019,10 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>675</v>
+        <v>267</v>
       </c>
       <c r="Q995" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72060,41 +72060,41 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K996" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L996" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M996" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="Q996" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72132,41 +72132,41 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K997" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L997" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M997" t="n">
-        <v>8750</v>
+        <v>3000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>583</v>
+        <v>167</v>
       </c>
       <c r="Q997" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72204,41 +72204,41 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K998" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L998" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M998" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="Q998" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72276,29 +72276,29 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K999" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L999" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M999" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
@@ -72307,10 +72307,10 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="Q999" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72348,41 +72348,41 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K1000" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1000" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1000" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="Q1000" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,24 +72425,24 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="K1001" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L1001" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M1001" t="n">
-        <v>6750</v>
+        <v>2763</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
@@ -72451,10 +72451,10 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>450</v>
+        <v>154</v>
       </c>
       <c r="Q1001" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72501,20 +72501,20 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K1002" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1002" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1002" t="n">
-        <v>6746</v>
+        <v>5000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
@@ -72523,10 +72523,10 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>337</v>
+        <v>500</v>
       </c>
       <c r="Q1002" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72564,29 +72564,29 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K1003" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1003" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1003" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
@@ -72595,10 +72595,10 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="Q1003" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72645,20 +72645,20 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K1004" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1004" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1004" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
@@ -72667,10 +72667,10 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>675</v>
+        <v>333</v>
       </c>
       <c r="Q1004" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,24 +72713,24 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K1005" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1005" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1005" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
@@ -72739,10 +72739,10 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>500</v>
+        <v>675</v>
       </c>
       <c r="Q1005" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72780,29 +72780,29 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K1006" t="n">
         <v>6000</v>
       </c>
       <c r="L1006" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1006" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
@@ -72811,10 +72811,10 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="Q1006" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72852,41 +72852,41 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="K1007" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="L1007" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M1007" t="n">
-        <v>5000</v>
+        <v>8750</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>278</v>
+        <v>583</v>
       </c>
       <c r="Q1007" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72924,41 +72924,41 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1008" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1008" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1008" t="n">
-        <v>6620</v>
+        <v>8000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q1008" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,58 +72981,778 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1009" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1009" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N1009" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1009" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1009" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1009" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1010" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1010" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1010" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1010" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1010" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1010" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1010" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1011" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1011" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N1011" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1011" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1011" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1011" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1012" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1012" t="n">
+        <v>61</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>6746</v>
+      </c>
+      <c r="N1012" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1012" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1012" t="n">
+        <v>337</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1012" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1013" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1013" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1013" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1013" t="inlineStr">
+        <is>
+          <t>$/caja 24 unidades</t>
+        </is>
+      </c>
+      <c r="O1013" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1013" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>24</v>
+      </c>
+      <c r="R1013" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1014" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E1009" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G1009" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H1009" t="inlineStr">
+      <c r="E1014" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1014" t="n">
+        <v>180</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N1014" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1014" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1014" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1014" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1015" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1015" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1015" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1015" t="n">
+        <v>97</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1015" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O1015" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1015" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>12</v>
+      </c>
+      <c r="R1015" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1016" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1016" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1016" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N1016" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1016" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1016" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1016" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1017" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1017" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1017" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1017" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1017" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1017" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1017" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1017" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1018" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1018" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1018" t="inlineStr">
         <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I1009" t="inlineStr">
+      <c r="I1018" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1018" t="n">
+        <v>79</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>6620</v>
+      </c>
+      <c r="N1018" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1018" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1018" t="n">
+        <v>441</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1018" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1019" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1019" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1019" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1009" t="n">
+      <c r="J1019" t="n">
         <v>27</v>
       </c>
-      <c r="K1009" t="n">
+      <c r="K1019" t="n">
         <v>5500</v>
       </c>
-      <c r="L1009" t="n">
+      <c r="L1019" t="n">
         <v>5500</v>
       </c>
-      <c r="M1009" t="n">
+      <c r="M1019" t="n">
         <v>5500</v>
       </c>
-      <c r="N1009" t="inlineStr">
+      <c r="N1019" t="inlineStr">
         <is>
           <t>$/caja 18 unidades</t>
         </is>
       </c>
-      <c r="O1009" t="inlineStr">
+      <c r="O1019" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1009" t="n">
+      <c r="P1019" t="n">
         <v>306</v>
       </c>
-      <c r="Q1009" t="n">
+      <c r="Q1019" t="n">
         <v>18</v>
       </c>
-      <c r="R1009" t="inlineStr">
+      <c r="R1019" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1019"/>
+  <dimension ref="A1:R1027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="K899" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L899" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M899" t="n">
-        <v>3778</v>
+        <v>6752</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>378</v>
+        <v>675</v>
       </c>
       <c r="Q899" t="n">
         <v>10</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,20 +65157,20 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K900" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L900" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M900" t="n">
-        <v>3000</v>
+        <v>4753</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
@@ -65179,10 +65179,10 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="Q900" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="K901" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L901" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M901" t="n">
-        <v>5000</v>
+        <v>6746</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>333</v>
+        <v>450</v>
       </c>
       <c r="Q901" t="n">
         <v>15</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65292,29 +65292,29 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="K902" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L902" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M902" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
@@ -65323,10 +65323,10 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q902" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65364,29 +65364,29 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="K903" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="L903" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M903" t="n">
-        <v>2536</v>
+        <v>6750</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
@@ -65395,10 +65395,10 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>141</v>
+        <v>450</v>
       </c>
       <c r="Q903" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65436,25 +65436,25 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="K904" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L904" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M904" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65517,20 +65517,20 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="K905" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L905" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M905" t="n">
-        <v>4000</v>
+        <v>6750</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
@@ -65539,10 +65539,10 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="Q905" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,20 +65589,20 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K906" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L906" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M906" t="n">
-        <v>3000</v>
+        <v>4760</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
@@ -65611,10 +65611,10 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="Q906" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,36 +65657,36 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="K907" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L907" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M907" t="n">
-        <v>5247</v>
+        <v>3778</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="Q907" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65724,41 +65724,41 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K908" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="L908" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="M908" t="n">
-        <v>10500</v>
+        <v>3000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q908" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65796,41 +65796,41 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="K909" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L909" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M909" t="n">
-        <v>8495</v>
+        <v>5000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>472</v>
+        <v>333</v>
       </c>
       <c r="Q909" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65868,29 +65868,29 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="K910" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L910" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M910" t="n">
-        <v>5240</v>
+        <v>4000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O910" t="inlineStr">
@@ -65899,10 +65899,10 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="Q910" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R910" t="inlineStr">
         <is>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65940,29 +65940,29 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="K911" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="L911" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="M911" t="n">
-        <v>7250</v>
+        <v>2536</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
@@ -65971,10 +65971,10 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>725</v>
+        <v>141</v>
       </c>
       <c r="Q911" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66024,29 +66024,29 @@
         <v>160</v>
       </c>
       <c r="K912" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L912" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M912" t="n">
-        <v>7250</v>
+        <v>4000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>725</v>
+        <v>222</v>
       </c>
       <c r="Q912" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66084,29 +66084,29 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="K913" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L913" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M913" t="n">
-        <v>6246</v>
+        <v>4000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
@@ -66115,10 +66115,10 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="Q913" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,32 +66165,32 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="K914" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L914" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M914" t="n">
-        <v>6247</v>
+        <v>3000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>521</v>
+        <v>150</v>
       </c>
       <c r="Q914" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66228,7 +66228,7 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
@@ -66237,32 +66237,32 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K915" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L915" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M915" t="n">
-        <v>11495</v>
+        <v>5247</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>639</v>
+        <v>437</v>
       </c>
       <c r="Q915" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R915" t="inlineStr">
         <is>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K916" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L916" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M916" t="n">
-        <v>6750</v>
+        <v>10500</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K917" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L917" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M917" t="n">
-        <v>5750</v>
+        <v>8495</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66444,29 +66444,29 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="K918" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L918" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M918" t="n">
-        <v>6747</v>
+        <v>5240</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
@@ -66475,10 +66475,10 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>450</v>
+        <v>291</v>
       </c>
       <c r="Q918" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R918" t="inlineStr">
         <is>
@@ -66516,29 +66516,29 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K919" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L919" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="M919" t="n">
-        <v>5750</v>
+        <v>7250</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
@@ -66547,10 +66547,10 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>319</v>
+        <v>725</v>
       </c>
       <c r="Q919" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66588,7 +66588,7 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
@@ -66597,32 +66597,32 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K920" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L920" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M920" t="n">
-        <v>6744</v>
+        <v>7250</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>337</v>
+        <v>725</v>
       </c>
       <c r="Q920" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,20 +66669,20 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K921" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L921" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M921" t="n">
-        <v>5740</v>
+        <v>6246</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
@@ -66691,10 +66691,10 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>239</v>
+        <v>520</v>
       </c>
       <c r="Q921" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,36 +66737,36 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="K922" t="n">
         <v>6000</v>
       </c>
       <c r="L922" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M922" t="n">
-        <v>6504</v>
+        <v>6247</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>650</v>
+        <v>521</v>
       </c>
       <c r="Q922" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,32 +66813,32 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K923" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L923" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M923" t="n">
-        <v>5000</v>
+        <v>11495</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>417</v>
+        <v>639</v>
       </c>
       <c r="Q923" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K924" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L924" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M924" t="n">
-        <v>8500</v>
+        <v>6750</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>567</v>
+        <v>450</v>
       </c>
       <c r="Q924" t="n">
         <v>15</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="K925" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L925" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M925" t="n">
-        <v>7000</v>
+        <v>5750</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>389</v>
+        <v>319</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K926" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L926" t="n">
         <v>7000</v>
       </c>
       <c r="M926" t="n">
-        <v>6500</v>
+        <v>6747</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="Q926" t="n">
         <v>15</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K927" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L927" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M927" t="n">
-        <v>4988</v>
+        <v>5750</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67173,20 +67173,20 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K928" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L928" t="n">
         <v>7000</v>
       </c>
       <c r="M928" t="n">
-        <v>6500</v>
+        <v>6744</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
@@ -67195,10 +67195,10 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>433</v>
+        <v>337</v>
       </c>
       <c r="Q928" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
@@ -67248,17 +67248,17 @@
         <v>25</v>
       </c>
       <c r="K929" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L929" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M929" t="n">
-        <v>4980</v>
+        <v>5740</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
@@ -67267,10 +67267,10 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="Q929" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,7 +67317,7 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K930" t="n">
         <v>6000</v>
@@ -67326,11 +67326,11 @@
         <v>7000</v>
       </c>
       <c r="M930" t="n">
-        <v>6495</v>
+        <v>6504</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
@@ -67339,10 +67339,10 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q930" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,7 +67389,7 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K931" t="n">
         <v>4500</v>
@@ -67398,11 +67398,11 @@
         <v>5500</v>
       </c>
       <c r="M931" t="n">
-        <v>4988</v>
+        <v>5000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
@@ -67411,10 +67411,10 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>277</v>
+        <v>417</v>
       </c>
       <c r="Q931" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,32 +67461,32 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>453</v>
+        <v>250</v>
       </c>
       <c r="K932" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L932" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M932" t="n">
-        <v>6501</v>
+        <v>8500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>650</v>
+        <v>567</v>
       </c>
       <c r="Q932" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,32 +67533,32 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="K933" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L933" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M933" t="n">
-        <v>4749</v>
+        <v>7000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q933" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>590</v>
+        <v>106</v>
       </c>
       <c r="K934" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L934" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M934" t="n">
-        <v>11924</v>
+        <v>6500</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>795</v>
+        <v>433</v>
       </c>
       <c r="Q934" t="n">
         <v>15</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="K935" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L935" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="M935" t="n">
-        <v>10127</v>
+        <v>4988</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>563</v>
+        <v>277</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="K936" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L936" t="n">
         <v>7000</v>
       </c>
       <c r="M936" t="n">
-        <v>6028</v>
+        <v>6500</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="Q936" t="n">
         <v>15</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67812,7 +67812,7 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="K937" t="n">
         <v>4500</v>
       </c>
       <c r="L937" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M937" t="n">
-        <v>4747</v>
+        <v>4980</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67884,7 +67884,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="K938" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L938" t="n">
         <v>7000</v>
       </c>
       <c r="M938" t="n">
-        <v>6148</v>
+        <v>6495</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="Q938" t="n">
         <v>15</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="K939" t="n">
         <v>4500</v>
       </c>
       <c r="L939" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M939" t="n">
-        <v>4742</v>
+        <v>4988</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,7 +68037,7 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>104</v>
+        <v>453</v>
       </c>
       <c r="K940" t="n">
         <v>6000</v>
@@ -68046,11 +68046,11 @@
         <v>7000</v>
       </c>
       <c r="M940" t="n">
-        <v>6418</v>
+        <v>6501</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
@@ -68059,10 +68059,10 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>428</v>
+        <v>650</v>
       </c>
       <c r="Q940" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,7 +68109,7 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="K941" t="n">
         <v>4500</v>
@@ -68118,11 +68118,11 @@
         <v>5000</v>
       </c>
       <c r="M941" t="n">
-        <v>4746</v>
+        <v>4749</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
@@ -68131,10 +68131,10 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>264</v>
+        <v>396</v>
       </c>
       <c r="Q941" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,32 +68181,32 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>86</v>
+        <v>590</v>
       </c>
       <c r="K942" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L942" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M942" t="n">
-        <v>5797</v>
+        <v>11924</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>290</v>
+        <v>795</v>
       </c>
       <c r="Q942" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,32 +68253,32 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="K943" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L943" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M943" t="n">
-        <v>4740</v>
+        <v>10127</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>198</v>
+        <v>563</v>
       </c>
       <c r="Q943" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,20 +68325,20 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="K944" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L944" t="n">
         <v>7000</v>
       </c>
       <c r="M944" t="n">
-        <v>7000</v>
+        <v>6028</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
@@ -68347,10 +68347,10 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>700</v>
+        <v>402</v>
       </c>
       <c r="Q944" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68388,41 +68388,41 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="K945" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L945" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M945" t="n">
-        <v>8000</v>
+        <v>4747</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>533</v>
+        <v>264</v>
       </c>
       <c r="Q945" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="K946" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L946" t="n">
         <v>7000</v>
       </c>
       <c r="M946" t="n">
-        <v>7000</v>
+        <v>6148</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="Q946" t="n">
         <v>15</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68532,29 +68532,29 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K947" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L947" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M947" t="n">
-        <v>7000</v>
+        <v>4742</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
@@ -68563,10 +68563,10 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="Q947" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -68613,20 +68613,20 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>520</v>
+        <v>104</v>
       </c>
       <c r="K948" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L948" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M948" t="n">
-        <v>4000</v>
+        <v>6418</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
@@ -68635,10 +68635,10 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="Q948" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68676,41 +68676,41 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>430</v>
+        <v>59</v>
       </c>
       <c r="K949" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L949" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M949" t="n">
-        <v>4000</v>
+        <v>4746</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q949" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,20 +68757,20 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="K950" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L950" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M950" t="n">
-        <v>4000</v>
+        <v>5797</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
@@ -68779,10 +68779,10 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="Q950" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68820,29 +68820,29 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="K951" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L951" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M951" t="n">
-        <v>4000</v>
+        <v>4740</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
@@ -68851,10 +68851,10 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="Q951" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68892,7 +68892,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -68904,17 +68904,17 @@
         <v>160</v>
       </c>
       <c r="K952" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L952" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M952" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
@@ -68923,10 +68923,10 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="Q952" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,32 +68973,32 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K953" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L953" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="M953" t="n">
-        <v>6250</v>
+        <v>8000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="Q953" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69048,17 +69048,17 @@
         <v>70</v>
       </c>
       <c r="K954" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L954" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M954" t="n">
-        <v>6250</v>
+        <v>7000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
@@ -69067,10 +69067,10 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>625</v>
+        <v>467</v>
       </c>
       <c r="Q954" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69108,29 +69108,29 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J955" t="n">
         <v>70</v>
       </c>
       <c r="K955" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L955" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M955" t="n">
-        <v>5250</v>
+        <v>7000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
@@ -69139,10 +69139,10 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="Q955" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,36 +69185,36 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>43</v>
+        <v>520</v>
       </c>
       <c r="K956" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L956" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M956" t="n">
-        <v>5256</v>
+        <v>4000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="Q956" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K957" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L957" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M957" t="n">
-        <v>8750</v>
+        <v>4000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>583</v>
+        <v>267</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69324,41 +69324,41 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K958" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L958" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M958" t="n">
-        <v>7250</v>
+        <v>4000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>403</v>
+        <v>267</v>
       </c>
       <c r="Q958" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69396,7 +69396,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K959" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L959" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M959" t="n">
-        <v>5750</v>
+        <v>4000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>383</v>
+        <v>267</v>
       </c>
       <c r="Q959" t="n">
         <v>15</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69468,41 +69468,41 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K960" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L960" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M960" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="Q960" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,32 +69549,32 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K961" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L961" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M961" t="n">
-        <v>5750</v>
+        <v>6250</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>383</v>
+        <v>625</v>
       </c>
       <c r="Q961" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69612,29 +69612,29 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K962" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L962" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M962" t="n">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
@@ -69643,10 +69643,10 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="Q962" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,24 +69689,24 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K963" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L963" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M963" t="n">
-        <v>6000</v>
+        <v>5250</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
@@ -69715,10 +69715,10 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>600</v>
+        <v>438</v>
       </c>
       <c r="Q963" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69756,29 +69756,29 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K964" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L964" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M964" t="n">
-        <v>6000</v>
+        <v>5256</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
@@ -69787,10 +69787,10 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="Q964" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69828,7 +69828,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K965" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L965" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M965" t="n">
-        <v>6000</v>
+        <v>8750</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69900,41 +69900,41 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K966" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L966" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M966" t="n">
-        <v>5000</v>
+        <v>7250</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="Q966" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K967" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L967" t="n">
         <v>6000</v>
       </c>
       <c r="M967" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Q967" t="n">
         <v>15</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70044,41 +70044,41 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K968" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L968" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M968" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q968" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="K969" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L969" t="n">
         <v>6000</v>
       </c>
       <c r="M969" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Q969" t="n">
         <v>15</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70188,41 +70188,41 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="K970" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L970" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M970" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="Q970" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70269,32 +70269,32 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K971" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L971" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M971" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="Q971" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,36 +70337,36 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K972" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L972" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M972" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70413,7 +70413,7 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K973" t="n">
         <v>6000</v>
@@ -70431,7 +70431,7 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P973" t="n">
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70498,7 +70498,7 @@
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
@@ -70507,10 +70507,10 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q974" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70548,29 +70548,29 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K975" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L975" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M975" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
@@ -70579,10 +70579,10 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="Q975" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70620,41 +70620,41 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="K976" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L976" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M976" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>222</v>
+        <v>467</v>
       </c>
       <c r="Q976" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70692,7 +70692,7 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
@@ -70701,7 +70701,7 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K977" t="n">
         <v>6000</v>
@@ -70714,19 +70714,19 @@
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q977" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70764,7 +70764,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
@@ -70791,7 +70791,7 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P978" t="n">
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K979" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L979" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M979" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q979" t="n">
         <v>15</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70908,41 +70908,41 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K980" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L980" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M980" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>650</v>
+        <v>222</v>
       </c>
       <c r="Q980" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70980,41 +70980,41 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="K981" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L981" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M981" t="n">
-        <v>4747</v>
+        <v>6000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q981" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="K982" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L982" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M982" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>633</v>
+        <v>333</v>
       </c>
       <c r="Q982" t="n">
         <v>15</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71124,7 +71124,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="K983" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L983" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M983" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>417</v>
+        <v>222</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71196,41 +71196,41 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="K984" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L984" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M984" t="n">
-        <v>6494</v>
+        <v>4000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>433</v>
+        <v>222</v>
       </c>
       <c r="Q984" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71268,41 +71268,41 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K985" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L985" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M985" t="n">
-        <v>4744</v>
+        <v>6000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>264</v>
+        <v>600</v>
       </c>
       <c r="Q985" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71340,7 +71340,7 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="K986" t="n">
         <v>6000</v>
       </c>
       <c r="L986" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M986" t="n">
-        <v>6488</v>
+        <v>6000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="Q986" t="n">
         <v>15</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71412,41 +71412,41 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K987" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L987" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M987" t="n">
-        <v>4750</v>
+        <v>6000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>264</v>
+        <v>400</v>
       </c>
       <c r="Q987" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,7 +71493,7 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K988" t="n">
         <v>6000</v>
@@ -71506,7 +71506,7 @@
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
@@ -71515,10 +71515,10 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q988" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,7 +71565,7 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K989" t="n">
         <v>4500</v>
@@ -71574,11 +71574,11 @@
         <v>5000</v>
       </c>
       <c r="M989" t="n">
-        <v>4740</v>
+        <v>4747</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
@@ -71587,10 +71587,10 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>263</v>
+        <v>396</v>
       </c>
       <c r="Q989" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71637,32 +71637,32 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K990" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L990" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M990" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>400</v>
+        <v>633</v>
       </c>
       <c r="Q990" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K991" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L991" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M991" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="Q991" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71772,41 +71772,41 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="K992" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L992" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M992" t="n">
-        <v>3000</v>
+        <v>6494</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>300</v>
+        <v>433</v>
       </c>
       <c r="Q992" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71844,41 +71844,41 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K993" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L993" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M993" t="n">
-        <v>4000</v>
+        <v>4744</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q993" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71916,41 +71916,41 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="K994" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L994" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M994" t="n">
-        <v>3000</v>
+        <v>6488</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>167</v>
+        <v>433</v>
       </c>
       <c r="Q994" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71988,41 +71988,41 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="K995" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L995" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M995" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q995" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K996" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L996" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M996" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="Q996" t="n">
         <v>15</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="K997" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L997" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M997" t="n">
-        <v>3000</v>
+        <v>4740</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,7 +72213,7 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K998" t="n">
         <v>4000</v>
@@ -72226,19 +72226,19 @@
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="Q998" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72276,41 +72276,41 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K999" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L999" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M999" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="Q999" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72348,41 +72348,41 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K1000" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1000" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1000" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="Q1000" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72420,29 +72420,29 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="K1001" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L1001" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1001" t="n">
-        <v>2763</v>
+        <v>4000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
@@ -72451,10 +72451,10 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="Q1001" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72492,29 +72492,29 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K1002" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L1002" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1002" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
@@ -72523,10 +72523,10 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>500</v>
+        <v>167</v>
       </c>
       <c r="Q1002" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72564,7 +72564,7 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K1003" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1003" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1003" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="Q1003" t="n">
         <v>15</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K1004" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1004" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1004" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="Q1004" t="n">
         <v>15</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72708,29 +72708,29 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K1005" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L1005" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M1005" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
@@ -72739,10 +72739,10 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>675</v>
+        <v>167</v>
       </c>
       <c r="Q1005" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72780,41 +72780,41 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="K1006" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1006" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1006" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="Q1006" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72852,41 +72852,41 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="K1007" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="L1007" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M1007" t="n">
-        <v>8750</v>
+        <v>3000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>583</v>
+        <v>167</v>
       </c>
       <c r="Q1007" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72924,41 +72924,41 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K1008" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1008" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1008" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="Q1008" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -72996,29 +72996,29 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K1009" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="L1009" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M1009" t="n">
-        <v>6750</v>
+        <v>2763</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
@@ -73027,10 +73027,10 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>450</v>
+        <v>154</v>
       </c>
       <c r="Q1009" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73068,29 +73068,29 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K1010" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1010" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1010" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
@@ -73099,10 +73099,10 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1010" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73140,7 +73140,7 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -73152,13 +73152,13 @@
         <v>70</v>
       </c>
       <c r="K1011" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1011" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1011" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="Q1011" t="n">
         <v>15</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -73221,20 +73221,20 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K1012" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1012" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1012" t="n">
-        <v>6746</v>
+        <v>5000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
@@ -73243,10 +73243,10 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q1012" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73284,29 +73284,29 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K1013" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1013" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1013" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
@@ -73315,10 +73315,10 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>250</v>
+        <v>675</v>
       </c>
       <c r="Q1013" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73361,24 +73361,24 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="K1014" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1014" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1014" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
@@ -73387,10 +73387,10 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="Q1014" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73428,41 +73428,41 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K1015" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L1015" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1015" t="n">
-        <v>6000</v>
+        <v>8750</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="Q1015" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73500,41 +73500,41 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1016" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1016" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1016" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Q1016" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,24 +73577,24 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K1017" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1017" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1017" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
@@ -73603,10 +73603,10 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>278</v>
+        <v>450</v>
       </c>
       <c r="Q1017" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73644,29 +73644,29 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K1018" t="n">
         <v>6000</v>
       </c>
       <c r="L1018" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1018" t="n">
-        <v>6620</v>
+        <v>6000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
@@ -73675,10 +73675,10 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="Q1018" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,58 +73701,634 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1019" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1019" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1019" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N1019" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1019" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1019" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1019" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1020" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1020" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1020" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1020" t="n">
+        <v>61</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>6746</v>
+      </c>
+      <c r="N1020" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1020" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1020" t="n">
+        <v>337</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1020" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1021" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1021" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1021" t="inlineStr">
+        <is>
+          <t>$/caja 24 unidades</t>
+        </is>
+      </c>
+      <c r="O1021" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1021" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>24</v>
+      </c>
+      <c r="R1021" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1022" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E1019" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1019" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G1019" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H1019" t="inlineStr">
+      <c r="E1022" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1022" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1022" t="n">
+        <v>180</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>6750</v>
+      </c>
+      <c r="N1022" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1022" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1022" t="n">
+        <v>675</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1022" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1023" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1023" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1023" t="n">
+        <v>97</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1023" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O1023" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1023" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>12</v>
+      </c>
+      <c r="R1023" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1024" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1024" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1024" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N1024" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1024" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1024" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1024" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1025" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1025" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1025" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1025" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1025" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1025" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1026" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1026" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1026" t="inlineStr">
         <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I1019" t="inlineStr">
+      <c r="I1026" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1026" t="n">
+        <v>79</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>6620</v>
+      </c>
+      <c r="N1026" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1026" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1026" t="n">
+        <v>441</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1026" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1027" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1027" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1027" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1019" t="n">
+      <c r="J1027" t="n">
         <v>27</v>
       </c>
-      <c r="K1019" t="n">
+      <c r="K1027" t="n">
         <v>5500</v>
       </c>
-      <c r="L1019" t="n">
+      <c r="L1027" t="n">
         <v>5500</v>
       </c>
-      <c r="M1019" t="n">
+      <c r="M1027" t="n">
         <v>5500</v>
       </c>
-      <c r="N1019" t="inlineStr">
+      <c r="N1027" t="inlineStr">
         <is>
           <t>$/caja 18 unidades</t>
         </is>
       </c>
-      <c r="O1019" t="inlineStr">
+      <c r="O1027" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1019" t="n">
+      <c r="P1027" t="n">
         <v>306</v>
       </c>
-      <c r="Q1019" t="n">
+      <c r="Q1027" t="n">
         <v>18</v>
       </c>
-      <c r="R1019" t="inlineStr">
+      <c r="R1027" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1127"/>
+  <dimension ref="A1:R1138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,24 +69761,24 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="K964" t="n">
         <v>5000</v>
       </c>
       <c r="L964" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M964" t="n">
         <v>5500</v>
       </c>
-      <c r="M964" t="n">
-        <v>5247</v>
-      </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
@@ -69787,10 +69787,10 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>437</v>
+        <v>550</v>
       </c>
       <c r="Q964" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69828,7 +69828,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -69837,32 +69837,32 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="K965" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L965" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M965" t="n">
-        <v>10500</v>
+        <v>5500</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="Q965" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69900,7 +69900,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -69909,32 +69909,32 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K966" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L966" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="M966" t="n">
-        <v>8495</v>
+        <v>4500</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69972,41 +69972,41 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="K967" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L967" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M967" t="n">
-        <v>5240</v>
+        <v>7500</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>291</v>
+        <v>500</v>
       </c>
       <c r="Q967" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70044,41 +70044,41 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J968" t="n">
         <v>160</v>
       </c>
       <c r="K968" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L968" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M968" t="n">
-        <v>7250</v>
+        <v>6000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>725</v>
+        <v>333</v>
       </c>
       <c r="Q968" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70116,41 +70116,41 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K969" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L969" t="n">
         <v>6000</v>
       </c>
-      <c r="L969" t="n">
-        <v>6500</v>
-      </c>
       <c r="M969" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>521</v>
+        <v>367</v>
       </c>
       <c r="Q969" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70188,29 +70188,29 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K970" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L970" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M970" t="n">
-        <v>6750</v>
+        <v>4000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
@@ -70219,10 +70219,10 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>450</v>
+        <v>222</v>
       </c>
       <c r="Q970" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70265,24 +70265,24 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K971" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L971" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M971" t="n">
         <v>5500</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
@@ -70291,10 +70291,10 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="Q971" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70332,41 +70332,41 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="K972" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L972" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M972" t="n">
-        <v>6753</v>
+        <v>4000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>450</v>
+        <v>222</v>
       </c>
       <c r="Q972" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,36 +70409,36 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K973" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L973" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M973" t="n">
-        <v>5500</v>
+        <v>5495</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="Q973" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44286</v>
+        <v>44474</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70476,29 +70476,29 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K974" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L974" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M974" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
@@ -70507,10 +70507,10 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>600</v>
+        <v>222</v>
       </c>
       <c r="Q974" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70548,29 +70548,29 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K975" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L975" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M975" t="n">
-        <v>6000</v>
+        <v>5247</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
@@ -70579,10 +70579,10 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="Q975" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K976" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L976" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M976" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q976" t="n">
         <v>15</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70692,41 +70692,41 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="K977" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L977" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M977" t="n">
-        <v>5000</v>
+        <v>8495</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="Q977" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44209</v>
+        <v>44438</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70764,41 +70764,41 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="K978" t="n">
         <v>5000</v>
       </c>
       <c r="L978" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M978" t="n">
-        <v>5000</v>
+        <v>5240</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="Q978" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K979" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L979" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M979" t="n">
-        <v>4000</v>
+        <v>7250</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>400</v>
+        <v>725</v>
       </c>
       <c r="Q979" t="n">
         <v>10</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70908,41 +70908,41 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="K980" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L980" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M980" t="n">
-        <v>3778</v>
+        <v>6250</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>252</v>
+        <v>521</v>
       </c>
       <c r="Q980" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70980,41 +70980,41 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>320</v>
+        <v>52</v>
       </c>
       <c r="K981" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L981" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M981" t="n">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>167</v>
+        <v>450</v>
       </c>
       <c r="Q981" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="K982" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L982" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M982" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="K983" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L983" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M983" t="n">
-        <v>4000</v>
+        <v>6753</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="Q983" t="n">
         <v>15</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="K984" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L984" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M984" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71268,7 +71268,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -71277,20 +71277,20 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K985" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L985" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M985" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
@@ -71299,10 +71299,10 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="Q985" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44160</v>
+        <v>44286</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71340,29 +71340,29 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K986" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L986" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M986" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
@@ -71371,10 +71371,10 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="Q986" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,32 +71421,32 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="K987" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L987" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M987" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>675</v>
+        <v>333</v>
       </c>
       <c r="Q987" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71484,41 +71484,41 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K988" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L988" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M988" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q988" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>430</v>
+        <v>140</v>
       </c>
       <c r="K989" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L989" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M989" t="n">
-        <v>8250</v>
+        <v>5000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>550</v>
+        <v>333</v>
       </c>
       <c r="Q989" t="n">
         <v>15</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71628,41 +71628,41 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="K990" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L990" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M990" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="Q990" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="K991" t="n">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="L991" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M991" t="n">
-        <v>6750</v>
+        <v>3778</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>450</v>
+        <v>252</v>
       </c>
       <c r="Q991" t="n">
         <v>15</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="K992" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L992" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M992" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,36 +71849,36 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K993" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L993" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M993" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="Q993" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71916,41 +71916,41 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="K994" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L994" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M994" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="Q994" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,36 +71993,36 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="K995" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L995" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M995" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="Q995" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72060,29 +72060,29 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="K996" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L996" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M996" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
@@ -72091,10 +72091,10 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="Q996" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K997" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L997" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M997" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>338</v>
+        <v>150</v>
       </c>
       <c r="Q997" t="n">
         <v>20</v>
@@ -72204,29 +72204,29 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="K998" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L998" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M998" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
@@ -72235,10 +72235,10 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>250</v>
+        <v>675</v>
       </c>
       <c r="Q998" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,36 +72281,36 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K999" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L999" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M999" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="Q999" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72348,41 +72348,41 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>27</v>
+        <v>430</v>
       </c>
       <c r="K1000" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L1000" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="M1000" t="n">
-        <v>5500</v>
+        <v>8250</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="Q1000" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72420,41 +72420,41 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="K1001" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L1001" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1001" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q1001" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,36 +72497,36 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="K1002" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1002" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1002" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>306</v>
+        <v>450</v>
       </c>
       <c r="Q1002" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72564,29 +72564,29 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K1003" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1003" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1003" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
@@ -72595,10 +72595,10 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="Q1003" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,24 +72641,24 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="K1004" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1004" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1004" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
@@ -72667,10 +72667,10 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>306</v>
+        <v>450</v>
       </c>
       <c r="Q1004" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72708,41 +72708,41 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K1005" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1005" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1005" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="Q1005" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,36 +72785,36 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K1006" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1006" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1006" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>306</v>
+        <v>450</v>
       </c>
       <c r="Q1006" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72852,29 +72852,29 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K1007" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1007" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1007" t="n">
-        <v>6741</v>
+        <v>6000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
@@ -72883,10 +72883,10 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q1007" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72929,24 +72929,24 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K1008" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1008" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1008" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
@@ -72955,10 +72955,10 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>229</v>
+        <v>338</v>
       </c>
       <c r="Q1008" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -72996,16 +72996,16 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K1009" t="n">
         <v>6000</v>
@@ -73018,7 +73018,7 @@
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
@@ -73027,10 +73027,10 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="Q1009" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -73077,20 +73077,20 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K1010" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1010" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1010" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
@@ -73099,10 +73099,10 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q1010" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73140,41 +73140,41 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="K1011" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1011" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1011" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="Q1011" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K1012" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1012" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1012" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q1012" t="n">
         <v>15</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73284,41 +73284,41 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="K1013" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="L1013" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1013" t="n">
-        <v>3731</v>
+        <v>5500</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="Q1013" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73356,7 +73356,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -73365,32 +73365,32 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="K1014" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L1014" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1014" t="n">
-        <v>3778</v>
+        <v>6750</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="Q1014" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73437,20 +73437,20 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="K1015" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L1015" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M1015" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1015" t="inlineStr">
@@ -73459,10 +73459,10 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q1015" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73500,7 +73500,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="K1016" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1016" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1016" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>333</v>
+        <v>450</v>
       </c>
       <c r="Q1016" t="n">
         <v>15</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="K1017" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1017" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1017" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="Q1017" t="n">
         <v>18</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73653,20 +73653,20 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="K1018" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1018" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1018" t="n">
-        <v>6000</v>
+        <v>6741</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
@@ -73675,10 +73675,10 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="Q1018" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,20 +73725,20 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="K1019" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1019" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1019" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
@@ -73747,10 +73747,10 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q1019" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K1020" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1020" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1020" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q1020" t="n">
         <v>10</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73860,7 +73860,7 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>430</v>
+        <v>120</v>
       </c>
       <c r="K1021" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1021" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1021" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="Q1021" t="n">
         <v>15</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1022" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1022" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1022" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="Q1022" t="n">
         <v>15</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K1023" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1023" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1023" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="Q1023" t="n">
         <v>15</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74076,7 +74076,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -74085,20 +74085,20 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="K1024" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1024" t="n">
         <v>4000</v>
       </c>
       <c r="M1024" t="n">
-        <v>4000</v>
+        <v>3731</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
@@ -74107,10 +74107,10 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>200</v>
+        <v>373</v>
       </c>
       <c r="Q1024" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K1025" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L1025" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M1025" t="n">
-        <v>7250</v>
+        <v>3778</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74175,11 +74175,11 @@
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>725</v>
+        <v>378</v>
       </c>
       <c r="Q1025" t="n">
         <v>10</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74229,20 +74229,20 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K1026" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L1026" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M1026" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
@@ -74251,10 +74251,10 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q1026" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K1027" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1027" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M1027" t="n">
-        <v>8250</v>
+        <v>5000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>550</v>
+        <v>333</v>
       </c>
       <c r="Q1027" t="n">
         <v>15</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74373,16 +74373,16 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K1028" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1028" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1028" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q1028" t="n">
         <v>18</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74436,7 +74436,7 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
@@ -74445,16 +74445,16 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="K1029" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1029" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1029" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q1029" t="n">
         <v>15</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74508,7 +74508,7 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="K1030" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1030" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1030" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q1030" t="n">
         <v>18</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,20 +74589,20 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>70</v>
+        <v>520</v>
       </c>
       <c r="K1031" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L1031" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1031" t="n">
-        <v>6750</v>
+        <v>4000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1031" t="inlineStr">
@@ -74611,10 +74611,10 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q1031" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74652,41 +74652,41 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>43</v>
+        <v>430</v>
       </c>
       <c r="K1032" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1032" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1032" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Q1032" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74724,7 +74724,7 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1033" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L1033" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1033" t="n">
-        <v>6750</v>
+        <v>4000</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>450</v>
+        <v>267</v>
       </c>
       <c r="Q1033" t="n">
         <v>15</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,24 +74801,24 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="K1034" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1034" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1034" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
@@ -74827,10 +74827,10 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Q1034" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74868,7 +74868,7 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
@@ -74877,7 +74877,7 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K1035" t="n">
         <v>4000</v>
@@ -74890,7 +74890,7 @@
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
@@ -74899,10 +74899,10 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q1035" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74945,20 +74945,20 @@
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="K1036" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L1036" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="M1036" t="n">
-        <v>3000</v>
+        <v>7250</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>300</v>
+        <v>725</v>
       </c>
       <c r="Q1036" t="n">
         <v>10</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75012,41 +75012,41 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K1037" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1037" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1037" t="n">
-        <v>4812</v>
+        <v>6000</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="Q1037" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75084,7 +75084,7 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -75093,32 +75093,32 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="K1038" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L1038" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M1038" t="n">
-        <v>4000</v>
+        <v>8250</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="Q1038" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75156,7 +75156,7 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -75165,32 +75165,32 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K1039" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L1039" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M1039" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>150</v>
+        <v>389</v>
       </c>
       <c r="Q1039" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75228,7 +75228,7 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -75237,20 +75237,20 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="K1040" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L1040" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1040" t="n">
-        <v>3778</v>
+        <v>6750</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1040" t="inlineStr">
@@ -75259,10 +75259,10 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="Q1040" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75300,41 +75300,41 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="K1041" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1041" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1041" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="Q1041" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75372,7 +75372,7 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
@@ -75381,32 +75381,32 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K1042" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L1042" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1042" t="n">
-        <v>3750</v>
+        <v>6750</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="Q1042" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75453,20 +75453,20 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="K1043" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1043" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1043" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
@@ -75475,10 +75475,10 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q1043" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75516,7 +75516,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="K1044" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L1044" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1044" t="n">
-        <v>3773</v>
+        <v>6750</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>252</v>
+        <v>450</v>
       </c>
       <c r="Q1044" t="n">
         <v>15</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75588,41 +75588,41 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>460</v>
+        <v>34</v>
       </c>
       <c r="K1045" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1045" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1045" t="n">
-        <v>3717</v>
+        <v>5000</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="Q1045" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75660,41 +75660,41 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="K1046" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1046" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1046" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="Q1046" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75732,7 +75732,7 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
@@ -75741,7 +75741,7 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="K1047" t="n">
         <v>3000</v>
@@ -75754,7 +75754,7 @@
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
@@ -75763,10 +75763,10 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="Q1047" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75804,41 +75804,41 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="K1048" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L1048" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1048" t="n">
-        <v>3000</v>
+        <v>4812</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>167</v>
+        <v>321</v>
       </c>
       <c r="Q1048" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75876,7 +75876,7 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
@@ -75885,7 +75885,7 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="K1049" t="n">
         <v>4000</v>
@@ -75898,19 +75898,19 @@
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="Q1049" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75948,41 +75948,41 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K1050" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1050" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1050" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="Q1050" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
@@ -76020,29 +76020,29 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="K1051" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L1051" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1051" t="n">
-        <v>2692</v>
+        <v>3778</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
@@ -76051,10 +76051,10 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>150</v>
+        <v>378</v>
       </c>
       <c r="Q1051" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76092,7 +76092,7 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
@@ -76101,7 +76101,7 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K1052" t="n">
         <v>4000</v>
@@ -76114,19 +76114,19 @@
       </c>
       <c r="N1052" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="Q1052" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76164,7 +76164,7 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
@@ -76173,32 +76173,32 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K1053" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="L1053" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M1053" t="n">
-        <v>11500</v>
+        <v>3750</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>767</v>
+        <v>375</v>
       </c>
       <c r="Q1053" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1053" t="inlineStr">
         <is>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76236,7 +76236,7 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -76245,32 +76245,32 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="K1054" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L1054" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="M1054" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1054" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q1054" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1054" t="inlineStr">
         <is>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76308,41 +76308,41 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="K1055" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1055" t="n">
         <v>4000</v>
       </c>
       <c r="M1055" t="n">
-        <v>4000</v>
+        <v>3773</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="Q1055" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76380,41 +76380,41 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>25</v>
+        <v>460</v>
       </c>
       <c r="K1056" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1056" t="n">
         <v>4000</v>
       </c>
       <c r="M1056" t="n">
-        <v>4000</v>
+        <v>3717</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="Q1056" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76452,41 +76452,41 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="K1057" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L1057" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M1057" t="n">
-        <v>5752</v>
+        <v>3000</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>575</v>
+        <v>167</v>
       </c>
       <c r="Q1057" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1057" t="inlineStr">
         <is>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76524,7 +76524,7 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
@@ -76533,20 +76533,20 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="K1058" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L1058" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M1058" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1058" t="inlineStr">
@@ -76555,10 +76555,10 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>375</v>
+        <v>167</v>
       </c>
       <c r="Q1058" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1058" t="inlineStr">
         <is>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76601,24 +76601,24 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="K1059" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L1059" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="M1059" t="n">
-        <v>5246</v>
+        <v>3000</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
@@ -76627,10 +76627,10 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>350</v>
+        <v>167</v>
       </c>
       <c r="Q1059" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K1060" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1060" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1060" t="n">
-        <v>5250</v>
+        <v>4000</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="Q1060" t="n">
         <v>15</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76740,7 +76740,7 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -76749,32 +76749,32 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K1061" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1061" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1061" t="n">
-        <v>5250</v>
+        <v>4000</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q1061" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76812,7 +76812,7 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
@@ -76821,20 +76821,20 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="K1062" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L1062" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1062" t="n">
-        <v>4000</v>
+        <v>2692</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
@@ -76843,10 +76843,10 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="Q1062" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76884,7 +76884,7 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
@@ -76893,32 +76893,32 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K1063" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1063" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1063" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="Q1063" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76956,7 +76956,7 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
@@ -76965,32 +76965,32 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K1064" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L1064" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M1064" t="n">
-        <v>5000</v>
+        <v>11500</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>500</v>
+        <v>767</v>
       </c>
       <c r="Q1064" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77028,41 +77028,41 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="K1065" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L1065" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M1065" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1065" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77105,24 +77105,24 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="K1066" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1066" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1066" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1066" t="inlineStr">
@@ -77131,10 +77131,10 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="Q1066" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44244</v>
+        <v>44410</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77172,29 +77172,29 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K1067" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1067" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1067" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1067" t="inlineStr">
@@ -77203,10 +77203,10 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="Q1067" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77244,7 +77244,7 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
@@ -77253,20 +77253,20 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K1068" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1068" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1068" t="n">
-        <v>5000</v>
+        <v>5752</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1068" t="inlineStr">
@@ -77275,10 +77275,10 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>333</v>
+        <v>575</v>
       </c>
       <c r="Q1068" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1068" t="inlineStr">
         <is>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77316,29 +77316,29 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K1069" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1069" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1069" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1069" t="inlineStr">
@@ -77347,10 +77347,10 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="Q1069" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77388,7 +77388,7 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
@@ -77397,20 +77397,20 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>520</v>
+        <v>61</v>
       </c>
       <c r="K1070" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1070" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1070" t="n">
-        <v>4000</v>
+        <v>5246</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1070" t="inlineStr">
@@ -77419,10 +77419,10 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="Q1070" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77460,7 +77460,7 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>700</v>
+        <v>70</v>
       </c>
       <c r="K1071" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1071" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1071" t="n">
-        <v>4000</v>
+        <v>5250</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77487,11 +77487,11 @@
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="Q1071" t="n">
         <v>15</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77532,7 +77532,7 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
@@ -77541,20 +77541,20 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K1072" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1072" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1072" t="n">
-        <v>4000</v>
+        <v>5250</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1072" t="inlineStr">
@@ -77563,10 +77563,10 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q1072" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44176</v>
+        <v>44411</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77604,16 +77604,16 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="K1073" t="n">
         <v>4000</v>
@@ -77626,7 +77626,7 @@
       </c>
       <c r="N1073" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1073" t="inlineStr">
@@ -77635,10 +77635,10 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="Q1073" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R1073" t="inlineStr">
         <is>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77685,20 +77685,20 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1074" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1074" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1074" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1074" t="inlineStr">
@@ -77707,10 +77707,10 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q1074" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77757,7 +77757,7 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="K1075" t="n">
         <v>5000</v>
@@ -77770,19 +77770,19 @@
       </c>
       <c r="N1075" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1075" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1075" t="inlineStr">
         <is>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,7 +77829,7 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="K1076" t="n">
         <v>5000</v>
@@ -77847,7 +77847,7 @@
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1076" t="n">
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77901,7 +77901,7 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K1077" t="n">
         <v>5000</v>
@@ -77919,7 +77919,7 @@
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1077" t="n">
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77986,7 +77986,7 @@
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
@@ -77995,10 +77995,10 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1078" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78063,7 +78063,7 @@
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1079" t="n">
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44376</v>
+        <v>44244</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78108,7 +78108,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -78120,17 +78120,17 @@
         <v>160</v>
       </c>
       <c r="K1080" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1080" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1080" t="n">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
@@ -78139,10 +78139,10 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>625</v>
+        <v>333</v>
       </c>
       <c r="Q1080" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78189,16 +78189,16 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>70</v>
+        <v>520</v>
       </c>
       <c r="K1081" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1081" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M1081" t="n">
-        <v>6250</v>
+        <v>4000</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78207,11 +78207,11 @@
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="Q1081" t="n">
         <v>10</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78252,41 +78252,41 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="K1082" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1082" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1082" t="n">
-        <v>5250</v>
+        <v>4000</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="Q1082" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78324,41 +78324,41 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="K1083" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1083" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1083" t="n">
-        <v>5256</v>
+        <v>4000</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="Q1083" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78396,7 +78396,7 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K1084" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L1084" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M1084" t="n">
-        <v>8750</v>
+        <v>4000</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78423,11 +78423,11 @@
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>583</v>
+        <v>267</v>
       </c>
       <c r="Q1084" t="n">
         <v>15</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78468,41 +78468,41 @@
       </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1085" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1085" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="M1085" t="n">
-        <v>7250</v>
+        <v>4000</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1085" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="Q1085" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1085" t="inlineStr">
         <is>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78540,7 +78540,7 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1086" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1086" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1086" t="n">
-        <v>5750</v>
+        <v>5000</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78567,11 +78567,11 @@
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="Q1086" t="n">
         <v>15</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78612,16 +78612,16 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1087" t="n">
         <v>5000</v>
@@ -78634,19 +78634,19 @@
       </c>
       <c r="N1087" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q1087" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78684,7 +78684,7 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="K1088" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1088" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1088" t="n">
-        <v>5750</v>
+        <v>5000</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78711,11 +78711,11 @@
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="Q1088" t="n">
         <v>15</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78761,11 +78761,11 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K1089" t="n">
         <v>5000</v>
@@ -78778,19 +78778,19 @@
       </c>
       <c r="N1089" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q1089" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78828,7 +78828,7 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -78837,32 +78837,32 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K1090" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1090" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1090" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="Q1090" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78900,7 +78900,7 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
@@ -78909,32 +78909,32 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1091" t="n">
         <v>6000</v>
       </c>
       <c r="L1091" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1091" t="n">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q1091" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78972,7 +78972,7 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
@@ -78981,20 +78981,20 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1092" t="n">
         <v>6000</v>
       </c>
       <c r="L1092" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1092" t="n">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
@@ -79003,10 +79003,10 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q1092" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79049,36 +79049,36 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="K1093" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1093" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1093" t="n">
-        <v>6750</v>
+        <v>5250</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>675</v>
+        <v>438</v>
       </c>
       <c r="Q1093" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="K1094" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1094" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1094" t="n">
-        <v>6000</v>
+        <v>5256</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="Q1094" t="n">
         <v>12</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79200,13 +79200,13 @@
         <v>340</v>
       </c>
       <c r="K1095" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L1095" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M1095" t="n">
-        <v>8250</v>
+        <v>8750</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="Q1095" t="n">
         <v>15</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79275,10 +79275,10 @@
         <v>7000</v>
       </c>
       <c r="L1096" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1096" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="Q1096" t="n">
         <v>18</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K1097" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1097" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1097" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79359,11 +79359,11 @@
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q1097" t="n">
         <v>15</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K1098" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1098" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1098" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79431,11 +79431,11 @@
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="Q1098" t="n">
         <v>18</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -79476,7 +79476,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K1099" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1099" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1099" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79503,11 +79503,11 @@
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="Q1099" t="n">
         <v>15</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79548,7 +79548,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -79557,16 +79557,16 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K1100" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1100" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1100" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79575,11 +79575,11 @@
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="Q1100" t="n">
         <v>18</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79620,7 +79620,7 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
@@ -79629,20 +79629,20 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K1101" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1101" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1101" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1101" t="inlineStr">
@@ -79651,10 +79651,10 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q1101" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79692,29 +79692,29 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K1102" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1102" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1102" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1102" t="inlineStr">
@@ -79723,10 +79723,10 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="Q1102" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79764,7 +79764,7 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
@@ -79773,32 +79773,32 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K1103" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1103" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1103" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="Q1103" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79836,41 +79836,41 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="K1104" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1104" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1104" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>229</v>
+        <v>675</v>
       </c>
       <c r="Q1104" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79908,41 +79908,41 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K1105" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1105" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1105" t="n">
-        <v>4750</v>
+        <v>6000</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>317</v>
+        <v>500</v>
       </c>
       <c r="Q1105" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79980,7 +79980,7 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K1106" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L1106" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="M1106" t="n">
-        <v>3750</v>
+        <v>8250</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="Q1106" t="n">
         <v>15</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80052,41 +80052,41 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1107" t="n">
         <v>160</v>
       </c>
       <c r="K1107" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L1107" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1107" t="n">
-        <v>3750</v>
+        <v>7000</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>188</v>
+        <v>389</v>
       </c>
       <c r="Q1107" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80124,7 +80124,7 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -80133,20 +80133,20 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K1108" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1108" t="n">
         <v>7000</v>
       </c>
       <c r="M1108" t="n">
-        <v>6504</v>
+        <v>6750</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
@@ -80155,10 +80155,10 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q1108" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80196,41 +80196,41 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1109" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1109" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1109" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>650</v>
+        <v>306</v>
       </c>
       <c r="Q1109" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80268,29 +80268,29 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K1110" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L1110" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1110" t="n">
-        <v>4492</v>
+        <v>6750</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1110" t="inlineStr">
@@ -80299,10 +80299,10 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>374</v>
+        <v>450</v>
       </c>
       <c r="Q1110" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80340,7 +80340,7 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
@@ -80352,29 +80352,29 @@
         <v>52</v>
       </c>
       <c r="K1111" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1111" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1111" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>375</v>
+        <v>306</v>
       </c>
       <c r="Q1111" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80412,7 +80412,7 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="K1112" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L1112" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M1112" t="n">
-        <v>11500</v>
+        <v>6750</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80439,11 +80439,11 @@
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>767</v>
+        <v>450</v>
       </c>
       <c r="Q1112" t="n">
         <v>15</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80484,7 +80484,7 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1113" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L1113" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M1113" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80511,11 +80511,11 @@
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>528</v>
+        <v>306</v>
       </c>
       <c r="Q1113" t="n">
         <v>18</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
@@ -80565,20 +80565,20 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K1114" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1114" t="n">
         <v>7000</v>
       </c>
       <c r="M1114" t="n">
-        <v>6492</v>
+        <v>6750</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
@@ -80587,10 +80587,10 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="Q1114" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -80628,41 +80628,41 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K1115" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1115" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1115" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>433</v>
+        <v>229</v>
       </c>
       <c r="Q1115" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -80700,16 +80700,16 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="K1116" t="n">
         <v>4500</v>
@@ -80722,19 +80722,19 @@
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="Q1116" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80777,36 +80777,36 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K1117" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1117" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1117" t="n">
-        <v>4760</v>
+        <v>3750</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Q1117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80844,7 +80844,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -80853,20 +80853,20 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K1118" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L1118" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1118" t="n">
-        <v>6492</v>
+        <v>3750</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1118" t="inlineStr">
@@ -80875,10 +80875,10 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>433</v>
+        <v>188</v>
       </c>
       <c r="Q1118" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,7 +80925,7 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K1119" t="n">
         <v>6000</v>
@@ -80934,23 +80934,23 @@
         <v>7000</v>
       </c>
       <c r="M1119" t="n">
-        <v>6500</v>
+        <v>6504</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q1119" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,20 +80997,20 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K1120" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1120" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1120" t="n">
-        <v>4740</v>
+        <v>6500</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
@@ -81019,10 +81019,10 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>263</v>
+        <v>650</v>
       </c>
       <c r="Q1120" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81060,7 +81060,7 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
@@ -81069,20 +81069,20 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K1121" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1121" t="n">
         <v>5000</v>
       </c>
       <c r="M1121" t="n">
-        <v>4750</v>
+        <v>4492</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1121" t="inlineStr">
@@ -81091,10 +81091,10 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="Q1121" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
@@ -81132,41 +81132,41 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K1122" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1122" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1122" t="n">
-        <v>5744</v>
+        <v>4500</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>287</v>
+        <v>375</v>
       </c>
       <c r="Q1122" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
@@ -81204,41 +81204,41 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="K1123" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L1123" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M1123" t="n">
-        <v>4750</v>
+        <v>11500</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>198</v>
+        <v>767</v>
       </c>
       <c r="Q1123" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81276,41 +81276,41 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1124" t="n">
         <v>160</v>
       </c>
       <c r="K1124" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1124" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1124" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>700</v>
+        <v>528</v>
       </c>
       <c r="Q1124" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1124" t="inlineStr">
         <is>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81348,7 +81348,7 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
@@ -81357,16 +81357,16 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="K1125" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1125" t="n">
         <v>7000</v>
       </c>
       <c r="M1125" t="n">
-        <v>7000</v>
+        <v>6492</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q1125" t="n">
         <v>15</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81432,13 +81432,13 @@
         <v>52</v>
       </c>
       <c r="K1126" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1126" t="n">
         <v>7000</v>
       </c>
       <c r="M1126" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q1126" t="n">
         <v>15</v>
@@ -81477,58 +81477,850 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1127" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1127" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1127" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N1127" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1127" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1127" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1127" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1128" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1128" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1128" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1128" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1128" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>4760</v>
+      </c>
+      <c r="N1128" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1128" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1128" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1128" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1129" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1129" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1129" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1129" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1129" t="n">
+        <v>61</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>6492</v>
+      </c>
+      <c r="N1129" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1129" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1129" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1129" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1130" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1130" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1130" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N1130" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1130" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1130" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1130" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1131" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1131" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1131" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>4740</v>
+      </c>
+      <c r="N1131" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1131" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1131" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1131" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1132" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1132" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1132" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1132" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N1132" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1132" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1132" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1132" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1133" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1133" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1133" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>5744</v>
+      </c>
+      <c r="N1133" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1133" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1133" t="n">
+        <v>287</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1133" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1134" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1134" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1134" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1134" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N1134" t="inlineStr">
+        <is>
+          <t>$/caja 24 unidades</t>
+        </is>
+      </c>
+      <c r="O1134" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1134" t="n">
+        <v>198</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>24</v>
+      </c>
+      <c r="R1134" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1135" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E1127" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1127" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H1127" t="inlineStr">
+      <c r="E1135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1135" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1135" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1135" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1135" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1135" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1135" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1135" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1136" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1136" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1136" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1136" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1136" t="n">
+        <v>100</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1136" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1136" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1136" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1136" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1137" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1137" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1137" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1137" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1137" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1137" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1137" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1137" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1138" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1138" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1138" t="inlineStr">
         <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I1127" t="inlineStr">
+      <c r="I1138" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J1127" t="n">
+      <c r="J1138" t="n">
         <v>61</v>
       </c>
-      <c r="K1127" t="n">
+      <c r="K1138" t="n">
         <v>7000</v>
       </c>
-      <c r="L1127" t="n">
+      <c r="L1138" t="n">
         <v>7000</v>
       </c>
-      <c r="M1127" t="n">
+      <c r="M1138" t="n">
         <v>7000</v>
       </c>
-      <c r="N1127" t="inlineStr">
+      <c r="N1138" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
         </is>
       </c>
-      <c r="O1127" t="inlineStr">
+      <c r="O1138" t="inlineStr">
         <is>
           <t>Región de Valparaíso</t>
         </is>
       </c>
-      <c r="P1127" t="n">
+      <c r="P1138" t="n">
         <v>467</v>
       </c>
-      <c r="Q1127" t="n">
+      <c r="Q1138" t="n">
         <v>15</v>
       </c>
-      <c r="R1127" t="inlineStr">
+      <c r="R1138" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1223"/>
+  <dimension ref="A1:R1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="K1055" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1055" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1055" t="n">
-        <v>4000</v>
+        <v>5496</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q1055" t="n">
         <v>10</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76380,41 +76380,41 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K1056" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L1056" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1056" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>517</v>
+        <v>333</v>
       </c>
       <c r="Q1056" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76452,7 +76452,7 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1057" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1057" t="n">
         <v>7000</v>
       </c>
       <c r="M1057" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76479,11 +76479,11 @@
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="Q1057" t="n">
         <v>15</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76524,41 +76524,41 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K1058" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1058" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1058" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q1058" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1058" t="inlineStr">
         <is>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76596,7 +76596,7 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
@@ -76605,20 +76605,20 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K1059" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1059" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M1059" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
@@ -76627,10 +76627,10 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>725</v>
+        <v>367</v>
       </c>
       <c r="Q1059" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76668,7 +76668,7 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
@@ -76677,20 +76677,20 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1060" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1060" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1060" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1060" t="inlineStr">
@@ -76699,10 +76699,10 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="Q1060" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76740,7 +76740,7 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -76749,32 +76749,32 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="K1061" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1061" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="M1061" t="n">
-        <v>8250</v>
+        <v>4000</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q1061" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76817,36 +76817,36 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1062" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L1062" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1062" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>389</v>
+        <v>517</v>
       </c>
       <c r="Q1062" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76893,7 +76893,7 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="K1063" t="n">
         <v>6500</v>
@@ -76911,7 +76911,7 @@
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1063" t="n">
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76956,29 +76956,29 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K1064" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1064" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1064" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1064" t="inlineStr">
@@ -76987,10 +76987,10 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>278</v>
+        <v>467</v>
       </c>
       <c r="Q1064" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
@@ -77028,7 +77028,7 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
@@ -77037,20 +77037,20 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1065" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L1065" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1065" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1065" t="inlineStr">
@@ -77059,10 +77059,10 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q1065" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
@@ -77100,7 +77100,7 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
@@ -77109,20 +77109,20 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1066" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1066" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1066" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1066" t="inlineStr">
@@ -77131,10 +77131,10 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q1066" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
@@ -77172,7 +77172,7 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K1067" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1067" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="M1067" t="n">
-        <v>6750</v>
+        <v>8250</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77199,11 +77199,11 @@
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q1067" t="n">
         <v>15</v>
@@ -77244,7 +77244,7 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K1068" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1068" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1068" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77271,11 +77271,11 @@
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q1068" t="n">
         <v>18</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77316,7 +77316,7 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
@@ -77325,20 +77325,20 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K1069" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1069" t="n">
         <v>7000</v>
       </c>
       <c r="M1069" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1069" t="inlineStr">
@@ -77347,10 +77347,10 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="Q1069" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,36 +77393,36 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K1070" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1070" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1070" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q1070" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K1071" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1071" t="n">
         <v>7000</v>
       </c>
       <c r="M1071" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="Q1071" t="n">
         <v>15</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77532,16 +77532,16 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="K1072" t="n">
         <v>5000</v>
@@ -77554,19 +77554,19 @@
       </c>
       <c r="N1072" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q1072" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77604,7 +77604,7 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K1073" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1073" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1073" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77631,11 +77631,11 @@
       </c>
       <c r="O1073" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q1073" t="n">
         <v>15</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77676,41 +77676,41 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K1074" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1074" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1074" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1074" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q1074" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77757,32 +77757,32 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K1075" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1075" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1075" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q1075" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1075" t="inlineStr">
         <is>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K1076" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1076" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1076" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77847,11 +77847,11 @@
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="Q1076" t="n">
         <v>15</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="K1077" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1077" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1077" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77919,11 +77919,11 @@
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q1077" t="n">
         <v>15</v>
@@ -77964,41 +77964,41 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K1078" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1078" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1078" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="Q1078" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,7 +78045,7 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K1079" t="n">
         <v>6000</v>
@@ -78063,7 +78063,7 @@
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1079" t="n">
@@ -78108,7 +78108,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K1080" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1080" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1080" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78135,11 +78135,11 @@
       </c>
       <c r="O1080" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q1080" t="n">
         <v>15</v>
@@ -78180,41 +78180,41 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K1081" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1081" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1081" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="Q1081" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78252,41 +78252,41 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K1082" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1082" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1082" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="Q1082" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78324,7 +78324,7 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
@@ -78333,32 +78333,32 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K1083" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1083" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1083" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="Q1083" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78396,29 +78396,29 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K1084" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1084" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1084" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1084" t="inlineStr">
@@ -78427,10 +78427,10 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>533</v>
+        <v>222</v>
       </c>
       <c r="Q1084" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K1085" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1085" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1085" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78495,11 +78495,11 @@
       </c>
       <c r="O1085" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q1085" t="n">
         <v>15</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78540,7 +78540,7 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
@@ -78549,32 +78549,32 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K1086" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1086" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1086" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>675</v>
+        <v>333</v>
       </c>
       <c r="Q1086" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78612,7 +78612,7 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
@@ -78621,32 +78621,32 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="K1087" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1087" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="M1087" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>458</v>
+        <v>222</v>
       </c>
       <c r="Q1087" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78684,41 +78684,41 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>430</v>
+        <v>190</v>
       </c>
       <c r="K1088" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="L1088" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M1088" t="n">
-        <v>8750</v>
+        <v>4000</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>583</v>
+        <v>222</v>
       </c>
       <c r="Q1088" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78756,41 +78756,41 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1089" t="n">
         <v>160</v>
       </c>
       <c r="K1089" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1089" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M1089" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>417</v>
+        <v>800</v>
       </c>
       <c r="Q1089" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78828,7 +78828,7 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K1090" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1090" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1090" t="n">
-        <v>6744</v>
+        <v>8000</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="Q1090" t="n">
         <v>15</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78900,7 +78900,7 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K1091" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1091" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1091" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78927,11 +78927,11 @@
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="Q1091" t="n">
         <v>15</v>
@@ -78972,41 +78972,41 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="K1092" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1092" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1092" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>306</v>
+        <v>675</v>
       </c>
       <c r="Q1092" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79053,7 +79053,7 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="K1093" t="n">
         <v>5500</v>
@@ -79066,7 +79066,7 @@
       </c>
       <c r="N1093" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1093" t="inlineStr">
@@ -79075,10 +79075,10 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>306</v>
+        <v>458</v>
       </c>
       <c r="Q1093" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
@@ -79116,7 +79116,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>61</v>
+        <v>430</v>
       </c>
       <c r="K1094" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="L1094" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1094" t="n">
-        <v>6754</v>
+        <v>8750</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="Q1094" t="n">
         <v>15</v>
@@ -79188,41 +79188,41 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1095" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="L1095" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1095" t="n">
-        <v>6750</v>
+        <v>7500</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="Q1095" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
@@ -79260,29 +79260,29 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K1096" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1096" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1096" t="n">
-        <v>5500</v>
+        <v>6744</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1096" t="inlineStr">
@@ -79291,10 +79291,10 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>306</v>
+        <v>450</v>
       </c>
       <c r="Q1096" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
@@ -79332,29 +79332,29 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1097" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1097" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1097" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
@@ -79363,10 +79363,10 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>306</v>
+        <v>450</v>
       </c>
       <c r="Q1097" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79404,29 +79404,29 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="K1098" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1098" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1098" t="n">
-        <v>6750</v>
+        <v>5500</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
@@ -79435,10 +79435,10 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>675</v>
+        <v>306</v>
       </c>
       <c r="Q1098" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -79476,29 +79476,29 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="K1099" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1099" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1099" t="n">
-        <v>6752</v>
+        <v>5500</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1099" t="inlineStr">
@@ -79507,10 +79507,10 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>675</v>
+        <v>306</v>
       </c>
       <c r="Q1099" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79548,29 +79548,29 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="K1100" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1100" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1100" t="n">
-        <v>5500</v>
+        <v>6754</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
@@ -79579,10 +79579,10 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q1100" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79620,29 +79620,29 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K1101" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1101" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1101" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1101" t="inlineStr">
@@ -79651,10 +79651,10 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q1101" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79692,29 +79692,29 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="K1102" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1102" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1102" t="n">
-        <v>6247</v>
+        <v>5500</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1102" t="inlineStr">
@@ -79723,10 +79723,10 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="Q1102" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79764,29 +79764,29 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K1103" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1103" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1103" t="n">
-        <v>6246</v>
+        <v>5500</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
@@ -79795,10 +79795,10 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>416</v>
+        <v>306</v>
       </c>
       <c r="Q1103" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79836,29 +79836,29 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1104" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1104" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1104" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
@@ -79867,10 +79867,10 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>278</v>
+        <v>675</v>
       </c>
       <c r="Q1104" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79908,29 +79908,29 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="K1105" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1105" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1105" t="n">
-        <v>5000</v>
+        <v>6752</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1105" t="inlineStr">
@@ -79939,10 +79939,10 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>278</v>
+        <v>675</v>
       </c>
       <c r="Q1105" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
@@ -79980,29 +79980,29 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K1106" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1106" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1106" t="n">
-        <v>6250</v>
+        <v>5500</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1106" t="inlineStr">
@@ -80011,10 +80011,10 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="Q1106" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
@@ -80052,29 +80052,29 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1107" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1107" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="M1107" t="n">
-        <v>6244</v>
+        <v>5500</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
@@ -80083,10 +80083,10 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="Q1107" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80124,29 +80124,29 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="K1108" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1108" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1108" t="n">
-        <v>5000</v>
+        <v>6247</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
@@ -80155,10 +80155,10 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>278</v>
+        <v>416</v>
       </c>
       <c r="Q1108" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80196,29 +80196,29 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K1109" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1109" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1109" t="n">
-        <v>5000</v>
+        <v>6246</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
@@ -80227,10 +80227,10 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>278</v>
+        <v>416</v>
       </c>
       <c r="Q1109" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80268,29 +80268,29 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="K1110" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1110" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1110" t="n">
-        <v>6247</v>
+        <v>5000</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1110" t="inlineStr">
@@ -80299,10 +80299,10 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>416</v>
+        <v>278</v>
       </c>
       <c r="Q1110" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
@@ -80340,29 +80340,29 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K1111" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1111" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1111" t="n">
-        <v>6246</v>
+        <v>5000</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1111" t="inlineStr">
@@ -80371,10 +80371,10 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>416</v>
+        <v>278</v>
       </c>
       <c r="Q1111" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
@@ -80412,29 +80412,29 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1112" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1112" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1112" t="n">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1112" t="inlineStr">
@@ -80443,10 +80443,10 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>278</v>
+        <v>417</v>
       </c>
       <c r="Q1112" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
@@ -80484,29 +80484,29 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K1113" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1113" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1113" t="n">
-        <v>5000</v>
+        <v>6244</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1113" t="inlineStr">
@@ -80515,10 +80515,10 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>278</v>
+        <v>416</v>
       </c>
       <c r="Q1113" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
@@ -80556,29 +80556,29 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1114" t="n">
         <v>34</v>
       </c>
       <c r="K1114" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1114" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1114" t="n">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
@@ -80587,10 +80587,10 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="Q1114" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80628,7 +80628,7 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -80637,7 +80637,7 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K1115" t="n">
         <v>5000</v>
@@ -80650,19 +80650,19 @@
       </c>
       <c r="N1115" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="Q1115" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -80700,7 +80700,7 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -80709,20 +80709,20 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K1116" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1116" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M1116" t="n">
-        <v>7000</v>
+        <v>6247</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
@@ -80731,10 +80731,10 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>700</v>
+        <v>416</v>
       </c>
       <c r="Q1116" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80772,41 +80772,41 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K1117" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1117" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1117" t="n">
-        <v>4500</v>
+        <v>6246</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>250</v>
+        <v>416</v>
       </c>
       <c r="Q1117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80853,16 +80853,16 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K1118" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1118" t="n">
         <v>5000</v>
       </c>
       <c r="M1118" t="n">
-        <v>4521</v>
+        <v>5000</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="Q1118" t="n">
         <v>18</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80916,41 +80916,41 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K1119" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1119" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1119" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>600</v>
+        <v>278</v>
       </c>
       <c r="Q1119" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,32 +80997,32 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="K1120" t="n">
         <v>6000</v>
       </c>
       <c r="L1120" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1120" t="n">
-        <v>6000</v>
+        <v>6250</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="Q1120" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81060,29 +81060,29 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K1121" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1121" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1121" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1121" t="inlineStr">
@@ -81091,10 +81091,10 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>400</v>
+        <v>208</v>
       </c>
       <c r="Q1121" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81144,13 +81144,13 @@
         <v>160</v>
       </c>
       <c r="K1122" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1122" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="M1122" t="n">
-        <v>6250</v>
+        <v>7000</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="Q1122" t="n">
         <v>10</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81204,41 +81204,41 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K1123" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1123" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1123" t="n">
-        <v>6252</v>
+        <v>4500</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="Q1123" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81276,7 +81276,7 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
@@ -81285,20 +81285,20 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="K1124" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1124" t="n">
         <v>5000</v>
       </c>
       <c r="M1124" t="n">
-        <v>5000</v>
+        <v>4521</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1124" t="inlineStr">
@@ -81307,10 +81307,10 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>417</v>
+        <v>251</v>
       </c>
       <c r="Q1124" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1124" t="inlineStr">
         <is>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81353,36 +81353,36 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K1125" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1125" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1125" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>417</v>
+        <v>600</v>
       </c>
       <c r="Q1125" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81420,7 +81420,7 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>430</v>
+        <v>120</v>
       </c>
       <c r="K1126" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L1126" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1126" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>517</v>
+        <v>400</v>
       </c>
       <c r="Q1126" t="n">
         <v>15</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81492,41 +81492,41 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1127" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1127" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1127" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Q1127" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81573,20 +81573,20 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K1128" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1128" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1128" t="n">
-        <v>5746</v>
+        <v>6250</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1128" t="inlineStr">
@@ -81595,10 +81595,10 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>383</v>
+        <v>625</v>
       </c>
       <c r="Q1128" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
@@ -81636,7 +81636,7 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
@@ -81645,20 +81645,20 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K1129" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1129" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1129" t="n">
-        <v>5750</v>
+        <v>6252</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1129" t="inlineStr">
@@ -81667,10 +81667,10 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>383</v>
+        <v>625</v>
       </c>
       <c r="Q1129" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
@@ -81708,7 +81708,7 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
@@ -81717,7 +81717,7 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="K1130" t="n">
         <v>5000</v>
@@ -81730,7 +81730,7 @@
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
@@ -81739,10 +81739,10 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>278</v>
+        <v>417</v>
       </c>
       <c r="Q1130" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81780,7 +81780,7 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
@@ -81789,7 +81789,7 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1131" t="n">
         <v>5000</v>
@@ -81802,7 +81802,7 @@
       </c>
       <c r="N1131" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1131" t="inlineStr">
@@ -81811,10 +81811,10 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>278</v>
+        <v>417</v>
       </c>
       <c r="Q1131" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
@@ -81852,7 +81852,7 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
@@ -81861,16 +81861,16 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>61</v>
+        <v>430</v>
       </c>
       <c r="K1132" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L1132" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1132" t="n">
-        <v>5746</v>
+        <v>7750</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81879,11 +81879,11 @@
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>383</v>
+        <v>517</v>
       </c>
       <c r="Q1132" t="n">
         <v>15</v>
@@ -81924,41 +81924,41 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="K1133" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1133" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1133" t="n">
-        <v>5756</v>
+        <v>6500</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="Q1133" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
@@ -81996,29 +81996,29 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K1134" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1134" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1134" t="n">
-        <v>5000</v>
+        <v>5746</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1134" t="inlineStr">
@@ -82027,10 +82027,10 @@
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="Q1134" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1134" t="inlineStr">
         <is>
@@ -82068,29 +82068,29 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K1135" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1135" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1135" t="n">
-        <v>5000</v>
+        <v>5750</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
@@ -82099,10 +82099,10 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="Q1135" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82140,29 +82140,29 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K1136" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1136" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1136" t="n">
-        <v>5750</v>
+        <v>5000</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1136" t="inlineStr">
@@ -82171,10 +82171,10 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="Q1136" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
@@ -82212,29 +82212,29 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="K1137" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1137" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1137" t="n">
-        <v>5747</v>
+        <v>5000</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
@@ -82243,10 +82243,10 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="Q1137" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82284,29 +82284,29 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K1138" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1138" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1138" t="n">
-        <v>5000</v>
+        <v>5746</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
@@ -82315,10 +82315,10 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="Q1138" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82356,29 +82356,29 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K1139" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1139" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1139" t="n">
-        <v>5000</v>
+        <v>5756</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1139" t="inlineStr">
@@ -82387,10 +82387,10 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="Q1139" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
@@ -82428,29 +82428,29 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K1140" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1140" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1140" t="n">
-        <v>5750</v>
+        <v>5000</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
@@ -82459,10 +82459,10 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Q1140" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82500,7 +82500,7 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
@@ -82509,7 +82509,7 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K1141" t="n">
         <v>5000</v>
@@ -82522,19 +82522,19 @@
       </c>
       <c r="N1141" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="Q1141" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82572,7 +82572,7 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
@@ -82581,20 +82581,20 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K1142" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1142" t="n">
         <v>6000</v>
       </c>
-      <c r="L1142" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1142" t="n">
-        <v>6504</v>
+        <v>5750</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1142" t="inlineStr">
@@ -82603,10 +82603,10 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>650</v>
+        <v>383</v>
       </c>
       <c r="Q1142" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82644,7 +82644,7 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
@@ -82653,20 +82653,20 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1143" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1143" t="n">
         <v>6000</v>
       </c>
-      <c r="L1143" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1143" t="n">
-        <v>6500</v>
+        <v>5747</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1143" t="inlineStr">
@@ -82675,10 +82675,10 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>650</v>
+        <v>383</v>
       </c>
       <c r="Q1143" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82716,7 +82716,7 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
@@ -82725,20 +82725,20 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K1144" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1144" t="n">
         <v>5000</v>
       </c>
       <c r="M1144" t="n">
-        <v>4492</v>
+        <v>5000</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1144" t="inlineStr">
@@ -82747,10 +82747,10 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>374</v>
+        <v>278</v>
       </c>
       <c r="Q1144" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82788,7 +82788,7 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
@@ -82800,17 +82800,17 @@
         <v>52</v>
       </c>
       <c r="K1145" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1145" t="n">
         <v>5000</v>
       </c>
       <c r="M1145" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
@@ -82819,10 +82819,10 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="Q1145" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82860,7 +82860,7 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
@@ -82869,32 +82869,32 @@
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K1146" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="L1146" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M1146" t="n">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>767</v>
+        <v>288</v>
       </c>
       <c r="Q1146" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82932,7 +82932,7 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
@@ -82941,32 +82941,32 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1147" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L1147" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M1147" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1147" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>528</v>
+        <v>208</v>
       </c>
       <c r="Q1147" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
@@ -83004,7 +83004,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -83013,7 +83013,7 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="K1148" t="n">
         <v>6000</v>
@@ -83022,11 +83022,11 @@
         <v>7000</v>
       </c>
       <c r="M1148" t="n">
-        <v>6492</v>
+        <v>6504</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
@@ -83035,10 +83035,10 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q1148" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,7 +83085,7 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K1149" t="n">
         <v>6000</v>
@@ -83098,7 +83098,7 @@
       </c>
       <c r="N1149" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1149" t="inlineStr">
@@ -83107,10 +83107,10 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q1149" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83157,20 +83157,20 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K1150" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1150" t="n">
         <v>5000</v>
       </c>
       <c r="M1150" t="n">
-        <v>4750</v>
+        <v>4492</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1150" t="inlineStr">
@@ -83179,10 +83179,10 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="Q1150" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83220,7 +83220,7 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -83229,20 +83229,20 @@
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K1151" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1151" t="n">
         <v>5000</v>
       </c>
       <c r="M1151" t="n">
-        <v>4760</v>
+        <v>4500</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
@@ -83251,10 +83251,10 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q1151" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K1152" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L1152" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M1152" t="n">
-        <v>6492</v>
+        <v>11500</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83319,11 +83319,11 @@
       </c>
       <c r="O1152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>433</v>
+        <v>767</v>
       </c>
       <c r="Q1152" t="n">
         <v>15</v>
@@ -83364,41 +83364,41 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1153" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1153" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1153" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1153" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>433</v>
+        <v>528</v>
       </c>
       <c r="Q1153" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
@@ -83436,7 +83436,7 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
@@ -83445,32 +83445,32 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K1154" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1154" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1154" t="n">
-        <v>4740</v>
+        <v>6492</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1154" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>263</v>
+        <v>433</v>
       </c>
       <c r="Q1154" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
@@ -83508,41 +83508,41 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1155" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1155" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1155" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>264</v>
+        <v>433</v>
       </c>
       <c r="Q1155" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
@@ -83580,29 +83580,29 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K1156" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1156" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1156" t="n">
-        <v>5744</v>
+        <v>4750</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1156" t="inlineStr">
@@ -83611,10 +83611,10 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="Q1156" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1156" t="inlineStr">
         <is>
@@ -83652,7 +83652,7 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
@@ -83661,7 +83661,7 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K1157" t="n">
         <v>4500</v>
@@ -83670,23 +83670,23 @@
         <v>5000</v>
       </c>
       <c r="M1157" t="n">
-        <v>4750</v>
+        <v>4760</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="Q1157" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -83724,7 +83724,7 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
@@ -83733,20 +83733,20 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K1158" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1158" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1158" t="n">
-        <v>5750</v>
+        <v>6492</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1158" t="inlineStr">
@@ -83755,10 +83755,10 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>575</v>
+        <v>433</v>
       </c>
       <c r="Q1158" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -83796,41 +83796,41 @@
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1159" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1159" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1159" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="Q1159" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -83868,7 +83868,7 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
@@ -83877,32 +83877,32 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="K1160" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1160" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1160" t="n">
-        <v>5747</v>
+        <v>4740</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="Q1160" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1160" t="inlineStr">
         <is>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -83940,7 +83940,7 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
@@ -83952,13 +83952,13 @@
         <v>34</v>
       </c>
       <c r="K1161" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1161" t="n">
         <v>5000</v>
       </c>
       <c r="M1161" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="Q1161" t="n">
         <v>18</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -84012,7 +84012,7 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
@@ -84021,7 +84021,7 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="K1162" t="n">
         <v>5500</v>
@@ -84030,11 +84030,11 @@
         <v>6000</v>
       </c>
       <c r="M1162" t="n">
-        <v>5752</v>
+        <v>5744</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1162" t="inlineStr">
@@ -84043,10 +84043,10 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>383</v>
+        <v>287</v>
       </c>
       <c r="Q1162" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1162" t="inlineStr">
         <is>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -84084,7 +84084,7 @@
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1163" t="inlineStr">
@@ -84093,20 +84093,20 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K1163" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1163" t="n">
         <v>5000</v>
       </c>
       <c r="M1163" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1163" t="inlineStr">
@@ -84115,10 +84115,10 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="Q1163" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R1163" t="inlineStr">
         <is>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="K1164" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1164" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1164" t="n">
-        <v>4000</v>
+        <v>5750</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>400</v>
+        <v>575</v>
       </c>
       <c r="Q1164" t="n">
         <v>10</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -84233,36 +84233,36 @@
       </c>
       <c r="I1165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K1165" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1165" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1165" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1165" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="Q1165" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -84300,7 +84300,7 @@
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1166" t="inlineStr">
@@ -84309,16 +84309,16 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="K1166" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="L1166" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1166" t="n">
-        <v>4000</v>
+        <v>5747</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84327,11 +84327,11 @@
       </c>
       <c r="O1166" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>267</v>
+        <v>383</v>
       </c>
       <c r="Q1166" t="n">
         <v>15</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -84377,11 +84377,11 @@
       </c>
       <c r="I1167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="K1167" t="n">
         <v>5000</v>
@@ -84394,7 +84394,7 @@
       </c>
       <c r="N1167" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1167" t="inlineStr">
@@ -84403,10 +84403,10 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1167" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1167" t="inlineStr">
         <is>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -84444,29 +84444,29 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="K1168" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="L1168" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M1168" t="n">
-        <v>3000</v>
+        <v>5752</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1168" t="inlineStr">
@@ -84475,10 +84475,10 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>167</v>
+        <v>383</v>
       </c>
       <c r="Q1168" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -84521,11 +84521,11 @@
       </c>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1169" t="n">
         <v>5000</v>
@@ -84538,7 +84538,7 @@
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1169" t="inlineStr">
@@ -84547,10 +84547,10 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1169" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
@@ -84588,29 +84588,29 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="K1170" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1170" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M1170" t="n">
-        <v>3273</v>
+        <v>4000</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1170" t="inlineStr">
@@ -84619,10 +84619,10 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="Q1170" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
@@ -84660,7 +84660,7 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
@@ -84669,7 +84669,7 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K1171" t="n">
         <v>4000</v>
@@ -84682,7 +84682,7 @@
       </c>
       <c r="N1171" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1171" t="inlineStr">
@@ -84691,10 +84691,10 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="Q1171" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -84732,7 +84732,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -84741,32 +84741,32 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>106</v>
+        <v>380</v>
       </c>
       <c r="K1172" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1172" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1172" t="n">
-        <v>5750</v>
+        <v>4000</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>575</v>
+        <v>267</v>
       </c>
       <c r="Q1172" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -84804,29 +84804,29 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K1173" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1173" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1173" t="n">
-        <v>4250</v>
+        <v>5000</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1173" t="inlineStr">
@@ -84835,10 +84835,10 @@
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="Q1173" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1173" t="inlineStr">
         <is>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -84876,41 +84876,41 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="K1174" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L1174" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M1174" t="n">
-        <v>7750</v>
+        <v>3000</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1174" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>517</v>
+        <v>167</v>
       </c>
       <c r="Q1174" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -84948,41 +84948,41 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K1175" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1175" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1175" t="n">
-        <v>6247</v>
+        <v>5000</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1175" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="Q1175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -85020,29 +85020,29 @@
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K1176" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L1176" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="M1176" t="n">
-        <v>6000</v>
+        <v>3273</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1176" t="inlineStr">
@@ -85051,10 +85051,10 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>600</v>
+        <v>182</v>
       </c>
       <c r="Q1176" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -85092,7 +85092,7 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
@@ -85101,32 +85101,32 @@
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K1177" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1177" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1177" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="Q1177" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -85173,16 +85173,16 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K1178" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1178" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1178" t="n">
-        <v>5000</v>
+        <v>5750</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="Q1178" t="n">
         <v>10</v>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -85236,41 +85236,41 @@
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K1179" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1179" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1179" t="n">
-        <v>6000</v>
+        <v>4250</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1179" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="Q1179" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -85308,7 +85308,7 @@
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
@@ -85317,16 +85317,16 @@
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K1180" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L1180" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1180" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85335,11 +85335,11 @@
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>333</v>
+        <v>517</v>
       </c>
       <c r="Q1180" t="n">
         <v>15</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -85380,41 +85380,41 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1181" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1181" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1181" t="n">
-        <v>5000</v>
+        <v>6247</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q1181" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -85457,24 +85457,24 @@
       </c>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1182" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1182" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1182" t="n">
-        <v>5247</v>
+        <v>6000</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1182" t="inlineStr">
@@ -85483,10 +85483,10 @@
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>437</v>
+        <v>600</v>
       </c>
       <c r="Q1182" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1182" t="inlineStr">
         <is>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -85524,7 +85524,7 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1183" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L1183" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M1183" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85551,11 +85551,11 @@
       </c>
       <c r="O1183" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q1183" t="n">
         <v>15</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -85596,41 +85596,41 @@
       </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K1184" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1184" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M1184" t="n">
-        <v>8495</v>
+        <v>5000</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1184" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="Q1184" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1184" t="inlineStr">
         <is>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -85668,41 +85668,41 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="K1185" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1185" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1185" t="n">
-        <v>5240</v>
+        <v>6000</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>291</v>
+        <v>400</v>
       </c>
       <c r="Q1185" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1185" t="inlineStr">
         <is>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -85740,7 +85740,7 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
@@ -85749,20 +85749,20 @@
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K1186" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1186" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1186" t="n">
-        <v>3778</v>
+        <v>5000</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1186" t="inlineStr">
@@ -85771,10 +85771,10 @@
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="Q1186" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1186" t="inlineStr">
         <is>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -85812,7 +85812,7 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
@@ -85821,20 +85821,20 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1187" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1187" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1187" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1187" t="inlineStr">
@@ -85843,10 +85843,10 @@
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="Q1187" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1187" t="inlineStr">
         <is>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -85893,20 +85893,20 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K1188" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1188" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="M1188" t="n">
-        <v>3000</v>
+        <v>5247</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1188" t="inlineStr">
@@ -85915,10 +85915,10 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>300</v>
+        <v>437</v>
       </c>
       <c r="Q1188" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1188" t="inlineStr">
         <is>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -85965,16 +85965,16 @@
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K1189" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1189" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M1189" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
@@ -85983,11 +85983,11 @@
       </c>
       <c r="O1189" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q1189" t="n">
         <v>15</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -86033,36 +86033,36 @@
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="K1190" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1190" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1190" t="n">
-        <v>7000</v>
+        <v>8495</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1190" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q1190" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -86100,25 +86100,25 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="K1191" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1191" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M1191" t="n">
-        <v>4000</v>
+        <v>5240</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86127,11 +86127,11 @@
       </c>
       <c r="O1191" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="Q1191" t="n">
         <v>18</v>
@@ -86172,7 +86172,7 @@
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1192" t="inlineStr">
@@ -86181,7 +86181,7 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K1192" t="n">
         <v>3500</v>
@@ -86190,11 +86190,11 @@
         <v>4000</v>
       </c>
       <c r="M1192" t="n">
-        <v>3773</v>
+        <v>3778</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1192" t="inlineStr">
@@ -86203,10 +86203,10 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="Q1192" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1192" t="inlineStr">
         <is>
@@ -86244,41 +86244,41 @@
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K1193" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L1193" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1193" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="Q1193" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1193" t="inlineStr">
         <is>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -86321,20 +86321,20 @@
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K1194" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1194" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1194" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q1194" t="n">
         <v>10</v>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -86388,41 +86388,41 @@
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="K1195" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1195" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1195" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q1195" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1195" t="inlineStr">
         <is>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1196" t="n">
         <v>13</v>
@@ -86469,16 +86469,16 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K1196" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L1196" t="n">
         <v>7000</v>
       </c>
       <c r="M1196" t="n">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
@@ -86491,7 +86491,7 @@
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="Q1196" t="n">
         <v>15</v>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1197" t="n">
         <v>13</v>
@@ -86532,16 +86532,16 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K1197" t="n">
         <v>4000</v>
@@ -86559,7 +86559,7 @@
       </c>
       <c r="O1197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1197" t="n">
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1198" t="n">
         <v>13</v>
@@ -86604,29 +86604,29 @@
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K1198" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1198" t="n">
         <v>4000</v>
       </c>
       <c r="M1198" t="n">
-        <v>4000</v>
+        <v>3773</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1198" t="inlineStr">
@@ -86635,10 +86635,10 @@
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="Q1198" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1198" t="inlineStr">
         <is>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E1199" t="n">
         <v>13</v>
@@ -86676,29 +86676,29 @@
       </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K1199" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L1199" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="M1199" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1199" t="inlineStr">
@@ -86707,10 +86707,10 @@
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="Q1199" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1199" t="inlineStr">
         <is>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -86748,7 +86748,7 @@
       </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
@@ -86757,20 +86757,20 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K1200" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1200" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1200" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1200" t="inlineStr">
@@ -86782,7 +86782,7 @@
         <v>400</v>
       </c>
       <c r="Q1200" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1200" t="inlineStr">
         <is>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1201" t="n">
         <v>13</v>
@@ -86820,41 +86820,41 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>430</v>
+        <v>120</v>
       </c>
       <c r="K1201" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L1201" t="n">
-        <v>8500</v>
+        <v>3000</v>
       </c>
       <c r="M1201" t="n">
-        <v>8250</v>
+        <v>3000</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1201" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="Q1201" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -86897,36 +86897,36 @@
       </c>
       <c r="I1202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1202" t="n">
         <v>250</v>
       </c>
       <c r="K1202" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1202" t="n">
         <v>7000</v>
       </c>
       <c r="M1202" t="n">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1202" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="Q1202" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -86964,41 +86964,41 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="K1203" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1203" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M1203" t="n">
-        <v>6253</v>
+        <v>4000</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1203" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>417</v>
+        <v>222</v>
       </c>
       <c r="Q1203" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -87036,7 +87036,7 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
@@ -87045,16 +87045,16 @@
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="K1204" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1204" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1204" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
@@ -87063,11 +87063,11 @@
       </c>
       <c r="O1204" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q1204" t="n">
         <v>18</v>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -87108,7 +87108,7 @@
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
@@ -87117,32 +87117,32 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K1205" t="n">
         <v>6000</v>
       </c>
       <c r="L1205" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1205" t="n">
-        <v>6252</v>
+        <v>6000</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1205" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>417</v>
+        <v>600</v>
       </c>
       <c r="Q1205" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1205" t="inlineStr">
         <is>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -87180,41 +87180,41 @@
       </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K1206" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1206" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1206" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1206" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="Q1206" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1206" t="inlineStr">
         <is>
@@ -87252,7 +87252,7 @@
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
@@ -87261,32 +87261,32 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>52</v>
+        <v>430</v>
       </c>
       <c r="K1207" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1207" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M1207" t="n">
-        <v>6250</v>
+        <v>8250</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1207" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>312</v>
+        <v>550</v>
       </c>
       <c r="Q1207" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1207" t="inlineStr">
         <is>
@@ -87324,7 +87324,7 @@
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
@@ -87333,32 +87333,32 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K1208" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1208" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1208" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1208" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>208</v>
+        <v>389</v>
       </c>
       <c r="Q1208" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1209" t="n">
         <v>13</v>
@@ -87396,7 +87396,7 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
@@ -87405,32 +87405,32 @@
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1209" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1209" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1209" t="n">
-        <v>5000</v>
+        <v>6253</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q1209" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1209" t="inlineStr">
         <is>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1210" t="n">
         <v>13</v>
@@ -87468,29 +87468,29 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K1210" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1210" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1210" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1210" t="inlineStr">
@@ -87499,10 +87499,10 @@
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="Q1210" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1210" t="inlineStr">
         <is>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -87540,7 +87540,7 @@
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
@@ -87549,16 +87549,16 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K1211" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1211" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1211" t="n">
-        <v>5000</v>
+        <v>6252</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87567,11 +87567,11 @@
       </c>
       <c r="O1211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="Q1211" t="n">
         <v>15</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -87612,41 +87612,41 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1212" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1212" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1212" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>700</v>
+        <v>278</v>
       </c>
       <c r="Q1212" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1212" t="inlineStr">
         <is>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -87684,7 +87684,7 @@
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
@@ -87693,32 +87693,32 @@
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K1213" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1213" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M1213" t="n">
-        <v>8000</v>
+        <v>6250</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1213" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>533</v>
+        <v>312</v>
       </c>
       <c r="Q1213" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1213" t="inlineStr">
         <is>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1214" t="n">
         <v>13</v>
@@ -87756,29 +87756,29 @@
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K1214" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1214" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1214" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1214" t="inlineStr">
@@ -87787,10 +87787,10 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>467</v>
+        <v>208</v>
       </c>
       <c r="Q1214" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R1214" t="inlineStr">
         <is>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1215" t="n">
         <v>13</v>
@@ -87828,7 +87828,7 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
@@ -87837,32 +87837,32 @@
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1215" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1215" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1215" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1215" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q1215" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1215" t="inlineStr">
         <is>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -87900,7 +87900,7 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
@@ -87909,32 +87909,32 @@
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1216" t="n">
         <v>6000</v>
       </c>
       <c r="L1216" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1216" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q1216" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1216" t="inlineStr">
         <is>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -87972,29 +87972,29 @@
       </c>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K1217" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1217" t="n">
         <v>5000</v>
       </c>
       <c r="M1217" t="n">
-        <v>4747</v>
+        <v>5000</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1217" t="inlineStr">
@@ -88003,10 +88003,10 @@
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="Q1217" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1217" t="inlineStr">
         <is>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -88044,7 +88044,7 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -88053,20 +88053,20 @@
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K1218" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1218" t="n">
         <v>7000</v>
       </c>
       <c r="M1218" t="n">
-        <v>6492</v>
+        <v>7000</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1218" t="inlineStr">
@@ -88075,10 +88075,10 @@
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>433</v>
+        <v>700</v>
       </c>
       <c r="Q1218" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1218" t="inlineStr">
         <is>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1219" t="n">
         <v>13</v>
@@ -88116,41 +88116,41 @@
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K1219" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L1219" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1219" t="n">
-        <v>4750</v>
+        <v>8000</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>264</v>
+        <v>533</v>
       </c>
       <c r="Q1219" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1219" t="inlineStr">
         <is>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1220" t="n">
         <v>13</v>
@@ -88197,16 +88197,16 @@
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K1220" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1220" t="n">
         <v>7000</v>
       </c>
       <c r="M1220" t="n">
-        <v>6488</v>
+        <v>7000</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88215,11 +88215,11 @@
       </c>
       <c r="O1220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="Q1220" t="n">
         <v>15</v>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1221" t="n">
         <v>13</v>
@@ -88260,41 +88260,41 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K1221" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L1221" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1221" t="n">
-        <v>4740</v>
+        <v>7000</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>263</v>
+        <v>467</v>
       </c>
       <c r="Q1221" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1221" t="inlineStr">
         <is>
@@ -88332,7 +88332,7 @@
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
@@ -88341,7 +88341,7 @@
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1222" t="n">
         <v>6000</v>
@@ -88354,7 +88354,7 @@
       </c>
       <c r="N1222" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1222" t="inlineStr">
@@ -88363,10 +88363,10 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q1222" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1222" t="inlineStr">
         <is>
@@ -88404,7 +88404,7 @@
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
@@ -88413,7 +88413,7 @@
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1223" t="n">
         <v>4500</v>
@@ -88422,25 +88422,457 @@
         <v>5000</v>
       </c>
       <c r="M1223" t="n">
+        <v>4747</v>
+      </c>
+      <c r="N1223" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O1223" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1223" t="n">
+        <v>396</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>12</v>
+      </c>
+      <c r="R1223" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1224" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1224" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1224" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1224" t="n">
+        <v>61</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>6492</v>
+      </c>
+      <c r="N1224" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1224" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1224" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1224" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1225" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1225" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1225" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N1225" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1225" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1225" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1225" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1226" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1226" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>6488</v>
+      </c>
+      <c r="N1226" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1226" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1226" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1226" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1227" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1227" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>4740</v>
+      </c>
+      <c r="N1227" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1227" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1227" t="n">
+        <v>263</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1227" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1228" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1228" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N1228" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1228" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1228" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1228" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1229" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1229" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1229" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1229" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1229" t="n">
         <v>4744</v>
       </c>
-      <c r="N1223" t="inlineStr">
+      <c r="N1229" t="inlineStr">
         <is>
           <t>$/caja 18 unidades</t>
         </is>
       </c>
-      <c r="O1223" t="inlineStr">
+      <c r="O1229" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1223" t="n">
+      <c r="P1229" t="n">
         <v>264</v>
       </c>
-      <c r="Q1223" t="n">
+      <c r="Q1229" t="n">
         <v>18</v>
       </c>
-      <c r="R1223" t="inlineStr">
+      <c r="R1229" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1260"/>
+  <dimension ref="A1:R1268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K1091" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1091" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1091" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q1091" t="n">
         <v>10</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78972,41 +78972,41 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="K1092" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1092" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1092" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="Q1092" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="K1093" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1093" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1093" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79071,11 +79071,11 @@
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1093" t="n">
         <v>15</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79116,41 +79116,41 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="K1094" t="n">
         <v>5000</v>
       </c>
       <c r="L1094" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1094" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>550</v>
+        <v>278</v>
       </c>
       <c r="Q1094" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79188,29 +79188,29 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K1095" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1095" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1095" t="n">
-        <v>4000</v>
+        <v>5494</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1095" t="inlineStr">
@@ -79219,10 +79219,10 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="Q1095" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44425</v>
+        <v>44504</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79260,29 +79260,29 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="K1096" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1096" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1096" t="n">
-        <v>6504</v>
+        <v>4000</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1096" t="inlineStr">
@@ -79291,10 +79291,10 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>650</v>
+        <v>222</v>
       </c>
       <c r="Q1096" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44425</v>
+        <v>44504</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79332,7 +79332,7 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
@@ -79341,32 +79341,32 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1097" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1097" t="n">
         <v>6000</v>
       </c>
-      <c r="L1097" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1097" t="n">
-        <v>6500</v>
+        <v>5495</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>650</v>
+        <v>366</v>
       </c>
       <c r="Q1097" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44425</v>
+        <v>44504</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79404,7 +79404,7 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
@@ -79413,20 +79413,20 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K1098" t="n">
         <v>4000</v>
       </c>
       <c r="L1098" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1098" t="n">
-        <v>4492</v>
+        <v>4000</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1098" t="inlineStr">
@@ -79435,10 +79435,10 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>374</v>
+        <v>222</v>
       </c>
       <c r="Q1098" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -79481,36 +79481,36 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="K1099" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1099" t="n">
         <v>5000</v>
       </c>
       <c r="M1099" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q1099" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79560,13 +79560,13 @@
         <v>340</v>
       </c>
       <c r="K1100" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L1100" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M1100" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79575,11 +79575,11 @@
       </c>
       <c r="O1100" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>767</v>
+        <v>400</v>
       </c>
       <c r="Q1100" t="n">
         <v>15</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79620,41 +79620,41 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1101" t="n">
         <v>160</v>
       </c>
       <c r="K1101" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L1101" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M1101" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>528</v>
+        <v>333</v>
       </c>
       <c r="Q1101" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79692,7 +79692,7 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
@@ -79701,20 +79701,20 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="K1102" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1102" t="n">
         <v>6000</v>
       </c>
-      <c r="L1102" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1102" t="n">
-        <v>6492</v>
+        <v>5500</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1102" t="inlineStr">
@@ -79723,10 +79723,10 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>433</v>
+        <v>550</v>
       </c>
       <c r="Q1102" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79764,41 +79764,41 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1103" t="n">
         <v>52</v>
       </c>
       <c r="K1103" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1103" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1103" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="Q1103" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79836,29 +79836,29 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="K1104" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1104" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1104" t="n">
-        <v>4750</v>
+        <v>6504</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
@@ -79867,10 +79867,10 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>264</v>
+        <v>650</v>
       </c>
       <c r="Q1104" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79908,29 +79908,29 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K1105" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1105" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1105" t="n">
-        <v>4760</v>
+        <v>6500</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1105" t="inlineStr">
@@ -79939,10 +79939,10 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>264</v>
+        <v>650</v>
       </c>
       <c r="Q1105" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
@@ -79980,29 +79980,29 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1106" t="n">
         <v>61</v>
       </c>
       <c r="K1106" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1106" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1106" t="n">
-        <v>6492</v>
+        <v>4492</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1106" t="inlineStr">
@@ -80011,10 +80011,10 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="Q1106" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
@@ -80052,29 +80052,29 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K1107" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1107" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1107" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
@@ -80083,10 +80083,10 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="Q1107" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80124,7 +80124,7 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -80133,32 +80133,32 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="K1108" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L1108" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M1108" t="n">
-        <v>4740</v>
+        <v>11500</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>263</v>
+        <v>767</v>
       </c>
       <c r="Q1108" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80196,7 +80196,7 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K1109" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L1109" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1109" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80223,11 +80223,11 @@
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>264</v>
+        <v>528</v>
       </c>
       <c r="Q1109" t="n">
         <v>18</v>
@@ -80268,7 +80268,7 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -80277,20 +80277,20 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K1110" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1110" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1110" t="n">
-        <v>5744</v>
+        <v>6492</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1110" t="inlineStr">
@@ -80299,10 +80299,10 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>287</v>
+        <v>433</v>
       </c>
       <c r="Q1110" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
@@ -80340,41 +80340,41 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K1111" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1111" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1111" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>198</v>
+        <v>433</v>
       </c>
       <c r="Q1111" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80412,41 +80412,41 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1112" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L1112" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M1112" t="n">
-        <v>7250</v>
+        <v>4750</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>725</v>
+        <v>264</v>
       </c>
       <c r="Q1112" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80484,41 +80484,41 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="K1113" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L1113" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1113" t="n">
-        <v>7750</v>
+        <v>4760</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>517</v>
+        <v>264</v>
       </c>
       <c r="Q1113" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
@@ -80565,16 +80565,16 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="K1114" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1114" t="n">
         <v>7000</v>
       </c>
       <c r="M1114" t="n">
-        <v>6750</v>
+        <v>6492</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="Q1114" t="n">
         <v>15</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -80628,7 +80628,7 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -80637,16 +80637,16 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K1115" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1115" t="n">
         <v>7000</v>
       </c>
       <c r="M1115" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="Q1115" t="n">
         <v>15</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -80709,20 +80709,20 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="K1116" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1116" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1116" t="n">
-        <v>6750</v>
+        <v>4740</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
@@ -80731,10 +80731,10 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>450</v>
+        <v>263</v>
       </c>
       <c r="Q1116" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80772,29 +80772,29 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K1117" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1117" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1117" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
@@ -80803,10 +80803,10 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="Q1117" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80844,7 +80844,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -80853,20 +80853,20 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="K1118" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1118" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1118" t="n">
-        <v>6752</v>
+        <v>5744</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1118" t="inlineStr">
@@ -80875,10 +80875,10 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>675</v>
+        <v>287</v>
       </c>
       <c r="Q1118" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,7 +80925,7 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="K1119" t="n">
         <v>4500</v>
@@ -80934,11 +80934,11 @@
         <v>5000</v>
       </c>
       <c r="M1119" t="n">
-        <v>4753</v>
+        <v>4750</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
@@ -80947,10 +80947,10 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="Q1119" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,32 +80997,32 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K1120" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L1120" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1120" t="n">
-        <v>6746</v>
+        <v>7250</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q1120" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81060,41 +81060,41 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="K1121" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L1121" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1121" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>264</v>
+        <v>517</v>
       </c>
       <c r="Q1121" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81132,7 +81132,7 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
@@ -81141,7 +81141,7 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="K1122" t="n">
         <v>6500</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81209,36 +81209,36 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="K1123" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1123" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1123" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>264</v>
+        <v>450</v>
       </c>
       <c r="Q1123" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81285,7 +81285,7 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="K1124" t="n">
         <v>6500</v>
@@ -81303,7 +81303,7 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1124" t="n">
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81348,29 +81348,29 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K1125" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1125" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1125" t="n">
-        <v>4760</v>
+        <v>6750</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
@@ -81379,10 +81379,10 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="Q1125" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="K1126" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L1126" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1126" t="n">
-        <v>3773</v>
+        <v>6752</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>377</v>
+        <v>675</v>
       </c>
       <c r="Q1126" t="n">
         <v>10</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81501,20 +81501,20 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="K1127" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L1127" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1127" t="n">
-        <v>3000</v>
+        <v>4753</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1127" t="inlineStr">
@@ -81523,10 +81523,10 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="Q1127" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81573,16 +81573,16 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="K1128" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L1128" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1128" t="n">
-        <v>4000</v>
+        <v>6746</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="Q1128" t="n">
         <v>15</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81636,29 +81636,29 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="K1129" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L1129" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1129" t="n">
-        <v>3783</v>
+        <v>4750</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1129" t="inlineStr">
@@ -81667,10 +81667,10 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="Q1129" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81708,29 +81708,29 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="K1130" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L1130" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M1130" t="n">
-        <v>2794</v>
+        <v>6750</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
@@ -81739,10 +81739,10 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="Q1130" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81780,29 +81780,29 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="K1131" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1131" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1131" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1131" t="inlineStr">
@@ -81811,10 +81811,10 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="Q1131" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81852,29 +81852,29 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="K1132" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L1132" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M1132" t="n">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">
@@ -81883,10 +81883,10 @@
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q1132" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81924,29 +81924,29 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>520</v>
+        <v>25</v>
       </c>
       <c r="K1133" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1133" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1133" t="n">
-        <v>4000</v>
+        <v>4760</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1133" t="inlineStr">
@@ -81955,10 +81955,10 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="Q1133" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -81996,7 +81996,7 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
@@ -82005,32 +82005,32 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="K1134" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1134" t="n">
         <v>4000</v>
       </c>
       <c r="M1134" t="n">
-        <v>4000</v>
+        <v>3773</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>267</v>
+        <v>377</v>
       </c>
       <c r="Q1134" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1134" t="inlineStr">
         <is>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82068,29 +82068,29 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K1135" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1135" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1135" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
@@ -82099,10 +82099,10 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="Q1135" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82140,7 +82140,7 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
@@ -82149,7 +82149,7 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K1136" t="n">
         <v>4000</v>
@@ -82167,7 +82167,7 @@
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1136" t="n">
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82212,7 +82212,7 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
@@ -82221,20 +82221,20 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K1137" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1137" t="n">
         <v>4000</v>
       </c>
       <c r="M1137" t="n">
-        <v>4000</v>
+        <v>3783</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
@@ -82243,10 +82243,10 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="Q1137" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82284,29 +82284,29 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K1138" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="L1138" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M1138" t="n">
-        <v>6250</v>
+        <v>2794</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
@@ -82315,10 +82315,10 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>625</v>
+        <v>155</v>
       </c>
       <c r="Q1138" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82356,7 +82356,7 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
@@ -82365,32 +82365,32 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="K1139" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1139" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M1139" t="n">
-        <v>6252</v>
+        <v>4000</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="Q1139" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82428,7 +82428,7 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
@@ -82437,20 +82437,20 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="K1140" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L1140" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1140" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
@@ -82459,10 +82459,10 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>417</v>
+        <v>150</v>
       </c>
       <c r="Q1140" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82505,36 +82505,36 @@
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>52</v>
+        <v>520</v>
       </c>
       <c r="K1141" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1141" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1141" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="Q1141" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82584,13 +82584,13 @@
         <v>430</v>
       </c>
       <c r="K1142" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L1142" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1142" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>517</v>
+        <v>267</v>
       </c>
       <c r="Q1142" t="n">
         <v>15</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82644,41 +82644,41 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1143" t="n">
         <v>250</v>
       </c>
       <c r="K1143" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L1143" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M1143" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="Q1143" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82716,7 +82716,7 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
@@ -82725,16 +82725,16 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="K1144" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1144" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1144" t="n">
-        <v>5746</v>
+        <v>4000</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>383</v>
+        <v>267</v>
       </c>
       <c r="Q1144" t="n">
         <v>15</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82788,7 +82788,7 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
@@ -82797,32 +82797,32 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1145" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1145" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1145" t="n">
-        <v>5750</v>
+        <v>4000</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>383</v>
+        <v>200</v>
       </c>
       <c r="Q1145" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82860,29 +82860,29 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K1146" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1146" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1146" t="n">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
@@ -82891,10 +82891,10 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="Q1146" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82932,29 +82932,29 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="K1147" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1147" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1147" t="n">
-        <v>5000</v>
+        <v>6252</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1147" t="inlineStr">
@@ -82963,10 +82963,10 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>278</v>
+        <v>625</v>
       </c>
       <c r="Q1147" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
@@ -83004,29 +83004,29 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="K1148" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1148" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1148" t="n">
-        <v>5746</v>
+        <v>5000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
@@ -83035,10 +83035,10 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="Q1148" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83076,29 +83076,29 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K1149" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1149" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1149" t="n">
-        <v>5756</v>
+        <v>5000</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1149" t="inlineStr">
@@ -83107,10 +83107,10 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="Q1149" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
@@ -83148,41 +83148,41 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="K1150" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L1150" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1150" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>278</v>
+        <v>517</v>
       </c>
       <c r="Q1150" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83220,7 +83220,7 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -83229,16 +83229,16 @@
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="K1151" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1151" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1151" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83247,11 +83247,11 @@
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q1151" t="n">
         <v>18</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,7 +83301,7 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K1152" t="n">
         <v>5500</v>
@@ -83310,7 +83310,7 @@
         <v>6000</v>
       </c>
       <c r="M1152" t="n">
-        <v>5750</v>
+        <v>5746</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83364,7 +83364,7 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
@@ -83373,7 +83373,7 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K1153" t="n">
         <v>5500</v>
@@ -83382,7 +83382,7 @@
         <v>6000</v>
       </c>
       <c r="M1153" t="n">
-        <v>5747</v>
+        <v>5750</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83436,7 +83436,7 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
@@ -83445,7 +83445,7 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K1154" t="n">
         <v>5000</v>
@@ -83508,7 +83508,7 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
@@ -83517,7 +83517,7 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K1155" t="n">
         <v>5000</v>
@@ -83580,7 +83580,7 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -83589,7 +83589,7 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K1156" t="n">
         <v>5500</v>
@@ -83598,11 +83598,11 @@
         <v>6000</v>
       </c>
       <c r="M1156" t="n">
-        <v>5750</v>
+        <v>5746</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1156" t="inlineStr">
@@ -83611,10 +83611,10 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="Q1156" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1156" t="inlineStr">
         <is>
@@ -83652,41 +83652,41 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K1157" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1157" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1157" t="n">
-        <v>5000</v>
+        <v>5756</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>208</v>
+        <v>384</v>
       </c>
       <c r="Q1157" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -83724,29 +83724,29 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K1158" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1158" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1158" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1158" t="inlineStr">
@@ -83755,10 +83755,10 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>600</v>
+        <v>278</v>
       </c>
       <c r="Q1158" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -83801,36 +83801,36 @@
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K1159" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1159" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1159" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="Q1159" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -83868,7 +83868,7 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
@@ -83877,20 +83877,20 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="K1160" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1160" t="n">
         <v>6000</v>
       </c>
-      <c r="L1160" t="n">
-        <v>6500</v>
-      </c>
       <c r="M1160" t="n">
-        <v>6250</v>
+        <v>5750</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1160" t="inlineStr">
@@ -83899,10 +83899,10 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="Q1160" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1160" t="inlineStr">
         <is>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -83940,41 +83940,41 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="K1161" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1161" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1161" t="n">
-        <v>4756</v>
+        <v>5747</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="Q1161" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1161" t="inlineStr">
         <is>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -84012,41 +84012,41 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K1162" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L1162" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1162" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1162" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>517</v>
+        <v>278</v>
       </c>
       <c r="Q1162" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1162" t="inlineStr">
         <is>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -84084,7 +84084,7 @@
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1163" t="inlineStr">
@@ -84093,16 +84093,16 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K1163" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1163" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1163" t="n">
-        <v>6247</v>
+        <v>5000</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84111,11 +84111,11 @@
       </c>
       <c r="O1163" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="Q1163" t="n">
         <v>18</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -84156,7 +84156,7 @@
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1164" t="inlineStr">
@@ -84165,20 +84165,20 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K1164" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1164" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1164" t="n">
-        <v>6750</v>
+        <v>5750</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1164" t="inlineStr">
@@ -84187,10 +84187,10 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>675</v>
+        <v>288</v>
       </c>
       <c r="Q1164" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1164" t="inlineStr">
         <is>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -84228,7 +84228,7 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
@@ -84237,20 +84237,20 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="K1165" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1165" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1165" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1165" t="inlineStr">
@@ -84259,10 +84259,10 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>500</v>
+        <v>208</v>
       </c>
       <c r="Q1165" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -84300,7 +84300,7 @@
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1166" t="inlineStr">
@@ -84309,20 +84309,20 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1166" t="n">
         <v>6000</v>
       </c>
       <c r="L1166" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1166" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1166" t="inlineStr">
@@ -84331,10 +84331,10 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>433</v>
+        <v>600</v>
       </c>
       <c r="Q1166" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1166" t="inlineStr">
         <is>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -84372,29 +84372,29 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K1167" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1167" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1167" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1167" t="inlineStr">
@@ -84403,10 +84403,10 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="Q1167" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1167" t="inlineStr">
         <is>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -84444,7 +84444,7 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
@@ -84453,20 +84453,20 @@
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="K1168" t="n">
         <v>6000</v>
       </c>
       <c r="L1168" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M1168" t="n">
-        <v>6620</v>
+        <v>6250</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1168" t="inlineStr">
@@ -84475,10 +84475,10 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>441</v>
+        <v>625</v>
       </c>
       <c r="Q1168" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -84516,7 +84516,7 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
@@ -84525,20 +84525,20 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="K1169" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1169" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1169" t="n">
-        <v>5500</v>
+        <v>4756</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1169" t="inlineStr">
@@ -84547,10 +84547,10 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="Q1169" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -84588,7 +84588,7 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
@@ -84597,32 +84597,32 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K1170" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L1170" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1170" t="n">
-        <v>5504</v>
+        <v>7750</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="Q1170" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -84660,41 +84660,41 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K1171" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1171" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1171" t="n">
-        <v>5500</v>
+        <v>6247</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1171" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>550</v>
+        <v>347</v>
       </c>
       <c r="Q1171" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -84737,24 +84737,24 @@
       </c>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="K1172" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1172" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M1172" t="n">
-        <v>4500</v>
+        <v>6750</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1172" t="inlineStr">
@@ -84763,10 +84763,10 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>375</v>
+        <v>675</v>
       </c>
       <c r="Q1172" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -84813,16 +84813,16 @@
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K1173" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1173" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1173" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
@@ -84831,11 +84831,11 @@
       </c>
       <c r="O1173" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q1173" t="n">
         <v>12</v>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -84876,7 +84876,7 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
@@ -84885,7 +84885,7 @@
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K1174" t="n">
         <v>6000</v>
@@ -84903,7 +84903,7 @@
       </c>
       <c r="O1174" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1174" t="n">
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -84948,7 +84948,7 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
@@ -84957,7 +84957,7 @@
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1175" t="n">
         <v>5000</v>
@@ -84975,7 +84975,7 @@
       </c>
       <c r="O1175" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1175" t="n">
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -85020,7 +85020,7 @@
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
@@ -85029,16 +85029,16 @@
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="K1176" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1176" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1176" t="n">
-        <v>5500</v>
+        <v>6620</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
@@ -85051,7 +85051,7 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="Q1176" t="n">
         <v>15</v>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -85092,41 +85092,41 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="K1177" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1177" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1177" t="n">
-        <v>5495</v>
+        <v>5500</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1177" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>366</v>
+        <v>306</v>
       </c>
       <c r="Q1177" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
@@ -85164,29 +85164,29 @@
       </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="K1178" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1178" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1178" t="n">
-        <v>4500</v>
+        <v>5504</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1178" t="inlineStr">
@@ -85195,10 +85195,10 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="Q1178" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1178" t="inlineStr">
         <is>
@@ -85236,29 +85236,29 @@
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="K1179" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1179" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1179" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1179" t="inlineStr">
@@ -85267,10 +85267,10 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="Q1179" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
@@ -85308,29 +85308,29 @@
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K1180" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1180" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1180" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1180" t="inlineStr">
@@ -85339,10 +85339,10 @@
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q1180" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
@@ -85380,29 +85380,29 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K1181" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1181" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1181" t="n">
-        <v>5488</v>
+        <v>4500</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
@@ -85411,10 +85411,10 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q1181" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
@@ -85452,41 +85452,41 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="K1182" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1182" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M1182" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>250</v>
+        <v>433</v>
       </c>
       <c r="Q1182" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1182" t="inlineStr">
         <is>
@@ -85524,7 +85524,7 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="K1183" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1183" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1183" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85551,11 +85551,11 @@
       </c>
       <c r="O1183" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="Q1183" t="n">
         <v>18</v>
@@ -85596,7 +85596,7 @@
       </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1184" t="inlineStr">
@@ -85605,7 +85605,7 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K1184" t="n">
         <v>5000</v>
@@ -85614,7 +85614,7 @@
         <v>6000</v>
       </c>
       <c r="M1184" t="n">
-        <v>5495</v>
+        <v>5500</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q1184" t="n">
         <v>15</v>
@@ -85668,7 +85668,7 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
@@ -85677,7 +85677,7 @@
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K1185" t="n">
         <v>5000</v>
@@ -85686,7 +85686,7 @@
         <v>6000</v>
       </c>
       <c r="M1185" t="n">
-        <v>5494</v>
+        <v>5495</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85740,7 +85740,7 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
@@ -85749,7 +85749,7 @@
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1186" t="n">
         <v>4500</v>
@@ -85812,7 +85812,7 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
@@ -85821,7 +85821,7 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K1187" t="n">
         <v>4500</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -85884,7 +85884,7 @@
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1188" t="inlineStr">
@@ -85893,20 +85893,20 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K1188" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1188" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1188" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1188" t="inlineStr">
@@ -85915,10 +85915,10 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="Q1188" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1188" t="inlineStr">
         <is>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -85956,41 +85956,41 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="K1189" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1189" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M1189" t="n">
-        <v>3000</v>
+        <v>5488</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="Q1189" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1189" t="inlineStr">
         <is>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -86028,41 +86028,41 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="K1190" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1190" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M1190" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1190" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q1190" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -86100,7 +86100,7 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
@@ -86109,16 +86109,16 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="K1191" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L1191" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M1191" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86127,11 +86127,11 @@
       </c>
       <c r="O1191" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="Q1191" t="n">
         <v>18</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -86181,16 +86181,16 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1192" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1192" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1192" t="n">
-        <v>4812</v>
+        <v>5495</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86203,7 +86203,7 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="Q1192" t="n">
         <v>15</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -86249,36 +86249,36 @@
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K1193" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1193" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="M1193" t="n">
-        <v>3300</v>
+        <v>5494</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>183</v>
+        <v>366</v>
       </c>
       <c r="Q1193" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1193" t="inlineStr">
         <is>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -86316,29 +86316,29 @@
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="K1194" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L1194" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M1194" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1194" t="inlineStr">
@@ -86347,10 +86347,10 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="Q1194" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1194" t="inlineStr">
         <is>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -86388,41 +86388,41 @@
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="K1195" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L1195" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M1195" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>533</v>
+        <v>250</v>
       </c>
       <c r="Q1195" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1195" t="inlineStr">
         <is>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1196" t="n">
         <v>13</v>
@@ -86460,7 +86460,7 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
@@ -86469,20 +86469,20 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1196" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L1196" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1196" t="n">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1196" t="inlineStr">
@@ -86491,10 +86491,10 @@
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="Q1196" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1197" t="n">
         <v>13</v>
@@ -86532,29 +86532,29 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K1197" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L1197" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M1197" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1197" t="inlineStr">
@@ -86563,10 +86563,10 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q1197" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1197" t="inlineStr">
         <is>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44445</v>
+        <v>44181</v>
       </c>
       <c r="E1198" t="n">
         <v>13</v>
@@ -86613,16 +86613,16 @@
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="K1198" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L1198" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M1198" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86631,11 +86631,11 @@
       </c>
       <c r="O1198" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>633</v>
+        <v>267</v>
       </c>
       <c r="Q1198" t="n">
         <v>15</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44445</v>
+        <v>44181</v>
       </c>
       <c r="E1199" t="n">
         <v>13</v>
@@ -86685,16 +86685,16 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="K1199" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L1199" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M1199" t="n">
-        <v>7492</v>
+        <v>3000</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
@@ -86703,11 +86703,11 @@
       </c>
       <c r="O1199" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>416</v>
+        <v>167</v>
       </c>
       <c r="Q1199" t="n">
         <v>18</v>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44301</v>
+        <v>44181</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -86748,7 +86748,7 @@
       </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
@@ -86757,16 +86757,16 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1200" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L1200" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1200" t="n">
-        <v>7750</v>
+        <v>4812</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
@@ -86775,11 +86775,11 @@
       </c>
       <c r="O1200" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>517</v>
+        <v>321</v>
       </c>
       <c r="Q1200" t="n">
         <v>15</v>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44301</v>
+        <v>44181</v>
       </c>
       <c r="E1201" t="n">
         <v>13</v>
@@ -86820,41 +86820,41 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1201" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L1201" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="M1201" t="n">
-        <v>6750</v>
+        <v>3300</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1201" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="Q1201" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44301</v>
+        <v>44494</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -86892,7 +86892,7 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
@@ -86901,20 +86901,20 @@
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K1202" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1202" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1202" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1202" t="inlineStr">
@@ -86923,10 +86923,10 @@
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="Q1202" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44330</v>
+        <v>44494</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -86964,7 +86964,7 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
@@ -86973,20 +86973,20 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K1203" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1203" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="M1203" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1203" t="inlineStr">
@@ -86995,10 +86995,10 @@
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>725</v>
+        <v>533</v>
       </c>
       <c r="Q1203" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44330</v>
+        <v>44494</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -87036,7 +87036,7 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
@@ -87045,16 +87045,16 @@
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K1204" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L1204" t="n">
         <v>7000</v>
       </c>
       <c r="M1204" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
@@ -87063,11 +87063,11 @@
       </c>
       <c r="O1204" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="Q1204" t="n">
         <v>15</v>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44330</v>
+        <v>44494</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -87108,7 +87108,7 @@
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
@@ -87117,16 +87117,16 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1205" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L1205" t="n">
         <v>7000</v>
       </c>
       <c r="M1205" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
@@ -87139,7 +87139,7 @@
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="Q1205" t="n">
         <v>15</v>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44270</v>
+        <v>44445</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -87180,7 +87180,7 @@
       </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1206" t="inlineStr">
@@ -87189,32 +87189,32 @@
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="K1206" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1206" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M1206" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="Q1206" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1206" t="inlineStr">
         <is>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44270</v>
+        <v>44445</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -87252,41 +87252,41 @@
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K1207" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1207" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1207" t="n">
-        <v>6000</v>
+        <v>7492</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="Q1207" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1207" t="inlineStr">
         <is>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -87324,7 +87324,7 @@
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
@@ -87336,29 +87336,29 @@
         <v>340</v>
       </c>
       <c r="K1208" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L1208" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1208" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>700</v>
+        <v>517</v>
       </c>
       <c r="Q1208" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1209" t="n">
         <v>13</v>
@@ -87396,7 +87396,7 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
@@ -87405,16 +87405,16 @@
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1209" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1209" t="n">
         <v>7000</v>
       </c>
       <c r="M1209" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
@@ -87427,7 +87427,7 @@
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="Q1209" t="n">
         <v>15</v>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1210" t="n">
         <v>13</v>
@@ -87468,7 +87468,7 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
@@ -87477,7 +87477,7 @@
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1210" t="n">
         <v>7000</v>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -87540,7 +87540,7 @@
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
@@ -87549,32 +87549,32 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1211" t="n">
         <v>7000</v>
       </c>
       <c r="L1211" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1211" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1211" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>467</v>
+        <v>725</v>
       </c>
       <c r="Q1211" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1211" t="inlineStr">
         <is>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -87612,7 +87612,7 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
@@ -87621,16 +87621,16 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K1212" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1212" t="n">
         <v>7000</v>
       </c>
       <c r="M1212" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
@@ -87639,11 +87639,11 @@
       </c>
       <c r="O1212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="Q1212" t="n">
         <v>15</v>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -87684,7 +87684,7 @@
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
@@ -87693,20 +87693,20 @@
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="K1213" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L1213" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1213" t="n">
-        <v>3808</v>
+        <v>6750</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1213" t="inlineStr">
@@ -87715,10 +87715,10 @@
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="Q1213" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1213" t="inlineStr">
         <is>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1214" t="n">
         <v>13</v>
@@ -87761,20 +87761,20 @@
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K1214" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L1214" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M1214" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87787,7 +87787,7 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q1214" t="n">
         <v>10</v>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1215" t="n">
         <v>13</v>
@@ -87828,7 +87828,7 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
@@ -87837,7 +87837,7 @@
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K1215" t="n">
         <v>6000</v>
@@ -87855,7 +87855,7 @@
       </c>
       <c r="O1215" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1215" t="n">
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -87900,7 +87900,7 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
@@ -87909,20 +87909,20 @@
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K1216" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1216" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1216" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1216" t="inlineStr">
@@ -87931,10 +87931,10 @@
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="Q1216" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1216" t="inlineStr">
         <is>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -87972,7 +87972,7 @@
       </c>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1217" t="inlineStr">
@@ -87981,16 +87981,16 @@
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K1217" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1217" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1217" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -87999,11 +87999,11 @@
       </c>
       <c r="O1217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q1217" t="n">
         <v>15</v>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -88044,29 +88044,29 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1218" t="n">
         <v>160</v>
       </c>
       <c r="K1218" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1218" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1218" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1218" t="inlineStr">
@@ -88075,10 +88075,10 @@
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>222</v>
+        <v>467</v>
       </c>
       <c r="Q1218" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1218" t="inlineStr">
         <is>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1219" t="n">
         <v>13</v>
@@ -88116,7 +88116,7 @@
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
@@ -88125,16 +88125,16 @@
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K1219" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1219" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1219" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88143,11 +88143,11 @@
       </c>
       <c r="O1219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q1219" t="n">
         <v>15</v>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1220" t="n">
         <v>13</v>
@@ -88197,16 +88197,16 @@
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K1220" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1220" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1220" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88215,11 +88215,11 @@
       </c>
       <c r="O1220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q1220" t="n">
         <v>15</v>
@@ -88260,29 +88260,29 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="K1221" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1221" t="n">
         <v>4000</v>
       </c>
       <c r="M1221" t="n">
-        <v>4000</v>
+        <v>3808</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1221" t="inlineStr">
@@ -88291,10 +88291,10 @@
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="Q1221" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1221" t="inlineStr">
         <is>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1222" t="n">
         <v>13</v>
@@ -88337,20 +88337,20 @@
       </c>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K1222" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L1222" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M1222" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>675</v>
+        <v>300</v>
       </c>
       <c r="Q1222" t="n">
         <v>10</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1223" t="n">
         <v>13</v>
@@ -88404,41 +88404,41 @@
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="K1223" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1223" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1223" t="n">
-        <v>4747</v>
+        <v>6000</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q1223" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1223" t="inlineStr">
         <is>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1224" t="n">
         <v>13</v>
@@ -88476,7 +88476,7 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
@@ -88485,16 +88485,16 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="K1224" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1224" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1224" t="n">
-        <v>5994</v>
+        <v>5000</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
@@ -88507,7 +88507,7 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q1224" t="n">
         <v>15</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1225" t="n">
         <v>13</v>
@@ -88548,41 +88548,41 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="K1225" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1225" t="n">
         <v>5000</v>
       </c>
       <c r="M1225" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="Q1225" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1225" t="inlineStr">
         <is>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -88625,24 +88625,24 @@
       </c>
       <c r="I1226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K1226" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1226" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1226" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1226" t="inlineStr">
@@ -88651,10 +88651,10 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>367</v>
+        <v>222</v>
       </c>
       <c r="Q1226" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1226" t="inlineStr">
         <is>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1227" t="n">
         <v>13</v>
@@ -88701,16 +88701,16 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="K1227" t="n">
         <v>5000</v>
       </c>
       <c r="L1227" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1227" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88723,7 +88723,7 @@
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="Q1227" t="n">
         <v>15</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1228" t="n">
         <v>13</v>
@@ -88769,36 +88769,36 @@
       </c>
       <c r="I1228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="K1228" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1228" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M1228" t="n">
-        <v>4244</v>
+        <v>5000</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>236</v>
+        <v>333</v>
       </c>
       <c r="Q1228" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1228" t="inlineStr">
         <is>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1229" t="n">
         <v>13</v>
@@ -88836,29 +88836,29 @@
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="K1229" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L1229" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1229" t="n">
-        <v>6750</v>
+        <v>4000</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1229" t="inlineStr">
@@ -88867,10 +88867,10 @@
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="Q1229" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1229" t="inlineStr">
         <is>
@@ -88908,29 +88908,29 @@
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="K1230" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1230" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1230" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1230" t="inlineStr">
@@ -88939,10 +88939,10 @@
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>219</v>
+        <v>675</v>
       </c>
       <c r="Q1230" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R1230" t="inlineStr">
         <is>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1231" t="n">
         <v>13</v>
@@ -88980,41 +88980,41 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K1231" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1231" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1231" t="n">
-        <v>5753</v>
+        <v>4747</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1231" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="Q1231" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1231" t="inlineStr">
         <is>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1232" t="n">
         <v>13</v>
@@ -89057,36 +89057,36 @@
       </c>
       <c r="I1232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1232" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1232" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1232" t="n">
-        <v>5000</v>
+        <v>5994</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1232" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="Q1232" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1232" t="inlineStr">
         <is>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1233" t="n">
         <v>13</v>
@@ -89124,29 +89124,29 @@
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1233" t="n">
         <v>52</v>
       </c>
       <c r="K1233" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1233" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1233" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1233" t="inlineStr">
@@ -89155,10 +89155,10 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>383</v>
+        <v>264</v>
       </c>
       <c r="Q1233" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1233" t="inlineStr">
         <is>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1234" t="n">
         <v>13</v>
@@ -89205,16 +89205,16 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K1234" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1234" t="n">
         <v>6000</v>
       </c>
       <c r="M1234" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89223,11 +89223,11 @@
       </c>
       <c r="O1234" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="Q1234" t="n">
         <v>15</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -89268,29 +89268,29 @@
       </c>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K1235" t="n">
         <v>5000</v>
       </c>
       <c r="L1235" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1235" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1235" t="inlineStr">
@@ -89299,10 +89299,10 @@
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="Q1235" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1235" t="inlineStr">
         <is>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -89340,7 +89340,7 @@
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1236" t="inlineStr">
@@ -89352,13 +89352,13 @@
         <v>43</v>
       </c>
       <c r="K1236" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1236" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1236" t="n">
-        <v>5000</v>
+        <v>4244</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89367,11 +89367,11 @@
       </c>
       <c r="O1236" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="Q1236" t="n">
         <v>18</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1237" t="n">
         <v>13</v>
@@ -89412,7 +89412,7 @@
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1237" t="inlineStr">
@@ -89421,20 +89421,20 @@
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1237" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1237" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1237" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1237" t="inlineStr">
@@ -89443,10 +89443,10 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>500</v>
+        <v>338</v>
       </c>
       <c r="Q1237" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1237" t="inlineStr">
         <is>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1238" t="n">
         <v>13</v>
@@ -89484,29 +89484,29 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="K1238" t="n">
         <v>5000</v>
       </c>
       <c r="L1238" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1238" t="n">
-        <v>5000</v>
+        <v>5250</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1238" t="inlineStr">
@@ -89515,10 +89515,10 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>333</v>
+        <v>219</v>
       </c>
       <c r="Q1238" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R1238" t="inlineStr">
         <is>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1239" t="n">
         <v>13</v>
@@ -89556,7 +89556,7 @@
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
@@ -89565,16 +89565,16 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="K1239" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1239" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1239" t="n">
-        <v>5000</v>
+        <v>5753</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89583,11 +89583,11 @@
       </c>
       <c r="O1239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="Q1239" t="n">
         <v>15</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1240" t="n">
         <v>13</v>
@@ -89628,29 +89628,29 @@
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K1240" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1240" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1240" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1240" t="inlineStr">
@@ -89659,10 +89659,10 @@
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q1240" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1240" t="inlineStr">
         <is>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1241" t="n">
         <v>13</v>
@@ -89712,13 +89712,13 @@
         <v>52</v>
       </c>
       <c r="K1241" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1241" t="n">
         <v>6000</v>
       </c>
       <c r="M1241" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89727,11 +89727,11 @@
       </c>
       <c r="O1241" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Q1241" t="n">
         <v>15</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1242" t="n">
         <v>13</v>
@@ -89772,7 +89772,7 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
@@ -89781,32 +89781,32 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1242" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1242" t="n">
         <v>6000</v>
       </c>
       <c r="M1242" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>600</v>
+        <v>383</v>
       </c>
       <c r="Q1242" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1242" t="inlineStr">
         <is>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1243" t="n">
         <v>13</v>
@@ -89844,41 +89844,41 @@
       </c>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1243" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1243" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1243" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1243" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>600</v>
+        <v>278</v>
       </c>
       <c r="Q1243" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1243" t="inlineStr">
         <is>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1244" t="n">
         <v>13</v>
@@ -89916,29 +89916,29 @@
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K1244" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1244" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1244" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1244" t="inlineStr">
@@ -89947,10 +89947,10 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q1244" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1244" t="inlineStr">
         <is>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1245" t="n">
         <v>13</v>
@@ -89988,7 +89988,7 @@
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
@@ -89997,7 +89997,7 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1245" t="n">
         <v>5000</v>
@@ -90010,19 +90010,19 @@
       </c>
       <c r="N1245" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1245" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1245" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1245" t="inlineStr">
         <is>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1246" t="n">
         <v>13</v>
@@ -90060,7 +90060,7 @@
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
@@ -90069,7 +90069,7 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K1246" t="n">
         <v>5000</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44302</v>
+        <v>44244</v>
       </c>
       <c r="E1247" t="n">
         <v>13</v>
@@ -90132,7 +90132,7 @@
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1247" t="inlineStr">
@@ -90141,20 +90141,20 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1247" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1247" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1247" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1247" t="inlineStr">
@@ -90163,10 +90163,10 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="Q1247" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1247" t="inlineStr">
         <is>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E1248" t="n">
         <v>13</v>
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1248" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1248" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1248" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q1248" t="n">
         <v>15</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E1249" t="n">
         <v>13</v>
@@ -90276,7 +90276,7 @@
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1249" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1249" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1249" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90303,11 +90303,11 @@
       </c>
       <c r="O1249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q1249" t="n">
         <v>15</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1250" t="n">
         <v>13</v>
@@ -90348,7 +90348,7 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
@@ -90357,32 +90357,32 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1250" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1250" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1250" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1250" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q1250" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1250" t="inlineStr">
         <is>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1251" t="n">
         <v>13</v>
@@ -90420,7 +90420,7 @@
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -90432,29 +90432,29 @@
         <v>160</v>
       </c>
       <c r="K1251" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1251" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1251" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q1251" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1251" t="inlineStr">
         <is>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1252" t="n">
         <v>13</v>
@@ -90492,7 +90492,7 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
@@ -90501,32 +90501,32 @@
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1252" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L1252" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1252" t="n">
-        <v>3750</v>
+        <v>7000</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="Q1252" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1252" t="inlineStr">
         <is>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1253" t="n">
         <v>13</v>
@@ -90564,7 +90564,7 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
@@ -90573,20 +90573,20 @@
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K1253" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1253" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1253" t="n">
-        <v>3857</v>
+        <v>5000</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1253" t="inlineStr">
@@ -90595,10 +90595,10 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="Q1253" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1253" t="inlineStr">
         <is>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1254" t="n">
         <v>13</v>
@@ -90636,7 +90636,7 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -90645,7 +90645,7 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K1254" t="n">
         <v>5000</v>
@@ -90663,7 +90663,7 @@
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1254" t="n">
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1255" t="n">
         <v>13</v>
@@ -90717,16 +90717,16 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K1255" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1255" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1255" t="n">
-        <v>5496</v>
+        <v>7000</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q1255" t="n">
         <v>10</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1256" t="n">
         <v>13</v>
@@ -90780,41 +90780,41 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K1256" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L1256" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M1256" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q1256" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1256" t="inlineStr">
         <is>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1257" t="n">
         <v>13</v>
@@ -90852,7 +90852,7 @@
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1257" t="inlineStr">
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1257" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1257" t="n">
         <v>7000</v>
       </c>
       <c r="M1257" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90879,11 +90879,11 @@
       </c>
       <c r="O1257" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="Q1257" t="n">
         <v>15</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1258" t="n">
         <v>13</v>
@@ -90924,41 +90924,41 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="K1258" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1258" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1258" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1258" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>278</v>
+        <v>467</v>
       </c>
       <c r="Q1258" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1258" t="inlineStr">
         <is>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1259" t="n">
         <v>13</v>
@@ -91005,16 +91005,16 @@
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K1259" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1259" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1259" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>367</v>
+        <v>467</v>
       </c>
       <c r="Q1259" t="n">
         <v>15</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1260" t="n">
         <v>13</v>
@@ -91068,43 +91068,619 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K1260" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1260" t="n">
         <v>4000</v>
       </c>
       <c r="M1260" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N1260" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1260" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1260" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1260" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1261" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1261" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1261" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1261" t="n">
+        <v>140</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1261" t="n">
         <v>4000</v>
       </c>
-      <c r="N1260" t="inlineStr">
+      <c r="M1261" t="n">
+        <v>3857</v>
+      </c>
+      <c r="N1261" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1261" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1261" t="n">
+        <v>386</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1261" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1262" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1262" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1262" t="n">
+        <v>190</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1262" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1262" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1262" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1262" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1263" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1263" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1263" t="n">
+        <v>133</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>5496</v>
+      </c>
+      <c r="N1263" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1263" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1263" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1263" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1264" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1264" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1264" t="n">
+        <v>79</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1264" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O1264" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1264" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>12</v>
+      </c>
+      <c r="R1264" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1265" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1265" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1265" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N1265" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1265" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1265" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1265" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1266" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1266" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1266" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1266" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1266" t="inlineStr">
         <is>
           <t>$/caja 18 unidades</t>
         </is>
       </c>
-      <c r="O1260" t="inlineStr">
+      <c r="O1266" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1266" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1266" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1267" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1267" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1267" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1267" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N1267" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1267" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1260" t="n">
+      <c r="P1267" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1267" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1268" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1268" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1268" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1268" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1268" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1268" t="n">
         <v>222</v>
       </c>
-      <c r="Q1260" t="n">
+      <c r="Q1268" t="n">
         <v>18</v>
       </c>
-      <c r="R1260" t="inlineStr">
+      <c r="R1268" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1268"/>
+  <dimension ref="A1:R1278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79701,7 +79701,7 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K1102" t="n">
         <v>5000</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79773,7 +79773,7 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K1103" t="n">
         <v>4000</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79836,7 +79836,7 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
@@ -79845,7 +79845,7 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="K1104" t="n">
         <v>6000</v>
@@ -79854,23 +79854,23 @@
         <v>7000</v>
       </c>
       <c r="M1104" t="n">
-        <v>6504</v>
+        <v>6500</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>650</v>
+        <v>433</v>
       </c>
       <c r="Q1104" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79908,41 +79908,41 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K1105" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1105" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1105" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>650</v>
+        <v>278</v>
       </c>
       <c r="Q1105" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79980,29 +79980,29 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="K1106" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1106" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1106" t="n">
-        <v>4492</v>
+        <v>5500</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1106" t="inlineStr">
@@ -80011,10 +80011,10 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="Q1106" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80052,7 +80052,7 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
@@ -80061,32 +80061,32 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K1107" t="n">
         <v>4000</v>
       </c>
       <c r="L1107" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1107" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>375</v>
+        <v>222</v>
       </c>
       <c r="Q1107" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80124,7 +80124,7 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K1108" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L1108" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M1108" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80151,11 +80151,11 @@
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>767</v>
+        <v>367</v>
       </c>
       <c r="Q1108" t="n">
         <v>15</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80196,7 +80196,7 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="K1109" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L1109" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M1109" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80223,11 +80223,11 @@
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>528</v>
+        <v>222</v>
       </c>
       <c r="Q1109" t="n">
         <v>18</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80268,7 +80268,7 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K1110" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1110" t="n">
         <v>6000</v>
       </c>
-      <c r="L1110" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1110" t="n">
-        <v>6492</v>
+        <v>5500</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="Q1110" t="n">
         <v>15</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80340,41 +80340,41 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K1111" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1111" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1111" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>433</v>
+        <v>222</v>
       </c>
       <c r="Q1111" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80412,29 +80412,29 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="K1112" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1112" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1112" t="n">
-        <v>4750</v>
+        <v>5500</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1112" t="inlineStr">
@@ -80443,10 +80443,10 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>264</v>
+        <v>550</v>
       </c>
       <c r="Q1112" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80484,7 +80484,7 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
@@ -80493,32 +80493,32 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K1113" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1113" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1113" t="n">
-        <v>4760</v>
+        <v>4000</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="Q1113" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
@@ -80565,7 +80565,7 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="K1114" t="n">
         <v>6000</v>
@@ -80574,11 +80574,11 @@
         <v>7000</v>
       </c>
       <c r="M1114" t="n">
-        <v>6492</v>
+        <v>6504</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
@@ -80587,10 +80587,10 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q1114" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80628,7 +80628,7 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -80637,7 +80637,7 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1115" t="n">
         <v>6000</v>
@@ -80650,7 +80650,7 @@
       </c>
       <c r="N1115" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1115" t="inlineStr">
@@ -80659,10 +80659,10 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q1115" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
@@ -80700,41 +80700,41 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K1116" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1116" t="n">
         <v>5000</v>
       </c>
       <c r="M1116" t="n">
-        <v>4740</v>
+        <v>4492</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>263</v>
+        <v>374</v>
       </c>
       <c r="Q1116" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80772,7 +80772,7 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
@@ -80781,32 +80781,32 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1117" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1117" t="n">
         <v>5000</v>
       </c>
       <c r="M1117" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="Q1117" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80844,7 +80844,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -80853,32 +80853,32 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="K1118" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L1118" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M1118" t="n">
-        <v>5744</v>
+        <v>11500</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>287</v>
+        <v>767</v>
       </c>
       <c r="Q1118" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,32 +80925,32 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="K1119" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L1119" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1119" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>198</v>
+        <v>528</v>
       </c>
       <c r="Q1119" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,32 +80997,32 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K1120" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1120" t="n">
         <v>7000</v>
       </c>
-      <c r="L1120" t="n">
-        <v>7500</v>
-      </c>
       <c r="M1120" t="n">
-        <v>7250</v>
+        <v>6492</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>725</v>
+        <v>433</v>
       </c>
       <c r="Q1120" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81060,7 +81060,7 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
@@ -81069,16 +81069,16 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="K1121" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L1121" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1121" t="n">
-        <v>7750</v>
+        <v>6500</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81087,11 +81087,11 @@
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="Q1121" t="n">
         <v>15</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81132,29 +81132,29 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="K1122" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1122" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1122" t="n">
-        <v>6750</v>
+        <v>4750</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1122" t="inlineStr">
@@ -81163,10 +81163,10 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>450</v>
+        <v>264</v>
       </c>
       <c r="Q1122" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81209,24 +81209,24 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K1123" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1123" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1123" t="n">
-        <v>6750</v>
+        <v>4760</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
@@ -81235,10 +81235,10 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>450</v>
+        <v>264</v>
       </c>
       <c r="Q1123" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="K1124" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1124" t="n">
         <v>7000</v>
       </c>
       <c r="M1124" t="n">
-        <v>6750</v>
+        <v>6492</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="Q1124" t="n">
         <v>15</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81348,7 +81348,7 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
@@ -81357,32 +81357,32 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1125" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1125" t="n">
         <v>7000</v>
       </c>
       <c r="M1125" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="Q1125" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81420,7 +81420,7 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
@@ -81429,32 +81429,32 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="K1126" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="L1126" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1126" t="n">
-        <v>6752</v>
+        <v>4740</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>675</v>
+        <v>263</v>
       </c>
       <c r="Q1126" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81492,7 +81492,7 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
@@ -81501,7 +81501,7 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="K1127" t="n">
         <v>4500</v>
@@ -81510,11 +81510,11 @@
         <v>5000</v>
       </c>
       <c r="M1127" t="n">
-        <v>4753</v>
+        <v>4750</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1127" t="inlineStr">
@@ -81523,10 +81523,10 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="Q1127" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81573,20 +81573,20 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K1128" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="L1128" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1128" t="n">
-        <v>6746</v>
+        <v>5744</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1128" t="inlineStr">
@@ -81595,10 +81595,10 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="Q1128" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81636,7 +81636,7 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
@@ -81645,7 +81645,7 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K1129" t="n">
         <v>4500</v>
@@ -81658,7 +81658,7 @@
       </c>
       <c r="N1129" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1129" t="inlineStr">
@@ -81667,10 +81667,10 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="Q1129" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81708,7 +81708,7 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
@@ -81717,32 +81717,32 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K1130" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L1130" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="M1130" t="n">
-        <v>6750</v>
+        <v>7250</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>450</v>
+        <v>725</v>
       </c>
       <c r="Q1130" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81780,41 +81780,41 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="K1131" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L1131" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1131" t="n">
-        <v>4750</v>
+        <v>7750</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>264</v>
+        <v>517</v>
       </c>
       <c r="Q1131" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81852,7 +81852,7 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
@@ -81861,7 +81861,7 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="K1132" t="n">
         <v>6500</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81924,41 +81924,41 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K1133" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1133" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1133" t="n">
-        <v>4760</v>
+        <v>6750</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>264</v>
+        <v>450</v>
       </c>
       <c r="Q1133" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -81996,7 +81996,7 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
@@ -82005,32 +82005,32 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="K1134" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="L1134" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1134" t="n">
-        <v>3773</v>
+        <v>6750</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="Q1134" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1134" t="inlineStr">
         <is>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82068,29 +82068,29 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K1135" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L1135" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M1135" t="n">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
@@ -82099,10 +82099,10 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="Q1135" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82140,7 +82140,7 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
@@ -82149,32 +82149,32 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="K1136" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L1136" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1136" t="n">
-        <v>4000</v>
+        <v>6752</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>267</v>
+        <v>675</v>
       </c>
       <c r="Q1136" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82212,29 +82212,29 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="K1137" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="L1137" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1137" t="n">
-        <v>3783</v>
+        <v>4753</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
@@ -82243,10 +82243,10 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="Q1137" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82284,29 +82284,29 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="K1138" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="L1138" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M1138" t="n">
-        <v>2794</v>
+        <v>6746</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
@@ -82315,10 +82315,10 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="Q1138" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82356,29 +82356,29 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="K1139" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1139" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1139" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1139" t="inlineStr">
@@ -82387,10 +82387,10 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="Q1139" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82428,29 +82428,29 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="K1140" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L1140" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M1140" t="n">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1140" t="inlineStr">
@@ -82459,10 +82459,10 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q1140" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82500,29 +82500,29 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>520</v>
+        <v>16</v>
       </c>
       <c r="K1141" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1141" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1141" t="n">
-        <v>4000</v>
+        <v>4750</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1141" t="inlineStr">
@@ -82531,10 +82531,10 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="Q1141" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82572,7 +82572,7 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
@@ -82581,16 +82581,16 @@
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>430</v>
+        <v>52</v>
       </c>
       <c r="K1142" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L1142" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1142" t="n">
-        <v>4000</v>
+        <v>6750</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82599,11 +82599,11 @@
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>267</v>
+        <v>450</v>
       </c>
       <c r="Q1142" t="n">
         <v>15</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82644,29 +82644,29 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K1143" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1143" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1143" t="n">
-        <v>4000</v>
+        <v>4760</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1143" t="inlineStr">
@@ -82675,10 +82675,10 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q1143" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82716,7 +82716,7 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
@@ -82725,20 +82725,20 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="K1144" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1144" t="n">
         <v>4000</v>
       </c>
       <c r="M1144" t="n">
-        <v>4000</v>
+        <v>3773</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1144" t="inlineStr">
@@ -82747,10 +82747,10 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>267</v>
+        <v>377</v>
       </c>
       <c r="Q1144" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82788,29 +82788,29 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K1145" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1145" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1145" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
@@ -82819,10 +82819,10 @@
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q1145" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82860,7 +82860,7 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
@@ -82869,32 +82869,32 @@
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K1146" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1146" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M1146" t="n">
-        <v>6250</v>
+        <v>4000</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>625</v>
+        <v>267</v>
       </c>
       <c r="Q1146" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82932,7 +82932,7 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
@@ -82941,32 +82941,32 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="K1147" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L1147" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M1147" t="n">
-        <v>6252</v>
+        <v>3783</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1147" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>625</v>
+        <v>252</v>
       </c>
       <c r="Q1147" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -83004,7 +83004,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -83013,20 +83013,20 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="K1148" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L1148" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1148" t="n">
-        <v>5000</v>
+        <v>2794</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
@@ -83035,10 +83035,10 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>417</v>
+        <v>155</v>
       </c>
       <c r="Q1148" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -83076,41 +83076,41 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K1149" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1149" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1149" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1149" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>417</v>
+        <v>200</v>
       </c>
       <c r="Q1149" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -83148,41 +83148,41 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="K1150" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="L1150" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M1150" t="n">
-        <v>7750</v>
+        <v>3000</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1150" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>517</v>
+        <v>150</v>
       </c>
       <c r="Q1150" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -83220,41 +83220,41 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K1151" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L1151" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M1151" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Q1151" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,16 +83301,16 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>61</v>
+        <v>430</v>
       </c>
       <c r="K1152" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1152" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1152" t="n">
-        <v>5746</v>
+        <v>4000</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83319,11 +83319,11 @@
       </c>
       <c r="O1152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>383</v>
+        <v>267</v>
       </c>
       <c r="Q1152" t="n">
         <v>15</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -83364,7 +83364,7 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
@@ -83373,16 +83373,16 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1153" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1153" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1153" t="n">
-        <v>5750</v>
+        <v>4000</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83391,11 +83391,11 @@
       </c>
       <c r="O1153" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>383</v>
+        <v>267</v>
       </c>
       <c r="Q1153" t="n">
         <v>15</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -83436,29 +83436,29 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="K1154" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1154" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1154" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1154" t="inlineStr">
@@ -83467,10 +83467,10 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Q1154" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -83508,41 +83508,41 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K1155" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1155" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1155" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="Q1155" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
@@ -83580,7 +83580,7 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -83589,20 +83589,20 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K1156" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1156" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1156" t="n">
-        <v>5746</v>
+        <v>6250</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1156" t="inlineStr">
@@ -83611,10 +83611,10 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>383</v>
+        <v>625</v>
       </c>
       <c r="Q1156" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1156" t="inlineStr">
         <is>
@@ -83652,7 +83652,7 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
@@ -83661,20 +83661,20 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="K1157" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1157" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1157" t="n">
-        <v>5756</v>
+        <v>6252</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1157" t="inlineStr">
@@ -83683,10 +83683,10 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>384</v>
+        <v>625</v>
       </c>
       <c r="Q1157" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
@@ -83724,7 +83724,7 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
@@ -83733,7 +83733,7 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="K1158" t="n">
         <v>5000</v>
@@ -83746,7 +83746,7 @@
       </c>
       <c r="N1158" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1158" t="inlineStr">
@@ -83755,10 +83755,10 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>278</v>
+        <v>417</v>
       </c>
       <c r="Q1158" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
@@ -83796,7 +83796,7 @@
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1159" t="inlineStr">
@@ -83805,7 +83805,7 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K1159" t="n">
         <v>5000</v>
@@ -83818,7 +83818,7 @@
       </c>
       <c r="N1159" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1159" t="inlineStr">
@@ -83827,10 +83827,10 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>278</v>
+        <v>417</v>
       </c>
       <c r="Q1159" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
@@ -83868,7 +83868,7 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
@@ -83877,16 +83877,16 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K1160" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L1160" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1160" t="n">
-        <v>5750</v>
+        <v>7750</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83895,11 +83895,11 @@
       </c>
       <c r="O1160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>383</v>
+        <v>517</v>
       </c>
       <c r="Q1160" t="n">
         <v>15</v>
@@ -83940,41 +83940,41 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K1161" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1161" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1161" t="n">
-        <v>5747</v>
+        <v>6500</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1161" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="Q1161" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1161" t="inlineStr">
         <is>
@@ -84012,29 +84012,29 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K1162" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1162" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1162" t="n">
-        <v>5000</v>
+        <v>5746</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1162" t="inlineStr">
@@ -84043,10 +84043,10 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="Q1162" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1162" t="inlineStr">
         <is>
@@ -84084,29 +84084,29 @@
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K1163" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1163" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1163" t="n">
-        <v>5000</v>
+        <v>5750</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1163" t="inlineStr">
@@ -84115,10 +84115,10 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="Q1163" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1163" t="inlineStr">
         <is>
@@ -84156,29 +84156,29 @@
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K1164" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1164" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1164" t="n">
-        <v>5750</v>
+        <v>5000</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1164" t="inlineStr">
@@ -84187,10 +84187,10 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Q1164" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1164" t="inlineStr">
         <is>
@@ -84228,7 +84228,7 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
@@ -84250,19 +84250,19 @@
       </c>
       <c r="N1165" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="Q1165" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -84300,7 +84300,7 @@
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1166" t="inlineStr">
@@ -84309,20 +84309,20 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K1166" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1166" t="n">
         <v>6000</v>
       </c>
       <c r="M1166" t="n">
-        <v>6000</v>
+        <v>5746</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1166" t="inlineStr">
@@ -84331,10 +84331,10 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>600</v>
+        <v>383</v>
       </c>
       <c r="Q1166" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1166" t="inlineStr">
         <is>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -84381,16 +84381,16 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K1167" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1167" t="n">
         <v>6000</v>
       </c>
       <c r="M1167" t="n">
-        <v>6000</v>
+        <v>5756</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84399,11 +84399,11 @@
       </c>
       <c r="O1167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="Q1167" t="n">
         <v>15</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -84444,29 +84444,29 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="K1168" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1168" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1168" t="n">
-        <v>6250</v>
+        <v>5000</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1168" t="inlineStr">
@@ -84475,10 +84475,10 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>625</v>
+        <v>278</v>
       </c>
       <c r="Q1168" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -84516,7 +84516,7 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
@@ -84525,32 +84525,32 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K1169" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1169" t="n">
         <v>5000</v>
       </c>
       <c r="M1169" t="n">
-        <v>4756</v>
+        <v>5000</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>396</v>
+        <v>278</v>
       </c>
       <c r="Q1169" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -84588,7 +84588,7 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
@@ -84597,16 +84597,16 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1170" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="L1170" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1170" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84615,11 +84615,11 @@
       </c>
       <c r="O1170" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>517</v>
+        <v>383</v>
       </c>
       <c r="Q1170" t="n">
         <v>15</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -84660,41 +84660,41 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1171" t="n">
         <v>97</v>
       </c>
       <c r="K1171" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1171" t="n">
         <v>6000</v>
       </c>
-      <c r="L1171" t="n">
-        <v>6500</v>
-      </c>
       <c r="M1171" t="n">
-        <v>6247</v>
+        <v>5747</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1171" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="Q1171" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -84732,29 +84732,29 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="K1172" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1172" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1172" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1172" t="inlineStr">
@@ -84763,10 +84763,10 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>675</v>
+        <v>278</v>
       </c>
       <c r="Q1172" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -84804,7 +84804,7 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
@@ -84813,32 +84813,32 @@
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K1173" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1173" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1173" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q1173" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1173" t="inlineStr">
         <is>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -84876,7 +84876,7 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
@@ -84888,17 +84888,17 @@
         <v>70</v>
       </c>
       <c r="K1174" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L1174" t="n">
         <v>6000</v>
       </c>
-      <c r="L1174" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1174" t="n">
-        <v>6500</v>
+        <v>5750</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1174" t="inlineStr">
@@ -84907,10 +84907,10 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>433</v>
+        <v>288</v>
       </c>
       <c r="Q1174" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44400</v>
+        <v>44392</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -84948,7 +84948,7 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
@@ -84970,7 +84970,7 @@
       </c>
       <c r="N1175" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1175" t="inlineStr">
@@ -84979,10 +84979,10 @@
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="Q1175" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -85020,7 +85020,7 @@
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
@@ -85029,20 +85029,20 @@
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1176" t="n">
         <v>6000</v>
       </c>
       <c r="L1176" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1176" t="n">
-        <v>6620</v>
+        <v>6000</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1176" t="inlineStr">
@@ -85051,10 +85051,10 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>441</v>
+        <v>600</v>
       </c>
       <c r="Q1176" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -85092,29 +85092,29 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="K1177" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1177" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1177" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1177" t="inlineStr">
@@ -85123,10 +85123,10 @@
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="Q1177" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -85173,16 +85173,16 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="K1178" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1178" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1178" t="n">
-        <v>5504</v>
+        <v>6250</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q1178" t="n">
         <v>10</v>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -85241,36 +85241,36 @@
       </c>
       <c r="I1179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="K1179" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1179" t="n">
         <v>5000</v>
       </c>
-      <c r="L1179" t="n">
-        <v>6000</v>
-      </c>
       <c r="M1179" t="n">
-        <v>5500</v>
+        <v>4756</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1179" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>550</v>
+        <v>396</v>
       </c>
       <c r="Q1179" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -85308,41 +85308,41 @@
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="K1180" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="L1180" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M1180" t="n">
-        <v>4500</v>
+        <v>7750</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>375</v>
+        <v>517</v>
       </c>
       <c r="Q1180" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -85380,7 +85380,7 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
@@ -85389,32 +85389,32 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K1181" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1181" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="M1181" t="n">
-        <v>4500</v>
+        <v>6247</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="Q1181" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -85452,7 +85452,7 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
@@ -85461,32 +85461,32 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="K1182" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1182" t="n">
         <v>7000</v>
       </c>
       <c r="M1182" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1182" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>433</v>
+        <v>675</v>
       </c>
       <c r="Q1182" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1182" t="inlineStr">
         <is>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -85524,7 +85524,7 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
@@ -85533,32 +85533,32 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1183" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1183" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1183" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1183" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q1183" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1183" t="inlineStr">
         <is>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -85605,16 +85605,16 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="K1184" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1184" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1184" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="Q1184" t="n">
         <v>15</v>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -85673,36 +85673,36 @@
       </c>
       <c r="I1185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="K1185" t="n">
         <v>5000</v>
       </c>
       <c r="L1185" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1185" t="n">
-        <v>5495</v>
+        <v>5000</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1185" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="Q1185" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1185" t="inlineStr">
         <is>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -85740,29 +85740,29 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K1186" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1186" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M1186" t="n">
-        <v>4500</v>
+        <v>6620</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1186" t="inlineStr">
@@ -85771,10 +85771,10 @@
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>250</v>
+        <v>441</v>
       </c>
       <c r="Q1186" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1186" t="inlineStr">
         <is>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -85812,7 +85812,7 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
@@ -85821,16 +85821,16 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K1187" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L1187" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="M1187" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85839,11 +85839,11 @@
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="Q1187" t="n">
         <v>18</v>
@@ -85884,7 +85884,7 @@
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1188" t="inlineStr">
@@ -85893,7 +85893,7 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="K1188" t="n">
         <v>5000</v>
@@ -85902,11 +85902,11 @@
         <v>6000</v>
       </c>
       <c r="M1188" t="n">
-        <v>5500</v>
+        <v>5504</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1188" t="inlineStr">
@@ -85915,10 +85915,10 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>367</v>
+        <v>550</v>
       </c>
       <c r="Q1188" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1188" t="inlineStr">
         <is>
@@ -85956,7 +85956,7 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
@@ -85965,7 +85965,7 @@
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="K1189" t="n">
         <v>5000</v>
@@ -85974,11 +85974,11 @@
         <v>6000</v>
       </c>
       <c r="M1189" t="n">
-        <v>5488</v>
+        <v>5500</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1189" t="inlineStr">
@@ -85987,10 +85987,10 @@
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>366</v>
+        <v>550</v>
       </c>
       <c r="Q1189" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1189" t="inlineStr">
         <is>
@@ -86028,7 +86028,7 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
@@ -86037,7 +86037,7 @@
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K1190" t="n">
         <v>4500</v>
@@ -86050,7 +86050,7 @@
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1190" t="inlineStr">
@@ -86059,10 +86059,10 @@
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="Q1190" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
@@ -86100,7 +86100,7 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
@@ -86109,7 +86109,7 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K1191" t="n">
         <v>4500</v>
@@ -86122,7 +86122,7 @@
       </c>
       <c r="N1191" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1191" t="inlineStr">
@@ -86131,10 +86131,10 @@
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="Q1191" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1191" t="inlineStr">
         <is>
@@ -86172,7 +86172,7 @@
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1192" t="inlineStr">
@@ -86181,16 +86181,16 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="K1192" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1192" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1192" t="n">
-        <v>5495</v>
+        <v>6500</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86199,11 +86199,11 @@
       </c>
       <c r="O1192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="Q1192" t="n">
         <v>15</v>
@@ -86244,41 +86244,41 @@
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1193" t="n">
         <v>5000</v>
       </c>
       <c r="L1193" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1193" t="n">
-        <v>5494</v>
+        <v>5000</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1193" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="Q1193" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1193" t="inlineStr">
         <is>
@@ -86316,29 +86316,29 @@
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="K1194" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1194" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1194" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1194" t="inlineStr">
@@ -86347,10 +86347,10 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="Q1194" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1194" t="inlineStr">
         <is>
@@ -86388,29 +86388,29 @@
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="K1195" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1195" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1195" t="n">
-        <v>4500</v>
+        <v>5495</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1195" t="inlineStr">
@@ -86419,10 +86419,10 @@
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="Q1195" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1195" t="inlineStr">
         <is>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1196" t="n">
         <v>13</v>
@@ -86460,41 +86460,41 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1196" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N1196" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1196" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1196" t="n">
         <v>250</v>
       </c>
-      <c r="K1196" t="n">
-        <v>3500</v>
-      </c>
-      <c r="L1196" t="n">
-        <v>4000</v>
-      </c>
-      <c r="M1196" t="n">
-        <v>3800</v>
-      </c>
-      <c r="N1196" t="inlineStr">
-        <is>
-          <t>$/caja 10 unidades</t>
-        </is>
-      </c>
-      <c r="O1196" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P1196" t="n">
-        <v>380</v>
-      </c>
       <c r="Q1196" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1197" t="n">
         <v>13</v>
@@ -86532,7 +86532,7 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
@@ -86541,32 +86541,32 @@
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="K1197" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L1197" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M1197" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q1197" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1197" t="inlineStr">
         <is>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1198" t="n">
         <v>13</v>
@@ -86604,7 +86604,7 @@
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1198" t="inlineStr">
@@ -86613,16 +86613,16 @@
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>280</v>
+        <v>52</v>
       </c>
       <c r="K1198" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1198" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1198" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86631,11 +86631,11 @@
       </c>
       <c r="O1198" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="Q1198" t="n">
         <v>15</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1199" t="n">
         <v>13</v>
@@ -86676,41 +86676,41 @@
       </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="K1199" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1199" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M1199" t="n">
-        <v>3000</v>
+        <v>5488</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1199" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>167</v>
+        <v>366</v>
       </c>
       <c r="Q1199" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1199" t="inlineStr">
         <is>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -86748,29 +86748,29 @@
       </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K1200" t="n">
         <v>4500</v>
       </c>
       <c r="L1200" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1200" t="n">
-        <v>4812</v>
+        <v>4500</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1200" t="inlineStr">
@@ -86779,10 +86779,10 @@
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="Q1200" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1200" t="inlineStr">
         <is>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1201" t="n">
         <v>13</v>
@@ -86820,7 +86820,7 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
@@ -86829,29 +86829,29 @@
         </is>
       </c>
       <c r="J1201" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N1201" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1201" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1201" t="n">
         <v>250</v>
-      </c>
-      <c r="K1201" t="n">
-        <v>3000</v>
-      </c>
-      <c r="L1201" t="n">
-        <v>3500</v>
-      </c>
-      <c r="M1201" t="n">
-        <v>3300</v>
-      </c>
-      <c r="N1201" t="inlineStr">
-        <is>
-          <t>$/caja 18 unidades</t>
-        </is>
-      </c>
-      <c r="O1201" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="P1201" t="n">
-        <v>183</v>
       </c>
       <c r="Q1201" t="n">
         <v>18</v>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -86892,7 +86892,7 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
@@ -86901,20 +86901,20 @@
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K1202" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1202" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1202" t="n">
-        <v>8000</v>
+        <v>5495</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1202" t="inlineStr">
@@ -86923,10 +86923,10 @@
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>800</v>
+        <v>366</v>
       </c>
       <c r="Q1202" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -86964,7 +86964,7 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
@@ -86973,16 +86973,16 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="K1203" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1203" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1203" t="n">
-        <v>8000</v>
+        <v>5494</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
@@ -86991,11 +86991,11 @@
       </c>
       <c r="O1203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>533</v>
+        <v>366</v>
       </c>
       <c r="Q1203" t="n">
         <v>15</v>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -87036,29 +87036,29 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K1204" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L1204" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M1204" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1204" t="inlineStr">
@@ -87067,10 +87067,10 @@
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>467</v>
+        <v>250</v>
       </c>
       <c r="Q1204" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1204" t="inlineStr">
         <is>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -87113,36 +87113,36 @@
       </c>
       <c r="I1205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K1205" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L1205" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="M1205" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>467</v>
+        <v>250</v>
       </c>
       <c r="Q1205" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1205" t="inlineStr">
         <is>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44445</v>
+        <v>44181</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -87180,7 +87180,7 @@
       </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1206" t="inlineStr">
@@ -87189,32 +87189,32 @@
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K1206" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L1206" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M1206" t="n">
-        <v>9500</v>
+        <v>3800</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1206" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>633</v>
+        <v>380</v>
       </c>
       <c r="Q1206" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1206" t="inlineStr">
         <is>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44445</v>
+        <v>44181</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -87252,7 +87252,7 @@
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
@@ -87261,32 +87261,32 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="K1207" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L1207" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M1207" t="n">
-        <v>7492</v>
+        <v>3000</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1207" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>416</v>
+        <v>300</v>
       </c>
       <c r="Q1207" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1207" t="inlineStr">
         <is>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44301</v>
+        <v>44181</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -87333,16 +87333,16 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="K1208" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L1208" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1208" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
@@ -87351,11 +87351,11 @@
       </c>
       <c r="O1208" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>517</v>
+        <v>267</v>
       </c>
       <c r="Q1208" t="n">
         <v>15</v>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44301</v>
+        <v>44181</v>
       </c>
       <c r="E1209" t="n">
         <v>13</v>
@@ -87396,41 +87396,41 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K1209" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="L1209" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M1209" t="n">
-        <v>6750</v>
+        <v>3000</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1209" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="Q1209" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1209" t="inlineStr">
         <is>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44301</v>
+        <v>44181</v>
       </c>
       <c r="E1210" t="n">
         <v>13</v>
@@ -87468,7 +87468,7 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
@@ -87477,16 +87477,16 @@
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1210" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L1210" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1210" t="n">
-        <v>7000</v>
+        <v>4812</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
@@ -87499,7 +87499,7 @@
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>467</v>
+        <v>321</v>
       </c>
       <c r="Q1210" t="n">
         <v>15</v>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44330</v>
+        <v>44181</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -87540,29 +87540,29 @@
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1211" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L1211" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="M1211" t="n">
-        <v>7250</v>
+        <v>3300</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1211" t="inlineStr">
@@ -87571,10 +87571,10 @@
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>725</v>
+        <v>183</v>
       </c>
       <c r="Q1211" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1211" t="inlineStr">
         <is>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44330</v>
+        <v>44494</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -87612,7 +87612,7 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
@@ -87621,32 +87621,32 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K1212" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1212" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1212" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1212" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q1212" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1212" t="inlineStr">
         <is>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44330</v>
+        <v>44494</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -87684,7 +87684,7 @@
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
@@ -87693,16 +87693,16 @@
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K1213" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L1213" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1213" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87715,7 +87715,7 @@
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="Q1213" t="n">
         <v>15</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44270</v>
+        <v>44494</v>
       </c>
       <c r="E1214" t="n">
         <v>13</v>
@@ -87756,7 +87756,7 @@
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1214" t="inlineStr">
@@ -87765,20 +87765,20 @@
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1214" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1214" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1214" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1214" t="inlineStr">
@@ -87787,10 +87787,10 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="Q1214" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1214" t="inlineStr">
         <is>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44270</v>
+        <v>44494</v>
       </c>
       <c r="E1215" t="n">
         <v>13</v>
@@ -87828,7 +87828,7 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
@@ -87837,16 +87837,16 @@
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1215" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1215" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1215" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87859,7 +87859,7 @@
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="Q1215" t="n">
         <v>15</v>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44295</v>
+        <v>44445</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -87900,7 +87900,7 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
@@ -87909,32 +87909,32 @@
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="K1216" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1216" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1216" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>700</v>
+        <v>633</v>
       </c>
       <c r="Q1216" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1216" t="inlineStr">
         <is>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44295</v>
+        <v>44445</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -87977,36 +87977,36 @@
       </c>
       <c r="I1217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>340</v>
+        <v>61</v>
       </c>
       <c r="K1217" t="n">
         <v>7000</v>
       </c>
       <c r="L1217" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1217" t="n">
-        <v>7000</v>
+        <v>7492</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1217" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>467</v>
+        <v>416</v>
       </c>
       <c r="Q1217" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1217" t="inlineStr">
         <is>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -88044,7 +88044,7 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -88053,16 +88053,16 @@
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1218" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="L1218" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1218" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88071,11 +88071,11 @@
       </c>
       <c r="O1218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="Q1218" t="n">
         <v>15</v>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1219" t="n">
         <v>13</v>
@@ -88116,7 +88116,7 @@
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
@@ -88125,16 +88125,16 @@
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1219" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L1219" t="n">
         <v>7000</v>
       </c>
       <c r="M1219" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88147,7 +88147,7 @@
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="Q1219" t="n">
         <v>15</v>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1220" t="n">
         <v>13</v>
@@ -88188,7 +88188,7 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
@@ -88197,7 +88197,7 @@
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1220" t="n">
         <v>7000</v>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E1221" t="n">
         <v>13</v>
@@ -88269,16 +88269,16 @@
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K1221" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L1221" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="M1221" t="n">
-        <v>3808</v>
+        <v>7250</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88291,7 +88291,7 @@
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>381</v>
+        <v>725</v>
       </c>
       <c r="Q1221" t="n">
         <v>10</v>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E1222" t="n">
         <v>13</v>
@@ -88332,41 +88332,41 @@
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K1222" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="L1222" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M1222" t="n">
-        <v>3000</v>
+        <v>6750</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q1222" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1222" t="inlineStr">
         <is>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E1223" t="n">
         <v>13</v>
@@ -88404,7 +88404,7 @@
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
@@ -88413,16 +88413,16 @@
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K1223" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1223" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1223" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
@@ -88431,11 +88431,11 @@
       </c>
       <c r="O1223" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q1223" t="n">
         <v>15</v>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1224" t="n">
         <v>13</v>
@@ -88476,7 +88476,7 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
@@ -88485,20 +88485,20 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K1224" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1224" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1224" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1224" t="inlineStr">
@@ -88507,10 +88507,10 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="Q1224" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1224" t="inlineStr">
         <is>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1225" t="n">
         <v>13</v>
@@ -88557,16 +88557,16 @@
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K1225" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1225" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1225" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
@@ -88575,11 +88575,11 @@
       </c>
       <c r="O1225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q1225" t="n">
         <v>15</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -88620,29 +88620,29 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1226" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1226" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1226" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1226" t="inlineStr">
@@ -88651,10 +88651,10 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>222</v>
+        <v>700</v>
       </c>
       <c r="Q1226" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1226" t="inlineStr">
         <is>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1227" t="n">
         <v>13</v>
@@ -88692,7 +88692,7 @@
       </c>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1227" t="inlineStr">
@@ -88701,16 +88701,16 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K1227" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1227" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1227" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88719,11 +88719,11 @@
       </c>
       <c r="O1227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q1227" t="n">
         <v>15</v>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1228" t="n">
         <v>13</v>
@@ -88764,7 +88764,7 @@
       </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1228" t="inlineStr">
@@ -88773,16 +88773,16 @@
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K1228" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1228" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1228" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88791,11 +88791,11 @@
       </c>
       <c r="O1228" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q1228" t="n">
         <v>15</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1229" t="n">
         <v>13</v>
@@ -88836,41 +88836,41 @@
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K1229" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1229" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1229" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1229" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>222</v>
+        <v>467</v>
       </c>
       <c r="Q1229" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1229" t="inlineStr">
         <is>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1230" t="n">
         <v>13</v>
@@ -88908,7 +88908,7 @@
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1230" t="inlineStr">
@@ -88920,17 +88920,17 @@
         <v>160</v>
       </c>
       <c r="K1230" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L1230" t="n">
         <v>7000</v>
       </c>
       <c r="M1230" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1230" t="inlineStr">
@@ -88939,10 +88939,10 @@
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>675</v>
+        <v>467</v>
       </c>
       <c r="Q1230" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1230" t="inlineStr">
         <is>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1231" t="n">
         <v>13</v>
@@ -88985,24 +88985,24 @@
       </c>
       <c r="I1231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="K1231" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1231" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1231" t="n">
-        <v>4747</v>
+        <v>3808</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1231" t="inlineStr">
@@ -89011,10 +89011,10 @@
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="Q1231" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1231" t="inlineStr">
         <is>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1232" t="n">
         <v>13</v>
@@ -89052,29 +89052,29 @@
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="K1232" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="L1232" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="M1232" t="n">
-        <v>5994</v>
+        <v>3000</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1232" t="inlineStr">
@@ -89083,10 +89083,10 @@
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q1232" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1232" t="inlineStr">
         <is>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1233" t="n">
         <v>13</v>
@@ -89124,41 +89124,41 @@
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="K1233" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1233" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1233" t="n">
-        <v>4750</v>
+        <v>6000</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>264</v>
+        <v>400</v>
       </c>
       <c r="Q1233" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1233" t="inlineStr">
         <is>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1234" t="n">
         <v>13</v>
@@ -89205,16 +89205,16 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K1234" t="n">
         <v>5000</v>
       </c>
       <c r="L1234" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1234" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89227,7 +89227,7 @@
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="Q1234" t="n">
         <v>15</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -89268,7 +89268,7 @@
       </c>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1235" t="inlineStr">
@@ -89277,16 +89277,16 @@
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K1235" t="n">
         <v>5000</v>
       </c>
       <c r="L1235" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1235" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89295,11 +89295,11 @@
       </c>
       <c r="O1235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="Q1235" t="n">
         <v>15</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -89340,7 +89340,7 @@
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1236" t="inlineStr">
@@ -89349,16 +89349,16 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1236" t="n">
         <v>4000</v>
       </c>
       <c r="L1236" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M1236" t="n">
-        <v>4244</v>
+        <v>4000</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89371,7 +89371,7 @@
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="Q1236" t="n">
         <v>18</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1237" t="n">
         <v>13</v>
@@ -89412,7 +89412,7 @@
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1237" t="inlineStr">
@@ -89421,20 +89421,20 @@
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="K1237" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1237" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1237" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1237" t="inlineStr">
@@ -89443,10 +89443,10 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q1237" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1237" t="inlineStr">
         <is>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1238" t="n">
         <v>13</v>
@@ -89484,41 +89484,41 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="K1238" t="n">
         <v>5000</v>
       </c>
       <c r="L1238" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1238" t="n">
-        <v>5250</v>
+        <v>5000</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="Q1238" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1238" t="inlineStr">
         <is>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E1239" t="n">
         <v>13</v>
@@ -89556,41 +89556,41 @@
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="K1239" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1239" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1239" t="n">
-        <v>5753</v>
+        <v>4000</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1239" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>384</v>
+        <v>222</v>
       </c>
       <c r="Q1239" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1239" t="inlineStr">
         <is>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1240" t="n">
         <v>13</v>
@@ -89628,41 +89628,41 @@
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1240" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1240" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1240" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1240" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>278</v>
+        <v>675</v>
       </c>
       <c r="Q1240" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1240" t="inlineStr">
         <is>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1241" t="n">
         <v>13</v>
@@ -89700,29 +89700,29 @@
       </c>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K1241" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1241" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1241" t="n">
-        <v>5750</v>
+        <v>4747</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1241" t="inlineStr">
@@ -89731,10 +89731,10 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="Q1241" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1241" t="inlineStr">
         <is>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1242" t="n">
         <v>13</v>
@@ -89772,7 +89772,7 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
@@ -89781,16 +89781,16 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K1242" t="n">
         <v>5500</v>
       </c>
       <c r="L1242" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="M1242" t="n">
-        <v>5750</v>
+        <v>5994</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89799,11 +89799,11 @@
       </c>
       <c r="O1242" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="Q1242" t="n">
         <v>15</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1243" t="n">
         <v>13</v>
@@ -89844,7 +89844,7 @@
       </c>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1243" t="inlineStr">
@@ -89853,16 +89853,16 @@
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1243" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1243" t="n">
         <v>5000</v>
       </c>
       <c r="M1243" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="Q1243" t="n">
         <v>18</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1244" t="n">
         <v>13</v>
@@ -89921,36 +89921,36 @@
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K1244" t="n">
         <v>5000</v>
       </c>
       <c r="L1244" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1244" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1244" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="Q1244" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1244" t="inlineStr">
         <is>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1245" t="n">
         <v>13</v>
@@ -89988,7 +89988,7 @@
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
@@ -89997,20 +89997,20 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1245" t="n">
         <v>5000</v>
       </c>
       <c r="L1245" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1245" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1245" t="inlineStr">
@@ -90019,10 +90019,10 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>500</v>
+        <v>367</v>
       </c>
       <c r="Q1245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1245" t="inlineStr">
         <is>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1246" t="n">
         <v>13</v>
@@ -90060,29 +90060,29 @@
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="K1246" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1246" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1246" t="n">
-        <v>5000</v>
+        <v>4244</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1246" t="inlineStr">
@@ -90091,10 +90091,10 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="Q1246" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1246" t="inlineStr">
         <is>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1247" t="n">
         <v>13</v>
@@ -90132,7 +90132,7 @@
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1247" t="inlineStr">
@@ -90141,20 +90141,20 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1247" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1247" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1247" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1247" t="inlineStr">
@@ -90163,10 +90163,10 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q1247" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1247" t="inlineStr">
         <is>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E1248" t="n">
         <v>13</v>
@@ -90204,41 +90204,41 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="K1248" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1248" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1248" t="n">
-        <v>7000</v>
+        <v>5250</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1248" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>467</v>
+        <v>219</v>
       </c>
       <c r="Q1248" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R1248" t="inlineStr">
         <is>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1249" t="n">
         <v>13</v>
@@ -90276,7 +90276,7 @@
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K1249" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1249" t="n">
         <v>6000</v>
       </c>
       <c r="M1249" t="n">
-        <v>6000</v>
+        <v>5753</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="Q1249" t="n">
         <v>15</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1250" t="n">
         <v>13</v>
@@ -90348,41 +90348,41 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K1250" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1250" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1250" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>600</v>
+        <v>278</v>
       </c>
       <c r="Q1250" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1250" t="inlineStr">
         <is>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1251" t="n">
         <v>13</v>
@@ -90420,7 +90420,7 @@
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -90429,32 +90429,32 @@
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1251" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1251" t="n">
         <v>6000</v>
       </c>
       <c r="M1251" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1251" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>600</v>
+        <v>383</v>
       </c>
       <c r="Q1251" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1251" t="inlineStr">
         <is>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1252" t="n">
         <v>13</v>
@@ -90492,7 +90492,7 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
@@ -90501,16 +90501,16 @@
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1252" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1252" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1252" t="n">
-        <v>7000</v>
+        <v>5750</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90523,7 +90523,7 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>467</v>
+        <v>383</v>
       </c>
       <c r="Q1252" t="n">
         <v>15</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1253" t="n">
         <v>13</v>
@@ -90569,11 +90569,11 @@
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K1253" t="n">
         <v>5000</v>
@@ -90586,19 +90586,19 @@
       </c>
       <c r="N1253" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1253" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1253" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1253" t="inlineStr">
         <is>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1254" t="n">
         <v>13</v>
@@ -90636,16 +90636,16 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K1254" t="n">
         <v>5000</v>
@@ -90658,19 +90658,19 @@
       </c>
       <c r="N1254" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1254" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1254" t="inlineStr">
         <is>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44302</v>
+        <v>44244</v>
       </c>
       <c r="E1255" t="n">
         <v>13</v>
@@ -90717,16 +90717,16 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1255" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1255" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1255" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q1255" t="n">
         <v>10</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44302</v>
+        <v>44244</v>
       </c>
       <c r="E1256" t="n">
         <v>13</v>
@@ -90780,7 +90780,7 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
@@ -90789,16 +90789,16 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K1256" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1256" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1256" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90807,11 +90807,11 @@
       </c>
       <c r="O1256" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="Q1256" t="n">
         <v>15</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44302</v>
+        <v>44244</v>
       </c>
       <c r="E1257" t="n">
         <v>13</v>
@@ -90852,7 +90852,7 @@
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1257" t="inlineStr">
@@ -90864,13 +90864,13 @@
         <v>160</v>
       </c>
       <c r="K1257" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1257" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1257" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="Q1257" t="n">
         <v>15</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E1258" t="n">
         <v>13</v>
@@ -90924,7 +90924,7 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
@@ -90933,7 +90933,7 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1258" t="n">
         <v>7000</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E1259" t="n">
         <v>13</v>
@@ -90996,7 +90996,7 @@
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
@@ -91005,16 +91005,16 @@
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1259" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1259" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1259" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91023,11 +91023,11 @@
       </c>
       <c r="O1259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q1259" t="n">
         <v>15</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1260" t="n">
         <v>13</v>
@@ -91080,13 +91080,13 @@
         <v>160</v>
       </c>
       <c r="K1260" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L1260" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1260" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="Q1260" t="n">
         <v>10</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1261" t="n">
         <v>13</v>
@@ -91149,16 +91149,16 @@
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K1261" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L1261" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1261" t="n">
-        <v>3857</v>
+        <v>6000</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>386</v>
+        <v>600</v>
       </c>
       <c r="Q1261" t="n">
         <v>10</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1262" t="n">
         <v>13</v>
@@ -91221,16 +91221,16 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="K1262" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1262" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1262" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91239,11 +91239,11 @@
       </c>
       <c r="O1262" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q1262" t="n">
         <v>15</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E1263" t="n">
         <v>13</v>
@@ -91284,7 +91284,7 @@
       </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1263" t="inlineStr">
@@ -91293,32 +91293,32 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K1263" t="n">
         <v>5000</v>
       </c>
       <c r="L1263" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1263" t="n">
-        <v>5496</v>
+        <v>5000</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>550</v>
+        <v>333</v>
       </c>
       <c r="Q1263" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1263" t="inlineStr">
         <is>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E1264" t="n">
         <v>13</v>
@@ -91356,29 +91356,29 @@
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K1264" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1264" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1264" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1264" t="inlineStr">
@@ -91390,7 +91390,7 @@
         <v>333</v>
       </c>
       <c r="Q1264" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1264" t="inlineStr">
         <is>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1265" t="n">
         <v>13</v>
@@ -91428,7 +91428,7 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
@@ -91440,29 +91440,29 @@
         <v>250</v>
       </c>
       <c r="K1265" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1265" t="n">
         <v>7000</v>
       </c>
       <c r="M1265" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>433</v>
+        <v>700</v>
       </c>
       <c r="Q1265" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1265" t="inlineStr">
         <is>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1266" t="n">
         <v>13</v>
@@ -91505,36 +91505,36 @@
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K1266" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1266" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M1266" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1266" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>278</v>
+        <v>533</v>
       </c>
       <c r="Q1266" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1266" t="inlineStr">
         <is>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1267" t="n">
         <v>13</v>
@@ -91572,7 +91572,7 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
@@ -91581,16 +91581,16 @@
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K1267" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1267" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1267" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91603,7 +91603,7 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>367</v>
+        <v>467</v>
       </c>
       <c r="Q1267" t="n">
         <v>15</v>
@@ -91629,58 +91629,778 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1268" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1268" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1268" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1268" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1268" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1268" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1269" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1269" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1269" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1269" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1269" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1269" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1269" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1269" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1270" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1270" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1270" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N1270" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1270" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1270" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1270" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1271" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1271" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1271" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1271" t="n">
+        <v>140</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>3857</v>
+      </c>
+      <c r="N1271" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1271" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1271" t="n">
+        <v>386</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1271" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1272" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1272" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1272" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1272" t="n">
+        <v>190</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1272" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1272" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1272" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1272" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1273" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1268" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1268" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H1268" t="inlineStr">
+      <c r="E1273" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1273" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1273" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1273" t="n">
+        <v>133</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>5496</v>
+      </c>
+      <c r="N1273" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1273" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1273" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1273" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1274" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1274" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1274" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1274" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1274" t="n">
+        <v>79</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1274" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O1274" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1274" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>12</v>
+      </c>
+      <c r="R1274" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1275" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1275" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1275" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1275" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N1275" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1275" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1275" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1275" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1276" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1276" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1276" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1276" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1276" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1276" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1276" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1276" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1276" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1277" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1277" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1277" t="inlineStr">
         <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I1268" t="inlineStr">
+      <c r="I1277" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1277" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N1277" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1277" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1277" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1277" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1278" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1278" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1278" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1278" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1268" t="n">
+      <c r="J1278" t="n">
         <v>34</v>
       </c>
-      <c r="K1268" t="n">
+      <c r="K1278" t="n">
         <v>4000</v>
       </c>
-      <c r="L1268" t="n">
+      <c r="L1278" t="n">
         <v>4000</v>
       </c>
-      <c r="M1268" t="n">
+      <c r="M1278" t="n">
         <v>4000</v>
       </c>
-      <c r="N1268" t="inlineStr">
+      <c r="N1278" t="inlineStr">
         <is>
           <t>$/caja 18 unidades</t>
         </is>
       </c>
-      <c r="O1268" t="inlineStr">
+      <c r="O1278" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1268" t="n">
+      <c r="P1278" t="n">
         <v>222</v>
       </c>
-      <c r="Q1268" t="n">
+      <c r="Q1278" t="n">
         <v>18</v>
       </c>
-      <c r="R1268" t="inlineStr">
+      <c r="R1278" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1283"/>
+  <dimension ref="A1:R1291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1245" t="n">
         <v>13</v>
@@ -90000,13 +90000,13 @@
         <v>160</v>
       </c>
       <c r="K1245" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1245" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1245" t="n">
-        <v>6750</v>
+        <v>5500</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="Q1245" t="n">
         <v>10</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1246" t="n">
         <v>13</v>
@@ -90072,13 +90072,13 @@
         <v>79</v>
       </c>
       <c r="K1246" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1246" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1246" t="n">
-        <v>4747</v>
+        <v>4000</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90091,7 +90091,7 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="Q1246" t="n">
         <v>12</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1247" t="n">
         <v>13</v>
@@ -90132,7 +90132,7 @@
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1247" t="inlineStr">
@@ -90141,17 +90141,17 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K1247" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1247" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1247" t="n">
         <v>6500</v>
       </c>
-      <c r="M1247" t="n">
-        <v>5994</v>
-      </c>
       <c r="N1247" t="inlineStr">
         <is>
           <t>$/caja 15 unidades</t>
@@ -90159,11 +90159,11 @@
       </c>
       <c r="O1247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="Q1247" t="n">
         <v>15</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1248" t="n">
         <v>13</v>
@@ -90204,7 +90204,7 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K1248" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1248" t="n">
         <v>5000</v>
       </c>
       <c r="M1248" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90231,11 +90231,11 @@
       </c>
       <c r="O1248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="Q1248" t="n">
         <v>18</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1249" t="n">
         <v>13</v>
@@ -90285,7 +90285,7 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K1249" t="n">
         <v>5000</v>
@@ -90294,7 +90294,7 @@
         <v>6000</v>
       </c>
       <c r="M1249" t="n">
-        <v>5500</v>
+        <v>5512</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1250" t="n">
         <v>13</v>
@@ -90348,29 +90348,29 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K1250" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1250" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1250" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1250" t="inlineStr">
@@ -90379,10 +90379,10 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>367</v>
+        <v>222</v>
       </c>
       <c r="Q1250" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1250" t="inlineStr">
         <is>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1251" t="n">
         <v>13</v>
@@ -90425,24 +90425,24 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1251" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1251" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M1251" t="n">
-        <v>4244</v>
+        <v>5494</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1251" t="inlineStr">
@@ -90451,10 +90451,10 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="Q1251" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1251" t="inlineStr">
         <is>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1252" t="n">
         <v>13</v>
@@ -90492,29 +90492,29 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1252" t="n">
         <v>34</v>
       </c>
       <c r="K1252" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L1252" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1252" t="n">
-        <v>6750</v>
+        <v>4000</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1252" t="inlineStr">
@@ -90523,10 +90523,10 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="Q1252" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1252" t="inlineStr">
         <is>
@@ -90564,29 +90564,29 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="K1253" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1253" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M1253" t="n">
-        <v>5250</v>
+        <v>6750</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1253" t="inlineStr">
@@ -90595,10 +90595,10 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>219</v>
+        <v>675</v>
       </c>
       <c r="Q1253" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="R1253" t="inlineStr">
         <is>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1254" t="n">
         <v>13</v>
@@ -90636,41 +90636,41 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K1254" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1254" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1254" t="n">
-        <v>5753</v>
+        <v>4747</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="Q1254" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1254" t="inlineStr">
         <is>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1255" t="n">
         <v>13</v>
@@ -90713,36 +90713,36 @@
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1255" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1255" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1255" t="n">
-        <v>5000</v>
+        <v>5994</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1255" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="Q1255" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1255" t="inlineStr">
         <is>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1256" t="n">
         <v>13</v>
@@ -90780,29 +90780,29 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1256" t="n">
         <v>52</v>
       </c>
       <c r="K1256" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="L1256" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1256" t="n">
-        <v>5750</v>
+        <v>4750</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1256" t="inlineStr">
@@ -90811,10 +90811,10 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>383</v>
+        <v>264</v>
       </c>
       <c r="Q1256" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1256" t="inlineStr">
         <is>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1257" t="n">
         <v>13</v>
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K1257" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1257" t="n">
         <v>6000</v>
       </c>
       <c r="M1257" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90879,11 +90879,11 @@
       </c>
       <c r="O1257" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="Q1257" t="n">
         <v>15</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1258" t="n">
         <v>13</v>
@@ -90924,29 +90924,29 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K1258" t="n">
         <v>5000</v>
       </c>
       <c r="L1258" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1258" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1258" t="inlineStr">
@@ -90955,10 +90955,10 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="Q1258" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1258" t="inlineStr">
         <is>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1259" t="n">
         <v>13</v>
@@ -90996,7 +90996,7 @@
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
@@ -91008,13 +91008,13 @@
         <v>43</v>
       </c>
       <c r="K1259" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1259" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="M1259" t="n">
-        <v>5000</v>
+        <v>4244</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91023,11 +91023,11 @@
       </c>
       <c r="O1259" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="Q1259" t="n">
         <v>18</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1260" t="n">
         <v>13</v>
@@ -91068,7 +91068,7 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
@@ -91077,20 +91077,20 @@
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1260" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1260" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1260" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1260" t="inlineStr">
@@ -91099,10 +91099,10 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>500</v>
+        <v>338</v>
       </c>
       <c r="Q1260" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1260" t="inlineStr">
         <is>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1261" t="n">
         <v>13</v>
@@ -91140,29 +91140,29 @@
       </c>
       <c r="H1261" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="K1261" t="n">
         <v>5000</v>
       </c>
       <c r="L1261" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M1261" t="n">
-        <v>5000</v>
+        <v>5250</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1261" t="inlineStr">
@@ -91171,10 +91171,10 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>333</v>
+        <v>219</v>
       </c>
       <c r="Q1261" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R1261" t="inlineStr">
         <is>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1262" t="n">
         <v>13</v>
@@ -91212,7 +91212,7 @@
       </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
@@ -91221,16 +91221,16 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="K1262" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1262" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1262" t="n">
-        <v>5000</v>
+        <v>5753</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91239,11 +91239,11 @@
       </c>
       <c r="O1262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="Q1262" t="n">
         <v>15</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1263" t="n">
         <v>13</v>
@@ -91284,29 +91284,29 @@
       </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K1263" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1263" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1263" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1263" t="inlineStr">
@@ -91315,10 +91315,10 @@
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q1263" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1263" t="inlineStr">
         <is>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1264" t="n">
         <v>13</v>
@@ -91368,13 +91368,13 @@
         <v>52</v>
       </c>
       <c r="K1264" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1264" t="n">
         <v>6000</v>
       </c>
       <c r="M1264" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91383,11 +91383,11 @@
       </c>
       <c r="O1264" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Q1264" t="n">
         <v>15</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1265" t="n">
         <v>13</v>
@@ -91428,7 +91428,7 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
@@ -91437,32 +91437,32 @@
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1265" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1265" t="n">
         <v>6000</v>
       </c>
       <c r="M1265" t="n">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>600</v>
+        <v>383</v>
       </c>
       <c r="Q1265" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1265" t="inlineStr">
         <is>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1266" t="n">
         <v>13</v>
@@ -91500,41 +91500,41 @@
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1266" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1266" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1266" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1266" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>600</v>
+        <v>278</v>
       </c>
       <c r="Q1266" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1266" t="inlineStr">
         <is>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1267" t="n">
         <v>13</v>
@@ -91572,29 +91572,29 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K1267" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1267" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1267" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1267" t="inlineStr">
@@ -91603,10 +91603,10 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q1267" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1267" t="inlineStr">
         <is>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1268" t="n">
         <v>13</v>
@@ -91644,7 +91644,7 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
@@ -91653,7 +91653,7 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1268" t="n">
         <v>5000</v>
@@ -91666,19 +91666,19 @@
       </c>
       <c r="N1268" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1268" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1268" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1268" t="inlineStr">
         <is>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1269" t="n">
         <v>13</v>
@@ -91716,7 +91716,7 @@
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
@@ -91725,7 +91725,7 @@
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K1269" t="n">
         <v>5000</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44302</v>
+        <v>44244</v>
       </c>
       <c r="E1270" t="n">
         <v>13</v>
@@ -91788,7 +91788,7 @@
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
@@ -91797,20 +91797,20 @@
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1270" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1270" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1270" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1270" t="inlineStr">
@@ -91819,10 +91819,10 @@
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="Q1270" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1270" t="inlineStr">
         <is>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E1271" t="n">
         <v>13</v>
@@ -91869,16 +91869,16 @@
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1271" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91891,7 +91891,7 @@
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="Q1271" t="n">
         <v>15</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E1272" t="n">
         <v>13</v>
@@ -91932,7 +91932,7 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
@@ -91941,16 +91941,16 @@
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1272" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1272" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1272" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91959,11 +91959,11 @@
       </c>
       <c r="O1272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q1272" t="n">
         <v>15</v>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1273" t="n">
         <v>13</v>
@@ -92004,7 +92004,7 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
@@ -92013,32 +92013,32 @@
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1273" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1273" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1273" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1273" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q1273" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1273" t="inlineStr">
         <is>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E1274" t="n">
         <v>13</v>
@@ -92076,7 +92076,7 @@
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
@@ -92088,29 +92088,29 @@
         <v>160</v>
       </c>
       <c r="K1274" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1274" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1274" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q1274" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1274" t="inlineStr">
         <is>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1275" t="n">
         <v>13</v>
@@ -92148,7 +92148,7 @@
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1275" t="inlineStr">
@@ -92157,32 +92157,32 @@
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1275" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L1275" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1275" t="n">
-        <v>3750</v>
+        <v>7000</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="Q1275" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1275" t="inlineStr">
         <is>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1276" t="n">
         <v>13</v>
@@ -92220,7 +92220,7 @@
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1276" t="inlineStr">
@@ -92229,20 +92229,20 @@
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K1276" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1276" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1276" t="n">
-        <v>3857</v>
+        <v>5000</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1276" t="inlineStr">
@@ -92251,10 +92251,10 @@
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="Q1276" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1276" t="inlineStr">
         <is>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E1277" t="n">
         <v>13</v>
@@ -92292,7 +92292,7 @@
       </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
@@ -92301,7 +92301,7 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K1277" t="n">
         <v>5000</v>
@@ -92319,7 +92319,7 @@
       </c>
       <c r="O1277" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1277" t="n">
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1278" t="n">
         <v>13</v>
@@ -92373,16 +92373,16 @@
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K1278" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1278" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1278" t="n">
-        <v>5496</v>
+        <v>7000</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92395,7 +92395,7 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q1278" t="n">
         <v>10</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1279" t="n">
         <v>13</v>
@@ -92436,41 +92436,41 @@
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K1279" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L1279" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M1279" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="Q1279" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1279" t="inlineStr">
         <is>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1280" t="n">
         <v>13</v>
@@ -92508,7 +92508,7 @@
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1280" t="inlineStr">
@@ -92517,16 +92517,16 @@
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1280" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1280" t="n">
         <v>7000</v>
       </c>
       <c r="M1280" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92535,11 +92535,11 @@
       </c>
       <c r="O1280" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="Q1280" t="n">
         <v>15</v>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1281" t="n">
         <v>13</v>
@@ -92580,41 +92580,41 @@
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="K1281" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1281" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1281" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1281" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>278</v>
+        <v>467</v>
       </c>
       <c r="Q1281" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1281" t="inlineStr">
         <is>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1282" t="n">
         <v>13</v>
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K1282" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1282" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1282" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92683,7 +92683,7 @@
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>367</v>
+        <v>467</v>
       </c>
       <c r="Q1282" t="n">
         <v>15</v>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1283" t="n">
         <v>13</v>
@@ -92724,43 +92724,619 @@
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K1283" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1283" t="n">
         <v>4000</v>
       </c>
       <c r="M1283" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N1283" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1283" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1283" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1283" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1284" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1284" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1284" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1284" t="n">
+        <v>140</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1284" t="n">
         <v>4000</v>
       </c>
-      <c r="N1283" t="inlineStr">
+      <c r="M1284" t="n">
+        <v>3857</v>
+      </c>
+      <c r="N1284" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1284" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1284" t="n">
+        <v>386</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1284" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1285" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1285" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1285" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1285" t="n">
+        <v>190</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1285" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1285" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1285" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1285" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1286" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1286" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1286" t="n">
+        <v>133</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>5496</v>
+      </c>
+      <c r="N1286" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1286" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1286" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1286" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1287" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1287" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1287" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1287" t="n">
+        <v>79</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1287" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O1287" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1287" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>12</v>
+      </c>
+      <c r="R1287" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1288" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1288" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1288" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N1288" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1288" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1288" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1288" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1289" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1289" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1289" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1289" t="inlineStr">
         <is>
           <t>$/caja 18 unidades</t>
         </is>
       </c>
-      <c r="O1283" t="inlineStr">
+      <c r="O1289" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1289" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1289" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1290" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1290" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1290" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1290" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N1290" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1290" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1283" t="n">
+      <c r="P1290" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1290" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1291" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1291" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1291" t="n">
+        <v>34</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1291" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1291" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1291" t="n">
         <v>222</v>
       </c>
-      <c r="Q1283" t="n">
+      <c r="Q1291" t="n">
         <v>18</v>
       </c>
-      <c r="R1283" t="inlineStr">
+      <c r="R1291" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1309"/>
+  <dimension ref="A1:R1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1247" t="n">
         <v>13</v>
@@ -90144,13 +90144,13 @@
         <v>160</v>
       </c>
       <c r="K1247" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1247" t="n">
         <v>6000</v>
       </c>
       <c r="M1247" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q1247" t="n">
         <v>10</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1248" t="n">
         <v>13</v>
@@ -90204,7 +90204,7 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
@@ -90213,32 +90213,32 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K1248" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1248" t="n">
         <v>6000</v>
       </c>
       <c r="M1248" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q1248" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1248" t="inlineStr">
         <is>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1249" t="n">
         <v>13</v>
@@ -90281,24 +90281,24 @@
       </c>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K1249" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1249" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1249" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1249" t="inlineStr">
@@ -90307,10 +90307,10 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="Q1249" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1249" t="inlineStr">
         <is>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1250" t="n">
         <v>13</v>
@@ -90348,29 +90348,29 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>340</v>
+        <v>61</v>
       </c>
       <c r="K1250" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1250" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1250" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1250" t="inlineStr">
@@ -90379,10 +90379,10 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="Q1250" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1250" t="inlineStr">
         <is>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1251" t="n">
         <v>13</v>
@@ -90420,7 +90420,7 @@
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -90429,16 +90429,16 @@
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1251" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1251" t="n">
         <v>7000</v>
       </c>
       <c r="M1251" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90447,11 +90447,11 @@
       </c>
       <c r="O1251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="Q1251" t="n">
         <v>15</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1252" t="n">
         <v>13</v>
@@ -90492,41 +90492,41 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="K1252" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1252" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1252" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1252" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q1252" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1252" t="inlineStr">
         <is>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1253" t="n">
         <v>13</v>
@@ -90564,7 +90564,7 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
@@ -90573,16 +90573,16 @@
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K1253" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1253" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1253" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90595,7 +90595,7 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>467</v>
+        <v>367</v>
       </c>
       <c r="Q1253" t="n">
         <v>15</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E1254" t="n">
         <v>13</v>
@@ -90636,7 +90636,7 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -90645,32 +90645,32 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="K1254" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1254" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1254" t="n">
-        <v>3808</v>
+        <v>5494</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="Q1254" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1254" t="inlineStr">
         <is>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E1255" t="n">
         <v>13</v>
@@ -90708,7 +90708,7 @@
       </c>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1255" t="inlineStr">
@@ -90717,20 +90717,20 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="K1255" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1255" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1255" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1255" t="inlineStr">
@@ -90739,10 +90739,10 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="Q1255" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1255" t="inlineStr">
         <is>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E1256" t="n">
         <v>13</v>
@@ -90780,7 +90780,7 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
@@ -90789,16 +90789,16 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="K1256" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1256" t="n">
         <v>6000</v>
       </c>
       <c r="M1256" t="n">
-        <v>6000</v>
+        <v>5492</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90807,11 +90807,11 @@
       </c>
       <c r="O1256" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="Q1256" t="n">
         <v>15</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E1257" t="n">
         <v>13</v>
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="K1257" t="n">
         <v>5000</v>
       </c>
       <c r="L1257" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1257" t="n">
-        <v>5000</v>
+        <v>5512</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90879,11 +90879,11 @@
       </c>
       <c r="O1257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="Q1257" t="n">
         <v>15</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E1258" t="n">
         <v>13</v>
@@ -90924,7 +90924,7 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
@@ -90933,16 +90933,16 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="K1258" t="n">
         <v>5000</v>
       </c>
       <c r="L1258" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1258" t="n">
-        <v>5000</v>
+        <v>5494</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90951,11 +90951,11 @@
       </c>
       <c r="O1258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="Q1258" t="n">
         <v>15</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E1259" t="n">
         <v>13</v>
@@ -90996,41 +90996,41 @@
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1259" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1259" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1259" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>222</v>
+        <v>367</v>
       </c>
       <c r="Q1259" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1259" t="inlineStr">
         <is>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1260" t="n">
         <v>13</v>
@@ -91068,7 +91068,7 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
@@ -91077,20 +91077,20 @@
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K1260" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1260" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1260" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1260" t="inlineStr">
@@ -91099,10 +91099,10 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="Q1260" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1260" t="inlineStr">
         <is>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1261" t="n">
         <v>13</v>
@@ -91140,7 +91140,7 @@
       </c>
       <c r="H1261" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1261" t="inlineStr">
@@ -91149,16 +91149,16 @@
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="K1261" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1261" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1261" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91167,11 +91167,11 @@
       </c>
       <c r="O1261" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q1261" t="n">
         <v>15</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1262" t="n">
         <v>13</v>
@@ -91212,29 +91212,29 @@
       </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="K1262" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1262" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1262" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1262" t="inlineStr">
@@ -91243,10 +91243,10 @@
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>222</v>
+        <v>700</v>
       </c>
       <c r="Q1262" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1262" t="inlineStr">
         <is>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1263" t="n">
         <v>13</v>
@@ -91284,7 +91284,7 @@
       </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1263" t="inlineStr">
@@ -91293,32 +91293,32 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1263" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1263" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1263" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>550</v>
+        <v>467</v>
       </c>
       <c r="Q1263" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1263" t="inlineStr">
         <is>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1264" t="n">
         <v>13</v>
@@ -91356,29 +91356,29 @@
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1264" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1264" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1264" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1264" t="inlineStr">
@@ -91387,10 +91387,10 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q1264" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1264" t="inlineStr">
         <is>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1265" t="n">
         <v>13</v>
@@ -91428,7 +91428,7 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
@@ -91437,16 +91437,16 @@
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K1265" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1265" t="n">
         <v>7000</v>
       </c>
       <c r="M1265" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91455,11 +91455,11 @@
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="Q1265" t="n">
         <v>15</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1266" t="n">
         <v>13</v>
@@ -91500,41 +91500,41 @@
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1266" t="n">
         <v>160</v>
       </c>
       <c r="K1266" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1266" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1266" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1266" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>278</v>
+        <v>467</v>
       </c>
       <c r="Q1266" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1266" t="inlineStr">
         <is>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1267" t="n">
         <v>13</v>
@@ -91572,7 +91572,7 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
@@ -91581,20 +91581,20 @@
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="K1267" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L1267" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1267" t="n">
-        <v>5512</v>
+        <v>3808</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1267" t="inlineStr">
@@ -91603,10 +91603,10 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="Q1267" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1267" t="inlineStr">
         <is>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1268" t="n">
         <v>13</v>
@@ -91644,7 +91644,7 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
@@ -91653,20 +91653,20 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="K1268" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1268" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1268" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1268" t="inlineStr">
@@ -91675,10 +91675,10 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="Q1268" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1268" t="inlineStr">
         <is>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1269" t="n">
         <v>13</v>
@@ -91716,7 +91716,7 @@
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
@@ -91725,16 +91725,16 @@
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="K1269" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1269" t="n">
         <v>6000</v>
       </c>
       <c r="M1269" t="n">
-        <v>5494</v>
+        <v>6000</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91743,11 +91743,11 @@
       </c>
       <c r="O1269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="Q1269" t="n">
         <v>15</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1270" t="n">
         <v>13</v>
@@ -91788,29 +91788,29 @@
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="K1270" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1270" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1270" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1270" t="inlineStr">
@@ -91819,10 +91819,10 @@
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="Q1270" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1270" t="inlineStr">
         <is>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1271" t="n">
         <v>13</v>
@@ -91860,7 +91860,7 @@
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
@@ -91869,32 +91869,32 @@
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K1271" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1271" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1271" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>675</v>
+        <v>333</v>
       </c>
       <c r="Q1271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1271" t="inlineStr">
         <is>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1272" t="n">
         <v>13</v>
@@ -91932,7 +91932,7 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
@@ -91941,20 +91941,20 @@
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1272" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="L1272" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1272" t="n">
-        <v>4747</v>
+        <v>4000</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1272" t="inlineStr">
@@ -91963,10 +91963,10 @@
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>396</v>
+        <v>222</v>
       </c>
       <c r="Q1272" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1272" t="inlineStr">
         <is>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1273" t="n">
         <v>13</v>
@@ -92004,7 +92004,7 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
@@ -92013,16 +92013,16 @@
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="K1273" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1273" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1273" t="n">
-        <v>5994</v>
+        <v>5000</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92035,7 +92035,7 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q1273" t="n">
         <v>15</v>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1274" t="n">
         <v>13</v>
@@ -92076,41 +92076,41 @@
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="K1274" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1274" t="n">
         <v>5000</v>
       </c>
       <c r="M1274" t="n">
-        <v>4750</v>
+        <v>5000</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="Q1274" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1274" t="inlineStr">
         <is>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1275" t="n">
         <v>13</v>
@@ -92148,29 +92148,29 @@
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="K1275" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1275" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1275" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1275" t="inlineStr">
@@ -92179,10 +92179,10 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>367</v>
+        <v>222</v>
       </c>
       <c r="Q1275" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1275" t="inlineStr">
         <is>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1276" t="n">
         <v>13</v>
@@ -92220,7 +92220,7 @@
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1276" t="inlineStr">
@@ -92229,7 +92229,7 @@
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1276" t="n">
         <v>5000</v>
@@ -92242,7 +92242,7 @@
       </c>
       <c r="N1276" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1276" t="inlineStr">
@@ -92251,10 +92251,10 @@
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>367</v>
+        <v>550</v>
       </c>
       <c r="Q1276" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1276" t="inlineStr">
         <is>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1277" t="n">
         <v>13</v>
@@ -92292,7 +92292,7 @@
       </c>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
@@ -92301,20 +92301,20 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1277" t="n">
         <v>4000</v>
       </c>
       <c r="L1277" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="M1277" t="n">
-        <v>4244</v>
+        <v>4000</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1277" t="inlineStr">
@@ -92323,10 +92323,10 @@
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>236</v>
+        <v>333</v>
       </c>
       <c r="Q1277" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1277" t="inlineStr">
         <is>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1278" t="n">
         <v>13</v>
@@ -92364,7 +92364,7 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
@@ -92373,32 +92373,32 @@
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="K1278" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1278" t="n">
         <v>7000</v>
       </c>
       <c r="M1278" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="Q1278" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1278" t="inlineStr">
         <is>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1279" t="n">
         <v>13</v>
@@ -92436,7 +92436,7 @@
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
@@ -92445,32 +92445,32 @@
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="K1279" t="n">
         <v>5000</v>
       </c>
       <c r="L1279" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="M1279" t="n">
-        <v>5250</v>
+        <v>5000</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="Q1279" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1279" t="inlineStr">
         <is>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E1280" t="n">
         <v>13</v>
@@ -92508,7 +92508,7 @@
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1280" t="inlineStr">
@@ -92517,16 +92517,16 @@
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="K1280" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1280" t="n">
         <v>6000</v>
       </c>
       <c r="M1280" t="n">
-        <v>5753</v>
+        <v>5512</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92535,11 +92535,11 @@
       </c>
       <c r="O1280" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="Q1280" t="n">
         <v>15</v>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E1281" t="n">
         <v>13</v>
@@ -92580,7 +92580,7 @@
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1281" t="inlineStr">
@@ -92589,16 +92589,16 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K1281" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1281" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1281" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92607,11 +92607,11 @@
       </c>
       <c r="O1281" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="Q1281" t="n">
         <v>18</v>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E1282" t="n">
         <v>13</v>
@@ -92652,7 +92652,7 @@
       </c>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1282" t="inlineStr">
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K1282" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L1282" t="n">
         <v>6000</v>
       </c>
       <c r="M1282" t="n">
-        <v>5750</v>
+        <v>5494</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92683,7 +92683,7 @@
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="Q1282" t="n">
         <v>15</v>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E1283" t="n">
         <v>13</v>
@@ -92724,41 +92724,41 @@
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K1283" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L1283" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1283" t="n">
-        <v>5750</v>
+        <v>4000</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1283" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>383</v>
+        <v>222</v>
       </c>
       <c r="Q1283" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1283" t="inlineStr">
         <is>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1284" t="n">
         <v>13</v>
@@ -92796,29 +92796,29 @@
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K1284" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1284" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1284" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1284" t="inlineStr">
@@ -92827,10 +92827,10 @@
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>278</v>
+        <v>675</v>
       </c>
       <c r="Q1284" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1284" t="inlineStr">
         <is>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1285" t="n">
         <v>13</v>
@@ -92868,7 +92868,7 @@
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1285" t="inlineStr">
@@ -92877,32 +92877,32 @@
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1285" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1285" t="n">
         <v>5000</v>
       </c>
       <c r="M1285" t="n">
-        <v>5000</v>
+        <v>4747</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1285" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="Q1285" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1285" t="inlineStr">
         <is>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1286" t="n">
         <v>13</v>
@@ -92940,7 +92940,7 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
@@ -92949,20 +92949,20 @@
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K1286" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1286" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="M1286" t="n">
-        <v>5000</v>
+        <v>5994</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1286" t="inlineStr">
@@ -92971,10 +92971,10 @@
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q1286" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1286" t="inlineStr">
         <is>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1287" t="n">
         <v>13</v>
@@ -93012,29 +93012,29 @@
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K1287" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L1287" t="n">
         <v>5000</v>
       </c>
       <c r="M1287" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1287" t="inlineStr">
@@ -93043,10 +93043,10 @@
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="Q1287" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1287" t="inlineStr">
         <is>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1288" t="n">
         <v>13</v>
@@ -93084,7 +93084,7 @@
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1288" t="inlineStr">
@@ -93093,16 +93093,16 @@
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K1288" t="n">
         <v>5000</v>
       </c>
       <c r="L1288" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1288" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93115,7 +93115,7 @@
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="Q1288" t="n">
         <v>15</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E1289" t="n">
         <v>13</v>
@@ -93156,7 +93156,7 @@
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1289" t="inlineStr">
@@ -93165,16 +93165,16 @@
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1289" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1289" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1289" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93183,11 +93183,11 @@
       </c>
       <c r="O1289" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>467</v>
+        <v>367</v>
       </c>
       <c r="Q1289" t="n">
         <v>15</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E1290" t="n">
         <v>13</v>
@@ -93228,41 +93228,41 @@
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K1290" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1290" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="M1290" t="n">
-        <v>6000</v>
+        <v>4244</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1290" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>400</v>
+        <v>236</v>
       </c>
       <c r="Q1290" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1290" t="inlineStr">
         <is>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E1291" t="n">
         <v>13</v>
@@ -93300,7 +93300,7 @@
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1291" t="inlineStr">
@@ -93309,20 +93309,20 @@
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1291" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1291" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1291" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1291" t="inlineStr">
@@ -93331,10 +93331,10 @@
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>600</v>
+        <v>338</v>
       </c>
       <c r="Q1291" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1291" t="inlineStr">
         <is>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E1292" t="n">
         <v>13</v>
@@ -93372,41 +93372,41 @@
       </c>
       <c r="H1292" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="K1292" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1292" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1292" t="n">
-        <v>6000</v>
+        <v>5250</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1292" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>600</v>
+        <v>219</v>
       </c>
       <c r="Q1292" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R1292" t="inlineStr">
         <is>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1293" t="n">
         <v>13</v>
@@ -93444,7 +93444,7 @@
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1293" t="inlineStr">
@@ -93453,16 +93453,16 @@
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="K1293" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1293" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1293" t="n">
-        <v>7000</v>
+        <v>5753</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93475,7 +93475,7 @@
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="Q1293" t="n">
         <v>15</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1294" t="n">
         <v>13</v>
@@ -93516,16 +93516,16 @@
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K1294" t="n">
         <v>5000</v>
@@ -93538,7 +93538,7 @@
       </c>
       <c r="N1294" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1294" t="inlineStr">
@@ -93547,10 +93547,10 @@
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1294" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1294" t="inlineStr">
         <is>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E1295" t="n">
         <v>13</v>
@@ -93588,7 +93588,7 @@
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1295" t="inlineStr">
@@ -93597,16 +93597,16 @@
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K1295" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L1295" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1295" t="n">
-        <v>5000</v>
+        <v>5750</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93619,7 +93619,7 @@
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="Q1295" t="n">
         <v>15</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44302</v>
+        <v>44383</v>
       </c>
       <c r="E1296" t="n">
         <v>13</v>
@@ -93660,7 +93660,7 @@
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1296" t="inlineStr">
@@ -93669,32 +93669,32 @@
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1296" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1296" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1296" t="n">
-        <v>7000</v>
+        <v>5750</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>700</v>
+        <v>383</v>
       </c>
       <c r="Q1296" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1296" t="inlineStr">
         <is>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44302</v>
+        <v>44383</v>
       </c>
       <c r="E1297" t="n">
         <v>13</v>
@@ -93732,41 +93732,41 @@
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="K1297" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1297" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1297" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1297" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>533</v>
+        <v>278</v>
       </c>
       <c r="Q1297" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1297" t="inlineStr">
         <is>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44302</v>
+        <v>44383</v>
       </c>
       <c r="E1298" t="n">
         <v>13</v>
@@ -93804,41 +93804,41 @@
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K1298" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1298" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1298" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q1298" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1298" t="inlineStr">
         <is>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44302</v>
+        <v>44244</v>
       </c>
       <c r="E1299" t="n">
         <v>13</v>
@@ -93876,7 +93876,7 @@
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1299" t="inlineStr">
@@ -93885,32 +93885,32 @@
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1299" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1299" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1299" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1299" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q1299" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1299" t="inlineStr">
         <is>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44302</v>
+        <v>44244</v>
       </c>
       <c r="E1300" t="n">
         <v>13</v>
@@ -93948,7 +93948,7 @@
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
@@ -93957,16 +93957,16 @@
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K1300" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1300" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1300" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93979,7 +93979,7 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="Q1300" t="n">
         <v>15</v>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44179</v>
+        <v>44244</v>
       </c>
       <c r="E1301" t="n">
         <v>13</v>
@@ -94020,7 +94020,7 @@
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1301" t="inlineStr">
@@ -94032,17 +94032,17 @@
         <v>160</v>
       </c>
       <c r="K1301" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="L1301" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1301" t="n">
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1301" t="inlineStr">
@@ -94051,10 +94051,10 @@
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="Q1301" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1301" t="inlineStr">
         <is>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44179</v>
+        <v>44307</v>
       </c>
       <c r="E1302" t="n">
         <v>13</v>
@@ -94092,7 +94092,7 @@
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -94101,20 +94101,20 @@
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="K1302" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="L1302" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1302" t="n">
-        <v>3857</v>
+        <v>7000</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1302" t="inlineStr">
@@ -94123,10 +94123,10 @@
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>386</v>
+        <v>467</v>
       </c>
       <c r="Q1302" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1302" t="inlineStr">
         <is>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44179</v>
+        <v>44307</v>
       </c>
       <c r="E1303" t="n">
         <v>13</v>
@@ -94164,7 +94164,7 @@
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
@@ -94173,16 +94173,16 @@
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="K1303" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1303" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1303" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94191,11 +94191,11 @@
       </c>
       <c r="O1303" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q1303" t="n">
         <v>15</v>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E1304" t="n">
         <v>13</v>
@@ -94245,16 +94245,16 @@
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K1304" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1304" t="n">
         <v>6000</v>
       </c>
       <c r="M1304" t="n">
-        <v>5496</v>
+        <v>6000</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94267,7 +94267,7 @@
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q1304" t="n">
         <v>10</v>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E1305" t="n">
         <v>13</v>
@@ -94313,36 +94313,36 @@
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1305" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1305" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1305" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="Q1305" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1305" t="inlineStr">
         <is>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E1306" t="n">
         <v>13</v>
@@ -94392,13 +94392,13 @@
         <v>250</v>
       </c>
       <c r="K1306" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1306" t="n">
         <v>7000</v>
       </c>
       <c r="M1306" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94407,11 +94407,11 @@
       </c>
       <c r="O1306" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="Q1306" t="n">
         <v>15</v>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E1307" t="n">
         <v>13</v>
@@ -94452,16 +94452,16 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="K1307" t="n">
         <v>5000</v>
@@ -94474,19 +94474,19 @@
       </c>
       <c r="N1307" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1307" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q1307" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1307" t="inlineStr">
         <is>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E1308" t="n">
         <v>13</v>
@@ -94533,16 +94533,16 @@
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="K1308" t="n">
         <v>5000</v>
       </c>
       <c r="L1308" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1308" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94555,7 +94555,7 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="Q1308" t="n">
         <v>15</v>
@@ -94581,58 +94581,994 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1309" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1309" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1309" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1309" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1309" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1309" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1309" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1310" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1310" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1310" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1310" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1310" t="n">
+        <v>340</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1310" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1310" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1310" t="n">
+        <v>533</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1310" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1311" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1311" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1311" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I1311" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1311" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1311" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1311" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1311" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1311" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1312" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
+          <t>Francesa morada</t>
+        </is>
+      </c>
+      <c r="I1312" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1312" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1312" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1312" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1312" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1312" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1313" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1313" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1313" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1313" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1313" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1313" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1313" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1313" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1314" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1314" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1314" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1314" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1314" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N1314" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1314" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1314" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1314" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1315" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1315" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1315" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1315" t="n">
+        <v>140</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>3857</v>
+      </c>
+      <c r="N1315" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1315" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1315" t="n">
+        <v>386</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1315" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1316" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1316" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1316" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1316" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1316" t="n">
+        <v>190</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1316" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1316" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1316" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1316" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1317" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1309" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1309" t="n">
-        <v>100112033</v>
-      </c>
-      <c r="G1309" t="inlineStr">
-        <is>
-          <t>Lechuga</t>
-        </is>
-      </c>
-      <c r="H1309" t="inlineStr">
+      <c r="E1317" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1317" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1317" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1317" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1317" t="n">
+        <v>133</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>5496</v>
+      </c>
+      <c r="N1317" t="inlineStr">
+        <is>
+          <t>$/caja 10 unidades</t>
+        </is>
+      </c>
+      <c r="O1317" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1317" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1317" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1318" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1318" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1318" t="inlineStr">
+        <is>
+          <t>Conconina(o)</t>
+        </is>
+      </c>
+      <c r="I1318" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1318" t="n">
+        <v>79</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1318" t="inlineStr">
+        <is>
+          <t>$/caja 12 unidades</t>
+        </is>
+      </c>
+      <c r="O1318" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1318" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>12</v>
+      </c>
+      <c r="R1318" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1319" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1319" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1319" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1319" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1319" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N1319" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1319" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1319" t="n">
+        <v>433</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1319" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1320" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1320" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1320" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1320" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1320" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1320" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1320" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P1320" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1320" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1321" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1321" t="inlineStr">
         <is>
           <t>Marina</t>
         </is>
       </c>
-      <c r="I1309" t="inlineStr">
+      <c r="I1321" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1321" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N1321" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1321" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1321" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1321" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1322" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1322" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1322" t="inlineStr">
+        <is>
+          <t>Marina</t>
+        </is>
+      </c>
+      <c r="I1322" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1309" t="n">
+      <c r="J1322" t="n">
         <v>34</v>
       </c>
-      <c r="K1309" t="n">
+      <c r="K1322" t="n">
         <v>4000</v>
       </c>
-      <c r="L1309" t="n">
+      <c r="L1322" t="n">
         <v>4000</v>
       </c>
-      <c r="M1309" t="n">
+      <c r="M1322" t="n">
         <v>4000</v>
       </c>
-      <c r="N1309" t="inlineStr">
+      <c r="N1322" t="inlineStr">
         <is>
           <t>$/caja 18 unidades</t>
         </is>
       </c>
-      <c r="O1309" t="inlineStr">
+      <c r="O1322" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1309" t="n">
+      <c r="P1322" t="n">
         <v>222</v>
       </c>
-      <c r="Q1309" t="n">
+      <c r="Q1322" t="n">
         <v>18</v>
       </c>
-      <c r="R1309" t="inlineStr">
+      <c r="R1322" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Lechuga.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1347"/>
+  <dimension ref="A1:R1351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -85317,16 +85317,16 @@
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1180" t="n">
         <v>5000</v>
       </c>
       <c r="L1180" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1180" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q1180" t="n">
         <v>10</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -85380,41 +85380,41 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="K1181" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1181" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1181" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q1181" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -85452,7 +85452,7 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
@@ -85461,16 +85461,16 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1182" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1182" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1182" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85479,11 +85479,11 @@
       </c>
       <c r="O1182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>333</v>
+        <v>433</v>
       </c>
       <c r="Q1182" t="n">
         <v>15</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -85524,41 +85524,41 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="K1183" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1183" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1183" t="n">
-        <v>5496</v>
+        <v>4000</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>550</v>
+        <v>222</v>
       </c>
       <c r="Q1183" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1183" t="inlineStr">
         <is>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -85601,24 +85601,24 @@
       </c>
       <c r="I1184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K1184" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1184" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1184" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1184" t="inlineStr">
@@ -85627,10 +85627,10 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1184" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1184" t="inlineStr">
         <is>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -85677,16 +85677,16 @@
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1185" t="n">
         <v>6000</v>
       </c>
       <c r="L1185" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1185" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85695,11 +85695,11 @@
       </c>
       <c r="O1185" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="Q1185" t="n">
         <v>15</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -85740,16 +85740,16 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K1186" t="n">
         <v>5000</v>
@@ -85762,19 +85762,19 @@
       </c>
       <c r="N1186" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1186" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q1186" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1186" t="inlineStr">
         <is>
@@ -85812,7 +85812,7 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
@@ -85821,7 +85821,7 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="K1187" t="n">
         <v>5000</v>
@@ -85830,11 +85830,11 @@
         <v>6000</v>
       </c>
       <c r="M1187" t="n">
-        <v>5500</v>
+        <v>5496</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1187" t="inlineStr">
@@ -85843,10 +85843,10 @@
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>367</v>
+        <v>550</v>
       </c>
       <c r="Q1187" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1187" t="inlineStr">
         <is>
@@ -85884,7 +85884,7 @@
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1188" t="inlineStr">
@@ -85893,7 +85893,7 @@
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="K1188" t="n">
         <v>4000</v>
@@ -85906,7 +85906,7 @@
       </c>
       <c r="N1188" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1188" t="inlineStr">
@@ -85915,10 +85915,10 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="Q1188" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1188" t="inlineStr">
         <is>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -85956,7 +85956,7 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
@@ -85965,32 +85965,32 @@
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1189" t="n">
         <v>6000</v>
       </c>
       <c r="L1189" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1189" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1189" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="Q1189" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1189" t="inlineStr">
         <is>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -86028,41 +86028,41 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K1190" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1190" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1190" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1190" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="Q1190" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -86100,7 +86100,7 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
@@ -86109,16 +86109,16 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K1191" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1191" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1191" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86127,11 +86127,11 @@
       </c>
       <c r="O1191" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>533</v>
+        <v>367</v>
       </c>
       <c r="Q1191" t="n">
         <v>15</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44166</v>
+        <v>44491</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -86172,16 +86172,16 @@
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="K1192" t="n">
         <v>4000</v>
@@ -86194,7 +86194,7 @@
       </c>
       <c r="N1192" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1192" t="inlineStr">
@@ -86203,10 +86203,10 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="Q1192" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1192" t="inlineStr">
         <is>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -86253,16 +86253,16 @@
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K1193" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L1193" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1193" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="Q1193" t="n">
         <v>10</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -86316,41 +86316,41 @@
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1194" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="L1194" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M1194" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q1194" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1194" t="inlineStr">
         <is>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -86397,16 +86397,16 @@
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="K1195" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L1195" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M1195" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86415,11 +86415,11 @@
       </c>
       <c r="O1195" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>267</v>
+        <v>533</v>
       </c>
       <c r="Q1195" t="n">
         <v>15</v>
@@ -86460,41 +86460,41 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="K1196" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1196" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1196" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1196" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>167</v>
+        <v>400</v>
       </c>
       <c r="Q1196" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
@@ -86532,41 +86532,41 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K1197" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L1197" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1197" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>167</v>
+        <v>375</v>
       </c>
       <c r="Q1197" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1197" t="inlineStr">
         <is>
@@ -86604,29 +86604,29 @@
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1198" t="n">
         <v>160</v>
       </c>
       <c r="K1198" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1198" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1198" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1198" t="inlineStr">
@@ -86635,10 +86635,10 @@
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="Q1198" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1198" t="inlineStr">
         <is>
@@ -86676,7 +86676,7 @@
       </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1199" t="inlineStr">
@@ -86685,7 +86685,7 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>140</v>
+        <v>370</v>
       </c>
       <c r="K1199" t="n">
         <v>4000</v>
@@ -86703,7 +86703,7 @@
       </c>
       <c r="O1199" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1199" t="n">
@@ -86748,7 +86748,7 @@
       </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
@@ -86757,16 +86757,16 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="K1200" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1200" t="n">
         <v>3000</v>
       </c>
       <c r="M1200" t="n">
-        <v>2484</v>
+        <v>3000</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
@@ -86775,11 +86775,11 @@
       </c>
       <c r="O1200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="Q1200" t="n">
         <v>18</v>
@@ -86820,25 +86820,25 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K1201" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1201" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1201" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
@@ -86847,11 +86847,11 @@
       </c>
       <c r="O1201" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="Q1201" t="n">
         <v>18</v>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -86892,7 +86892,7 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
@@ -86901,20 +86901,20 @@
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K1202" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1202" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1202" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1202" t="inlineStr">
@@ -86923,10 +86923,10 @@
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="Q1202" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -86964,16 +86964,16 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K1203" t="n">
         <v>4000</v>
@@ -86986,19 +86986,19 @@
       </c>
       <c r="N1203" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="Q1203" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -87036,41 +87036,41 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="K1204" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="L1204" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M1204" t="n">
-        <v>8000</v>
+        <v>2484</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1204" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>533</v>
+        <v>138</v>
       </c>
       <c r="Q1204" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1204" t="inlineStr">
         <is>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -87108,7 +87108,7 @@
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
@@ -87117,32 +87117,32 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K1205" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1205" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1205" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>400</v>
+        <v>222</v>
       </c>
       <c r="Q1205" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1205" t="inlineStr">
         <is>
@@ -87180,7 +87180,7 @@
       </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1206" t="inlineStr">
@@ -87189,20 +87189,20 @@
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K1206" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1206" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1206" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1206" t="inlineStr">
@@ -87211,10 +87211,10 @@
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q1206" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1206" t="inlineStr">
         <is>
@@ -87252,7 +87252,7 @@
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
@@ -87261,7 +87261,7 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K1207" t="n">
         <v>4000</v>
@@ -87274,7 +87274,7 @@
       </c>
       <c r="N1207" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1207" t="inlineStr">
@@ -87283,10 +87283,10 @@
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="Q1207" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1207" t="inlineStr">
         <is>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -87324,7 +87324,7 @@
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
@@ -87333,32 +87333,32 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="K1208" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1208" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1208" t="n">
-        <v>6504</v>
+        <v>8000</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>650</v>
+        <v>533</v>
       </c>
       <c r="Q1208" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E1209" t="n">
         <v>13</v>
@@ -87396,7 +87396,7 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
@@ -87405,32 +87405,32 @@
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K1209" t="n">
         <v>6000</v>
       </c>
       <c r="L1209" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1209" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1209" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="Q1209" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1209" t="inlineStr">
         <is>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E1210" t="n">
         <v>13</v>
@@ -87468,29 +87468,29 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="K1210" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1210" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1210" t="n">
-        <v>4492</v>
+        <v>6000</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1210" t="inlineStr">
@@ -87499,10 +87499,10 @@
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="Q1210" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1210" t="inlineStr">
         <is>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -87540,7 +87540,7 @@
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
@@ -87549,32 +87549,32 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="K1211" t="n">
         <v>4000</v>
       </c>
       <c r="L1211" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1211" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1211" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>375</v>
+        <v>222</v>
       </c>
       <c r="Q1211" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R1211" t="inlineStr">
         <is>
@@ -87612,7 +87612,7 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
@@ -87621,32 +87621,32 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="K1212" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L1212" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M1212" t="n">
-        <v>11500</v>
+        <v>6504</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1212" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>767</v>
+        <v>650</v>
       </c>
       <c r="Q1212" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1212" t="inlineStr">
         <is>
@@ -87684,41 +87684,41 @@
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1213" t="n">
         <v>160</v>
       </c>
       <c r="K1213" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L1213" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M1213" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1213" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>528</v>
+        <v>650</v>
       </c>
       <c r="Q1213" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1213" t="inlineStr">
         <is>
@@ -87756,29 +87756,29 @@
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1214" t="n">
         <v>61</v>
       </c>
       <c r="K1214" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1214" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1214" t="n">
-        <v>6492</v>
+        <v>4492</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1214" t="inlineStr">
@@ -87787,10 +87787,10 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="Q1214" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1214" t="inlineStr">
         <is>
@@ -87828,29 +87828,29 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1215" t="n">
         <v>52</v>
       </c>
       <c r="K1215" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1215" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1215" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1215" t="inlineStr">
@@ -87859,10 +87859,10 @@
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="Q1215" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1215" t="inlineStr">
         <is>
@@ -87900,41 +87900,41 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="K1216" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="L1216" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M1216" t="n">
-        <v>4750</v>
+        <v>11500</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>264</v>
+        <v>767</v>
       </c>
       <c r="Q1216" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1216" t="inlineStr">
         <is>
@@ -87972,7 +87972,7 @@
       </c>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1217" t="inlineStr">
@@ -87981,16 +87981,16 @@
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K1217" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L1217" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1217" t="n">
-        <v>4760</v>
+        <v>9500</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -87999,11 +87999,11 @@
       </c>
       <c r="O1217" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>264</v>
+        <v>528</v>
       </c>
       <c r="Q1217" t="n">
         <v>18</v>
@@ -88044,7 +88044,7 @@
       </c>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -88116,7 +88116,7 @@
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
@@ -88125,7 +88125,7 @@
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K1219" t="n">
         <v>6000</v>
@@ -88188,16 +88188,16 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K1220" t="n">
         <v>4500</v>
@@ -88206,7 +88206,7 @@
         <v>5000</v>
       </c>
       <c r="M1220" t="n">
-        <v>4740</v>
+        <v>4750</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88215,11 +88215,11 @@
       </c>
       <c r="O1220" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q1220" t="n">
         <v>18</v>
@@ -88260,7 +88260,7 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
@@ -88269,7 +88269,7 @@
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K1221" t="n">
         <v>4500</v>
@@ -88278,7 +88278,7 @@
         <v>5000</v>
       </c>
       <c r="M1221" t="n">
-        <v>4750</v>
+        <v>4760</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88287,7 +88287,7 @@
       </c>
       <c r="O1221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1221" t="n">
@@ -88332,7 +88332,7 @@
       </c>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
@@ -88341,20 +88341,20 @@
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K1222" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1222" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1222" t="n">
-        <v>5744</v>
+        <v>6492</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1222" t="inlineStr">
@@ -88363,10 +88363,10 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>287</v>
+        <v>433</v>
       </c>
       <c r="Q1222" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1222" t="inlineStr">
         <is>
@@ -88404,41 +88404,41 @@
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K1223" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1223" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1223" t="n">
-        <v>4750</v>
+        <v>6500</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>198</v>
+        <v>433</v>
       </c>
       <c r="Q1223" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R1223" t="inlineStr">
         <is>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1224" t="n">
         <v>13</v>
@@ -88476,7 +88476,7 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
@@ -88485,20 +88485,20 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="K1224" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L1224" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1224" t="n">
-        <v>8000</v>
+        <v>4740</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1224" t="inlineStr">
@@ -88507,10 +88507,10 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>533</v>
+        <v>263</v>
       </c>
       <c r="Q1224" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1224" t="inlineStr">
         <is>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1225" t="n">
         <v>13</v>
@@ -88548,29 +88548,29 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1225" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1225" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1225" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1225" t="inlineStr">
@@ -88579,10 +88579,10 @@
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="Q1225" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1225" t="inlineStr">
         <is>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -88629,16 +88629,16 @@
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="K1226" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1226" t="n">
         <v>6000</v>
       </c>
       <c r="M1226" t="n">
-        <v>6000</v>
+        <v>5744</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88651,7 +88651,7 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="Q1226" t="n">
         <v>20</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E1227" t="n">
         <v>13</v>
@@ -88692,7 +88692,7 @@
       </c>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1227" t="inlineStr">
@@ -88701,32 +88701,32 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K1227" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L1227" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1227" t="n">
-        <v>6000</v>
+        <v>4750</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1227" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>500</v>
+        <v>198</v>
       </c>
       <c r="Q1227" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="R1227" t="inlineStr">
         <is>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1228" t="n">
         <v>13</v>
@@ -88773,16 +88773,16 @@
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K1228" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="L1228" t="n">
         <v>8000</v>
       </c>
       <c r="M1228" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88791,11 +88791,11 @@
       </c>
       <c r="O1228" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="Q1228" t="n">
         <v>15</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1229" t="n">
         <v>13</v>
@@ -88836,41 +88836,41 @@
       </c>
       <c r="H1229" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1229" t="n">
         <v>160</v>
       </c>
       <c r="K1229" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1229" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="M1229" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1229" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Q1229" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1229" t="inlineStr">
         <is>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1230" t="n">
         <v>13</v>
@@ -88908,7 +88908,7 @@
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1230" t="inlineStr">
@@ -88917,20 +88917,20 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K1230" t="n">
         <v>6000</v>
       </c>
       <c r="L1230" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1230" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1230" t="inlineStr">
@@ -88939,10 +88939,10 @@
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="Q1230" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1230" t="inlineStr">
         <is>
@@ -88980,7 +88980,7 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -88989,32 +88989,32 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K1231" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1231" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1231" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>306</v>
+        <v>500</v>
       </c>
       <c r="Q1231" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1231" t="inlineStr">
         <is>
@@ -89052,7 +89052,7 @@
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1232" t="inlineStr">
@@ -89061,32 +89061,32 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="K1232" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L1232" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1232" t="n">
-        <v>6500</v>
+        <v>7750</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>325</v>
+        <v>517</v>
       </c>
       <c r="Q1232" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1232" t="inlineStr">
         <is>
@@ -89124,7 +89124,7 @@
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1233" t="inlineStr">
@@ -89136,29 +89136,29 @@
         <v>160</v>
       </c>
       <c r="K1233" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="L1233" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="M1233" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>229</v>
+        <v>361</v>
       </c>
       <c r="Q1233" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1233" t="inlineStr">
         <is>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1234" t="n">
         <v>13</v>
@@ -89196,7 +89196,7 @@
       </c>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1234" t="inlineStr">
@@ -89205,32 +89205,32 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K1234" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1234" t="n">
         <v>7000</v>
       </c>
       <c r="M1234" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1234" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>700</v>
+        <v>433</v>
       </c>
       <c r="Q1234" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1234" t="inlineStr">
         <is>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -89268,29 +89268,29 @@
       </c>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K1235" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1235" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M1235" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1235" t="inlineStr">
@@ -89299,10 +89299,10 @@
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>533</v>
+        <v>306</v>
       </c>
       <c r="Q1235" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1235" t="inlineStr">
         <is>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -89340,7 +89340,7 @@
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1236" t="inlineStr">
@@ -89349,32 +89349,32 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K1236" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1236" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1236" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1236" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>533</v>
+        <v>325</v>
       </c>
       <c r="Q1236" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1236" t="inlineStr">
         <is>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1237" t="n">
         <v>13</v>
@@ -89412,29 +89412,29 @@
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1237" t="n">
         <v>160</v>
       </c>
       <c r="K1237" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L1237" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="M1237" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1237" t="inlineStr">
@@ -89443,10 +89443,10 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>467</v>
+        <v>229</v>
       </c>
       <c r="Q1237" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R1237" t="inlineStr">
         <is>
@@ -89484,7 +89484,7 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
@@ -89493,7 +89493,7 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1238" t="n">
         <v>7000</v>
@@ -89506,7 +89506,7 @@
       </c>
       <c r="N1238" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1238" t="inlineStr">
@@ -89515,10 +89515,10 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q1238" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1238" t="inlineStr">
         <is>
@@ -89556,7 +89556,7 @@
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
@@ -89565,16 +89565,16 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K1239" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1239" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1239" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89587,7 +89587,7 @@
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q1239" t="n">
         <v>15</v>
@@ -89628,7 +89628,7 @@
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
@@ -89637,32 +89637,32 @@
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K1240" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1240" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1240" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>350</v>
+        <v>533</v>
       </c>
       <c r="Q1240" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1240" t="inlineStr">
         <is>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1241" t="n">
         <v>13</v>
@@ -89700,7 +89700,7 @@
       </c>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
@@ -89709,20 +89709,20 @@
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K1241" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1241" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1241" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1241" t="inlineStr">
@@ -89731,10 +89731,10 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q1241" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1241" t="inlineStr">
         <is>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1242" t="n">
         <v>13</v>
@@ -89772,7 +89772,7 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
@@ -89781,16 +89781,16 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="K1242" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1242" t="n">
         <v>7000</v>
       </c>
       <c r="M1242" t="n">
-        <v>6438</v>
+        <v>7000</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89799,11 +89799,11 @@
       </c>
       <c r="O1242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="Q1242" t="n">
         <v>15</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1243" t="n">
         <v>13</v>
@@ -89853,16 +89853,16 @@
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K1243" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L1243" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1243" t="n">
-        <v>4758</v>
+        <v>7000</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>317</v>
+        <v>467</v>
       </c>
       <c r="Q1243" t="n">
         <v>15</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1244" t="n">
         <v>13</v>
@@ -89925,16 +89925,16 @@
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K1244" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1244" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1244" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q1244" t="n">
         <v>20</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1245" t="n">
         <v>13</v>
@@ -89997,7 +89997,7 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K1245" t="n">
         <v>5000</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1246" t="n">
         <v>13</v>
@@ -90060,29 +90060,29 @@
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K1246" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1246" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1246" t="n">
-        <v>4000</v>
+        <v>6438</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1246" t="inlineStr">
@@ -90091,10 +90091,10 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="Q1246" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1246" t="inlineStr">
         <is>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1247" t="n">
         <v>13</v>
@@ -90132,29 +90132,29 @@
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K1247" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1247" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1247" t="n">
-        <v>4000</v>
+        <v>4758</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1247" t="inlineStr">
@@ -90163,10 +90163,10 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="Q1247" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1247" t="inlineStr">
         <is>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1248" t="n">
         <v>13</v>
@@ -90204,7 +90204,7 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
@@ -90213,32 +90213,32 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K1248" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1248" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1248" t="n">
-        <v>6643</v>
+        <v>5000</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1248" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>443</v>
+        <v>250</v>
       </c>
       <c r="Q1248" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1248" t="inlineStr">
         <is>
@@ -90276,7 +90276,7 @@
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
@@ -90285,20 +90285,20 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K1249" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1249" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1249" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1249" t="inlineStr">
@@ -90307,10 +90307,10 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q1249" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1249" t="inlineStr">
         <is>
@@ -90348,41 +90348,41 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K1250" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1250" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1250" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1250" t="n">
         <v>400</v>
       </c>
       <c r="Q1250" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1250" t="inlineStr">
         <is>
@@ -90420,29 +90420,29 @@
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K1251" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1251" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1251" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1251" t="inlineStr">
@@ -90451,10 +90451,10 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q1251" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1251" t="inlineStr">
         <is>
@@ -90492,7 +90492,7 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
@@ -90501,16 +90501,16 @@
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K1252" t="n">
         <v>6000</v>
       </c>
       <c r="L1252" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1252" t="n">
-        <v>6000</v>
+        <v>6643</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90519,11 +90519,11 @@
       </c>
       <c r="O1252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="Q1252" t="n">
         <v>15</v>
@@ -90564,29 +90564,29 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K1253" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1253" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1253" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1253" t="inlineStr">
@@ -90595,10 +90595,10 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="Q1253" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1253" t="inlineStr">
         <is>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1254" t="n">
         <v>13</v>
@@ -90636,7 +90636,7 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -90645,32 +90645,32 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K1254" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1254" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1254" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q1254" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1254" t="inlineStr">
         <is>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1255" t="n">
         <v>13</v>
@@ -90708,16 +90708,16 @@
       </c>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K1255" t="n">
         <v>6000</v>
@@ -90730,19 +90730,19 @@
       </c>
       <c r="N1255" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1255" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q1255" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1255" t="inlineStr">
         <is>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1256" t="n">
         <v>13</v>
@@ -90780,7 +90780,7 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
@@ -90789,16 +90789,16 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K1256" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1256" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1256" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90807,11 +90807,11 @@
       </c>
       <c r="O1256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q1256" t="n">
         <v>15</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1257" t="n">
         <v>13</v>
@@ -90852,7 +90852,7 @@
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1257" t="inlineStr">
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K1257" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1257" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1257" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q1257" t="n">
         <v>18</v>
@@ -90924,7 +90924,7 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
@@ -90933,7 +90933,7 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K1258" t="n">
         <v>7000</v>
@@ -90946,7 +90946,7 @@
       </c>
       <c r="N1258" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1258" t="inlineStr">
@@ -90955,10 +90955,10 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="Q1258" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1258" t="inlineStr">
         <is>
@@ -90996,7 +90996,7 @@
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
@@ -91005,7 +91005,7 @@
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1259" t="n">
         <v>6000</v>
@@ -91018,7 +91018,7 @@
       </c>
       <c r="N1259" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1259" t="inlineStr">
@@ -91027,10 +91027,10 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1259" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1259" t="inlineStr">
         <is>
@@ -91068,7 +91068,7 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
@@ -91077,16 +91077,16 @@
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1260" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1260" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M1260" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="Q1260" t="n">
         <v>15</v>
@@ -91140,7 +91140,7 @@
       </c>
       <c r="H1261" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1261" t="inlineStr">
@@ -91149,16 +91149,16 @@
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K1261" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1261" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1261" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q1261" t="n">
         <v>18</v>
@@ -91212,7 +91212,7 @@
       </c>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
@@ -91221,7 +91221,7 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K1262" t="n">
         <v>7000</v>
@@ -91284,7 +91284,7 @@
       </c>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1263" t="inlineStr">
@@ -91293,7 +91293,7 @@
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K1263" t="n">
         <v>6000</v>
@@ -91356,7 +91356,7 @@
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
@@ -91365,7 +91365,7 @@
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1264" t="n">
         <v>7000</v>
@@ -91378,7 +91378,7 @@
       </c>
       <c r="N1264" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1264" t="inlineStr">
@@ -91387,10 +91387,10 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>350</v>
+        <v>467</v>
       </c>
       <c r="Q1264" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1264" t="inlineStr">
         <is>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E1265" t="n">
         <v>13</v>
@@ -91428,41 +91428,41 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K1265" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L1265" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1265" t="n">
-        <v>3778</v>
+        <v>6000</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="Q1265" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1265" t="inlineStr">
         <is>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E1266" t="n">
         <v>13</v>
@@ -91500,41 +91500,41 @@
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1266" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L1266" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="M1266" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>300</v>
+        <v>467</v>
       </c>
       <c r="Q1266" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1266" t="inlineStr">
         <is>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E1267" t="n">
         <v>13</v>
@@ -91572,41 +91572,41 @@
       </c>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="K1267" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1267" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1267" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1267" t="n">
         <v>333</v>
       </c>
       <c r="Q1267" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1267" t="inlineStr">
         <is>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E1268" t="n">
         <v>13</v>
@@ -91644,7 +91644,7 @@
       </c>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
@@ -91653,20 +91653,20 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K1268" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1268" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1268" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1268" t="inlineStr">
@@ -91675,10 +91675,10 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="Q1268" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1268" t="inlineStr">
         <is>
@@ -91716,41 +91716,41 @@
       </c>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K1269" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L1269" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1269" t="n">
-        <v>2536</v>
+        <v>3778</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>141</v>
+        <v>378</v>
       </c>
       <c r="Q1269" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1269" t="inlineStr">
         <is>
@@ -91788,29 +91788,29 @@
       </c>
       <c r="H1270" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1270" t="n">
         <v>160</v>
       </c>
       <c r="K1270" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1270" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1270" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1270" t="inlineStr">
@@ -91819,10 +91819,10 @@
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="Q1270" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1270" t="inlineStr">
         <is>
@@ -91860,7 +91860,7 @@
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
@@ -91869,20 +91869,20 @@
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K1271" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1271" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1271" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1271" t="inlineStr">
@@ -91891,10 +91891,10 @@
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="Q1271" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1271" t="inlineStr">
         <is>
@@ -91932,29 +91932,29 @@
       </c>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K1272" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1272" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1272" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1272" t="inlineStr">
@@ -91963,10 +91963,10 @@
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="Q1272" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1272" t="inlineStr">
         <is>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E1273" t="n">
         <v>13</v>
@@ -92004,29 +92004,29 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K1273" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="L1273" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1273" t="n">
-        <v>5000</v>
+        <v>2536</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1273" t="inlineStr">
@@ -92035,10 +92035,10 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>500</v>
+        <v>141</v>
       </c>
       <c r="Q1273" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1273" t="inlineStr">
         <is>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E1274" t="n">
         <v>13</v>
@@ -92076,7 +92076,7 @@
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
@@ -92085,20 +92085,20 @@
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1274" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1274" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1274" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1274" t="inlineStr">
@@ -92107,10 +92107,10 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="Q1274" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1274" t="inlineStr">
         <is>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E1275" t="n">
         <v>13</v>
@@ -92148,7 +92148,7 @@
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1275" t="inlineStr">
@@ -92157,20 +92157,20 @@
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K1275" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1275" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1275" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1275" t="inlineStr">
@@ -92179,10 +92179,10 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="Q1275" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1275" t="inlineStr">
         <is>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44236</v>
+        <v>44161</v>
       </c>
       <c r="E1276" t="n">
         <v>13</v>
@@ -92220,41 +92220,41 @@
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K1276" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L1276" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M1276" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="Q1276" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1276" t="inlineStr">
         <is>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E1277" t="n">
         <v>13</v>
@@ -92301,7 +92301,7 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K1277" t="n">
         <v>5000</v>
@@ -92319,7 +92319,7 @@
       </c>
       <c r="O1277" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1277" t="n">
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E1278" t="n">
         <v>13</v>
@@ -92364,7 +92364,7 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
@@ -92373,16 +92373,16 @@
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K1278" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1278" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1278" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92391,11 +92391,11 @@
       </c>
       <c r="O1278" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q1278" t="n">
         <v>15</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E1279" t="n">
         <v>13</v>
@@ -92436,7 +92436,7 @@
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
@@ -92445,7 +92445,7 @@
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K1279" t="n">
         <v>5000</v>
@@ -92463,7 +92463,7 @@
       </c>
       <c r="O1279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1279" t="n">
@@ -92508,7 +92508,7 @@
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1280" t="inlineStr">
@@ -92517,7 +92517,7 @@
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K1280" t="n">
         <v>5000</v>
@@ -92530,7 +92530,7 @@
       </c>
       <c r="N1280" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1280" t="inlineStr">
@@ -92539,10 +92539,10 @@
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1280" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1280" t="inlineStr">
         <is>
@@ -92580,7 +92580,7 @@
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1281" t="inlineStr">
@@ -92589,7 +92589,7 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="K1281" t="n">
         <v>5000</v>
@@ -92602,7 +92602,7 @@
       </c>
       <c r="N1281" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1281" t="inlineStr">
@@ -92611,10 +92611,10 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1281" t="inlineStr">
         <is>
@@ -92652,7 +92652,7 @@
       </c>
       <c r="H1282" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1282" t="inlineStr">
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1282" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1282" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1282" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92679,11 +92679,11 @@
       </c>
       <c r="O1282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q1282" t="n">
         <v>15</v>
@@ -92724,7 +92724,7 @@
       </c>
       <c r="H1283" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1283" t="inlineStr">
@@ -92733,7 +92733,7 @@
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K1283" t="n">
         <v>5000</v>
@@ -92751,7 +92751,7 @@
       </c>
       <c r="O1283" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1283" t="n">
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1284" t="n">
         <v>13</v>
@@ -92796,7 +92796,7 @@
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
@@ -92805,16 +92805,16 @@
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>430</v>
+        <v>140</v>
       </c>
       <c r="K1284" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1284" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="M1284" t="n">
-        <v>8250</v>
+        <v>5000</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92823,11 +92823,11 @@
       </c>
       <c r="O1284" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>550</v>
+        <v>333</v>
       </c>
       <c r="Q1284" t="n">
         <v>15</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1285" t="n">
         <v>13</v>
@@ -92868,41 +92868,41 @@
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K1285" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1285" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1285" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1285" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="Q1285" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1285" t="inlineStr">
         <is>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1286" t="n">
         <v>13</v>
@@ -92940,7 +92940,7 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
@@ -92949,16 +92949,16 @@
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K1286" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1286" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="M1286" t="n">
-        <v>6253</v>
+        <v>5000</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92967,11 +92967,11 @@
       </c>
       <c r="O1286" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="Q1286" t="n">
         <v>15</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1287" t="n">
         <v>13</v>
@@ -93012,16 +93012,16 @@
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="K1287" t="n">
         <v>5000</v>
@@ -93034,7 +93034,7 @@
       </c>
       <c r="N1287" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1287" t="inlineStr">
@@ -93043,10 +93043,10 @@
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q1287" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1287" t="inlineStr">
         <is>
@@ -93084,7 +93084,7 @@
       </c>
       <c r="H1288" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1288" t="inlineStr">
@@ -93093,16 +93093,16 @@
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="K1288" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1288" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="M1288" t="n">
-        <v>6252</v>
+        <v>8250</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93111,11 +93111,11 @@
       </c>
       <c r="O1288" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="Q1288" t="n">
         <v>15</v>
@@ -93156,7 +93156,7 @@
       </c>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1289" t="inlineStr">
@@ -93165,16 +93165,16 @@
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="K1289" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1289" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1289" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93183,11 +93183,11 @@
       </c>
       <c r="O1289" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q1289" t="n">
         <v>18</v>
@@ -93228,7 +93228,7 @@
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
@@ -93237,7 +93237,7 @@
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K1290" t="n">
         <v>6000</v>
@@ -93246,11 +93246,11 @@
         <v>6500</v>
       </c>
       <c r="M1290" t="n">
-        <v>6250</v>
+        <v>6253</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1290" t="inlineStr">
@@ -93259,10 +93259,10 @@
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="Q1290" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1290" t="inlineStr">
         <is>
@@ -93300,7 +93300,7 @@
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1291" t="inlineStr">
@@ -93309,7 +93309,7 @@
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K1291" t="n">
         <v>5000</v>
@@ -93322,7 +93322,7 @@
       </c>
       <c r="N1291" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1291" t="inlineStr">
@@ -93331,10 +93331,10 @@
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="Q1291" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R1291" t="inlineStr">
         <is>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1292" t="n">
         <v>13</v>
@@ -93372,7 +93372,7 @@
       </c>
       <c r="H1292" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1292" t="inlineStr">
@@ -93381,16 +93381,16 @@
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="K1292" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1292" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M1292" t="n">
-        <v>7500</v>
+        <v>6252</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93399,11 +93399,11 @@
       </c>
       <c r="O1292" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q1292" t="n">
         <v>15</v>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1293" t="n">
         <v>13</v>
@@ -93444,41 +93444,41 @@
       </c>
       <c r="H1293" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K1293" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="L1293" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1293" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1293" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="Q1293" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1293" t="inlineStr">
         <is>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1294" t="n">
         <v>13</v>
@@ -93516,7 +93516,7 @@
       </c>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1294" t="inlineStr">
@@ -93525,20 +93525,20 @@
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="K1294" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1294" t="n">
         <v>6500</v>
       </c>
-      <c r="L1294" t="n">
-        <v>7000</v>
-      </c>
       <c r="M1294" t="n">
-        <v>6750</v>
+        <v>6250</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1294" t="inlineStr">
@@ -93547,10 +93547,10 @@
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="Q1294" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1294" t="inlineStr">
         <is>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44515</v>
+        <v>44389</v>
       </c>
       <c r="E1295" t="n">
         <v>13</v>
@@ -93588,41 +93588,41 @@
       </c>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K1295" t="n">
         <v>5000</v>
       </c>
       <c r="L1295" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1295" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O1295" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>550</v>
+        <v>208</v>
       </c>
       <c r="Q1295" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="R1295" t="inlineStr">
         <is>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1296" t="n">
         <v>13</v>
@@ -93660,41 +93660,41 @@
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K1296" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1296" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M1296" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1296" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1296" t="inlineStr">
         <is>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1297" t="n">
         <v>13</v>
@@ -93732,7 +93732,7 @@
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
@@ -93741,16 +93741,16 @@
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K1297" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1297" t="n">
         <v>7000</v>
       </c>
       <c r="M1297" t="n">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93759,11 +93759,11 @@
       </c>
       <c r="O1297" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="Q1297" t="n">
         <v>15</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1298" t="n">
         <v>13</v>
@@ -93804,41 +93804,41 @@
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="K1298" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="L1298" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1298" t="n">
-        <v>4000</v>
+        <v>6750</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1298" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>222</v>
+        <v>450</v>
       </c>
       <c r="Q1298" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1298" t="inlineStr">
         <is>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1299" t="n">
         <v>13</v>
@@ -93888,13 +93888,13 @@
         <v>160</v>
       </c>
       <c r="K1299" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1299" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M1299" t="n">
-        <v>7250</v>
+        <v>5500</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
@@ -93907,7 +93907,7 @@
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="Q1299" t="n">
         <v>10</v>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1300" t="n">
         <v>13</v>
@@ -93948,41 +93948,41 @@
       </c>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="K1300" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L1300" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1300" t="n">
-        <v>6750</v>
+        <v>4000</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1300" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="Q1300" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R1300" t="inlineStr">
         <is>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1301" t="n">
         <v>13</v>
@@ -94020,7 +94020,7 @@
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1301" t="inlineStr">
@@ -94029,16 +94029,16 @@
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1301" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1301" t="n">
         <v>7000</v>
       </c>
       <c r="M1301" t="n">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
@@ -94047,11 +94047,11 @@
       </c>
       <c r="O1301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="Q1301" t="n">
         <v>15</v>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E1302" t="n">
         <v>13</v>
@@ -94092,41 +94092,41 @@
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="K1302" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1302" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1302" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1302" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>650</v>
+        <v>222</v>
       </c>
       <c r="Q1302" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1302" t="inlineStr">
         <is>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1303" t="n">
         <v>13</v>
@@ -94169,24 +94169,24 @@
       </c>
       <c r="I1303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1303" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L1303" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M1303" t="n">
-        <v>4747</v>
+        <v>7250</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1303" t="inlineStr">
@@ -94195,10 +94195,10 @@
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>396</v>
+        <v>725</v>
       </c>
       <c r="Q1303" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R1303" t="inlineStr">
         <is>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1304" t="n">
         <v>13</v>
@@ -94245,16 +94245,16 @@
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="K1304" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1304" t="n">
         <v>7000</v>
       </c>
       <c r="M1304" t="n">
-        <v>6492</v>
+        <v>6750</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94263,11 +94263,11 @@
       </c>
       <c r="O1304" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="Q1304" t="n">
         <v>15</v>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1305" t="n">
         <v>13</v>
@@ -94308,29 +94308,29 @@
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K1305" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L1305" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1305" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1305" t="inlineStr">
@@ -94339,10 +94339,10 @@
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>264</v>
+        <v>450</v>
       </c>
       <c r="Q1305" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1305" t="inlineStr">
         <is>
@@ -94380,7 +94380,7 @@
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
@@ -94389,7 +94389,7 @@
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1306" t="n">
         <v>6000</v>
@@ -94398,11 +94398,11 @@
         <v>7000</v>
       </c>
       <c r="M1306" t="n">
-        <v>6488</v>
+        <v>6500</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1306" t="inlineStr">
@@ -94411,10 +94411,10 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>433</v>
+        <v>650</v>
       </c>
       <c r="Q1306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1306" t="inlineStr">
         <is>
@@ -94452,7 +94452,7 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
@@ -94461,7 +94461,7 @@
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K1307" t="n">
         <v>4500</v>
@@ -94470,11 +94470,11 @@
         <v>5000</v>
       </c>
       <c r="M1307" t="n">
-        <v>4740</v>
+        <v>4747</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1307" t="inlineStr">
@@ -94483,10 +94483,10 @@
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>263</v>
+        <v>396</v>
       </c>
       <c r="Q1307" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1307" t="inlineStr">
         <is>
@@ -94524,7 +94524,7 @@
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
@@ -94533,7 +94533,7 @@
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K1308" t="n">
         <v>6000</v>
@@ -94542,7 +94542,7 @@
         <v>7000</v>
       </c>
       <c r="M1308" t="n">
-        <v>6500</v>
+        <v>6492</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94596,7 +94596,7 @@
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1309" t="inlineStr">
@@ -94605,7 +94605,7 @@
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K1309" t="n">
         <v>4500</v>
@@ -94614,7 +94614,7 @@
         <v>5000</v>
       </c>
       <c r="M1309" t="n">
-        <v>4744</v>
+        <v>4750</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1310" t="n">
         <v>13</v>
@@ -94668,7 +94668,7 @@
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1310" t="inlineStr">
@@ -94677,20 +94677,20 @@
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="K1310" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L1310" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1310" t="n">
-        <v>3800</v>
+        <v>6488</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1310" t="inlineStr">
@@ -94699,10 +94699,10 @@
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="Q1310" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1310" t="inlineStr">
         <is>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1311" t="n">
         <v>13</v>
@@ -94740,7 +94740,7 @@
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
@@ -94749,20 +94749,20 @@
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="K1311" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L1311" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1311" t="n">
-        <v>3000</v>
+        <v>4740</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1311" t="inlineStr">
@@ -94771,10 +94771,10 @@
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="Q1311" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1311" t="inlineStr">
         <is>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1312" t="n">
         <v>13</v>
@@ -94812,7 +94812,7 @@
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1312" t="inlineStr">
@@ -94821,16 +94821,16 @@
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="K1312" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L1312" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1312" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94839,11 +94839,11 @@
       </c>
       <c r="O1312" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="Q1312" t="n">
         <v>15</v>
@@ -94869,7 +94869,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1313" t="n">
         <v>13</v>
@@ -94884,7 +94884,7 @@
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
@@ -94893,16 +94893,16 @@
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="K1313" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L1313" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1313" t="n">
-        <v>3000</v>
+        <v>4744</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94911,11 +94911,11 @@
       </c>
       <c r="O1313" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="Q1313" t="n">
         <v>18</v>
@@ -94956,7 +94956,7 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
@@ -94965,20 +94965,20 @@
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1314" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="L1314" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1314" t="n">
-        <v>4812</v>
+        <v>3800</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1314" t="inlineStr">
@@ -94987,10 +94987,10 @@
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="Q1314" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1314" t="inlineStr">
         <is>
@@ -95028,7 +95028,7 @@
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1315" t="inlineStr">
@@ -95037,20 +95037,20 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="K1315" t="n">
         <v>3000</v>
       </c>
       <c r="L1315" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1315" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1315" t="inlineStr">
@@ -95059,10 +95059,10 @@
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="Q1315" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1315" t="inlineStr">
         <is>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1316" t="n">
         <v>13</v>
@@ -95109,16 +95109,16 @@
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K1316" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1316" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="M1316" t="n">
-        <v>6250</v>
+        <v>4000</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95127,11 +95127,11 @@
       </c>
       <c r="O1316" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>417</v>
+        <v>267</v>
       </c>
       <c r="Q1316" t="n">
         <v>15</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1317" t="n">
         <v>13</v>
@@ -95172,41 +95172,41 @@
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="K1317" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1317" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1317" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="Q1317" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1317" t="inlineStr">
         <is>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1318" t="n">
         <v>13</v>
@@ -95256,13 +95256,13 @@
         <v>160</v>
       </c>
       <c r="K1318" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L1318" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1318" t="n">
-        <v>4000</v>
+        <v>4812</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95275,7 +95275,7 @@
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="Q1318" t="n">
         <v>15</v>
@@ -95301,7 +95301,7 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1319" t="n">
         <v>13</v>
@@ -95316,29 +95316,29 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K1319" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L1319" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1319" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1319" t="inlineStr">
@@ -95347,10 +95347,10 @@
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="Q1319" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1319" t="inlineStr">
         <is>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1320" t="n">
         <v>13</v>
@@ -95400,13 +95400,13 @@
         <v>250</v>
       </c>
       <c r="K1320" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L1320" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="M1320" t="n">
-        <v>7000</v>
+        <v>6250</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95415,11 +95415,11 @@
       </c>
       <c r="O1320" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="Q1320" t="n">
         <v>15</v>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1321" t="n">
         <v>13</v>
@@ -95460,7 +95460,7 @@
       </c>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
@@ -95469,16 +95469,16 @@
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K1321" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1321" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1321" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95487,11 +95487,11 @@
       </c>
       <c r="O1321" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="Q1321" t="n">
         <v>15</v>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1322" t="n">
         <v>13</v>
@@ -95544,13 +95544,13 @@
         <v>160</v>
       </c>
       <c r="K1322" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1322" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1322" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95559,11 +95559,11 @@
       </c>
       <c r="O1322" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="Q1322" t="n">
         <v>15</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E1323" t="n">
         <v>13</v>
@@ -95604,7 +95604,7 @@
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
@@ -95613,32 +95613,32 @@
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K1323" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1323" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1323" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1323" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>467</v>
+        <v>200</v>
       </c>
       <c r="Q1323" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1323" t="inlineStr">
         <is>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1324" t="n">
         <v>13</v>
@@ -95676,7 +95676,7 @@
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>Francesa morada</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1324" t="inlineStr">
@@ -95685,16 +95685,16 @@
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="K1324" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1324" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1324" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95707,7 +95707,7 @@
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>400</v>
+        <v>467</v>
       </c>
       <c r="Q1324" t="n">
         <v>15</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E1325" t="n">
         <v>13</v>
@@ -95748,7 +95748,7 @@
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1325" t="inlineStr">
@@ -95757,32 +95757,32 @@
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K1325" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="L1325" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1325" t="n">
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>675</v>
+        <v>400</v>
       </c>
       <c r="Q1325" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1325" t="inlineStr">
         <is>
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E1326" t="n">
         <v>13</v>
@@ -95820,16 +95820,16 @@
       </c>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K1326" t="n">
         <v>6000</v>
@@ -95842,19 +95842,19 @@
       </c>
       <c r="N1326" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q1326" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1326" t="inlineStr">
         <is>
@@ -95877,7 +95877,7 @@
         </is>
       </c>
       <c r="D1327" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1327" t="n">
         <v>13</v>
@@ -95892,7 +95892,7 @@
       </c>
       <c r="H1327" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1327" t="inlineStr">
@@ -95901,16 +95901,16 @@
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1327" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1327" t="n">
         <v>7000</v>
       </c>
       <c r="M1327" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95919,11 +95919,11 @@
       </c>
       <c r="O1327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="Q1327" t="n">
         <v>15</v>
@@ -95949,7 +95949,7 @@
         </is>
       </c>
       <c r="D1328" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1328" t="n">
         <v>13</v>
@@ -95964,41 +95964,41 @@
       </c>
       <c r="H1328" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Francesa morada</t>
         </is>
       </c>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1328" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K1328" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1328" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1328" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="Q1328" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1328" t="inlineStr">
         <is>
@@ -96036,7 +96036,7 @@
       </c>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1329" t="inlineStr">
@@ -96045,20 +96045,20 @@
         </is>
       </c>
       <c r="J1329" t="n">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="K1329" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="L1329" t="n">
         <v>7000</v>
       </c>
       <c r="M1329" t="n">
-        <v>6620</v>
+        <v>6750</v>
       </c>
       <c r="N1329" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1329" t="inlineStr">
@@ -96067,10 +96067,10 @@
         </is>
       </c>
       <c r="P1329" t="n">
-        <v>441</v>
+        <v>675</v>
       </c>
       <c r="Q1329" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1329" t="inlineStr">
         <is>
@@ -96108,7 +96108,7 @@
       </c>
       <c r="H1330" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1330" t="inlineStr">
@@ -96117,20 +96117,20 @@
         </is>
       </c>
       <c r="J1330" t="n">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="K1330" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L1330" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1330" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1330" t="inlineStr">
@@ -96139,10 +96139,10 @@
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>306</v>
+        <v>500</v>
       </c>
       <c r="Q1330" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R1330" t="inlineStr">
         <is>
@@ -96165,7 +96165,7 @@
         </is>
       </c>
       <c r="D1331" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1331" t="n">
         <v>13</v>
@@ -96180,7 +96180,7 @@
       </c>
       <c r="H1331" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1331" t="inlineStr">
@@ -96189,20 +96189,20 @@
         </is>
       </c>
       <c r="J1331" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1331" t="n">
         <v>6000</v>
       </c>
       <c r="L1331" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1331" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N1331" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1331" t="inlineStr">
@@ -96211,10 +96211,10 @@
         </is>
       </c>
       <c r="P1331" t="n">
-        <v>600</v>
+        <v>433</v>
       </c>
       <c r="Q1331" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1331" t="inlineStr">
         <is>
@@ -96237,7 +96237,7 @@
         </is>
       </c>
       <c r="D1332" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1332" t="n">
         <v>13</v>
@@ -96252,41 +96252,41 @@
       </c>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1332" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K1332" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1332" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M1332" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N1332" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1332" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1332" t="n">
-        <v>467</v>
+        <v>278</v>
       </c>
       <c r="Q1332" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1332" t="inlineStr">
         <is>
@@ -96309,7 +96309,7 @@
         </is>
       </c>
       <c r="D1333" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1333" t="n">
         <v>13</v>
@@ -96324,7 +96324,7 @@
       </c>
       <c r="H1333" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1333" t="inlineStr">
@@ -96333,16 +96333,16 @@
         </is>
       </c>
       <c r="J1333" t="n">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="K1333" t="n">
         <v>6000</v>
       </c>
       <c r="L1333" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1333" t="n">
-        <v>6000</v>
+        <v>6620</v>
       </c>
       <c r="N1333" t="inlineStr">
         <is>
@@ -96351,11 +96351,11 @@
       </c>
       <c r="O1333" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1333" t="n">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="Q1333" t="n">
         <v>15</v>
@@ -96381,7 +96381,7 @@
         </is>
       </c>
       <c r="D1334" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1334" t="n">
         <v>13</v>
@@ -96396,29 +96396,29 @@
       </c>
       <c r="H1334" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="I1334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1334" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="K1334" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L1334" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M1334" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="N1334" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1334" t="inlineStr">
@@ -96427,10 +96427,10 @@
         </is>
       </c>
       <c r="P1334" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q1334" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1334" t="inlineStr">
         <is>
@@ -96453,7 +96453,7 @@
         </is>
       </c>
       <c r="D1335" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1335" t="n">
         <v>13</v>
@@ -96477,16 +96477,16 @@
         </is>
       </c>
       <c r="J1335" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K1335" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1335" t="n">
         <v>6000</v>
       </c>
       <c r="M1335" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1335" t="inlineStr">
         <is>
@@ -96499,7 +96499,7 @@
         </is>
       </c>
       <c r="P1335" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q1335" t="n">
         <v>10</v>
@@ -96525,7 +96525,7 @@
         </is>
       </c>
       <c r="D1336" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1336" t="n">
         <v>13</v>
@@ -96540,41 +96540,41 @@
       </c>
       <c r="H1336" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1336" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K1336" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L1336" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1336" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N1336" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1336" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="Q1336" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1336" t="inlineStr">
         <is>
@@ -96597,7 +96597,7 @@
         </is>
       </c>
       <c r="D1337" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1337" t="n">
         <v>13</v>
@@ -96612,7 +96612,7 @@
       </c>
       <c r="H1337" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1337" t="inlineStr">
@@ -96621,16 +96621,16 @@
         </is>
       </c>
       <c r="J1337" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K1337" t="n">
         <v>6000</v>
       </c>
       <c r="L1337" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1337" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="N1337" t="inlineStr">
         <is>
@@ -96639,11 +96639,11 @@
       </c>
       <c r="O1337" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="P1337" t="n">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="Q1337" t="n">
         <v>15</v>
@@ -96669,7 +96669,7 @@
         </is>
       </c>
       <c r="D1338" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1338" t="n">
         <v>13</v>
@@ -96684,7 +96684,7 @@
       </c>
       <c r="H1338" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Milanesa</t>
         </is>
       </c>
       <c r="I1338" t="inlineStr">
@@ -96696,17 +96696,17 @@
         <v>70</v>
       </c>
       <c r="K1338" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1338" t="n">
         <v>6000</v>
       </c>
       <c r="M1338" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="N1338" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 20 unidades</t>
         </is>
       </c>
       <c r="O1338" t="inlineStr">
@@ -96715,10 +96715,10 @@
         </is>
       </c>
       <c r="P1338" t="n">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="Q1338" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1338" t="inlineStr">
         <is>
@@ -96756,29 +96756,29 @@
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1339" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="K1339" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1339" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1339" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="N1339" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1339" t="inlineStr">
@@ -96787,10 +96787,10 @@
         </is>
       </c>
       <c r="P1339" t="n">
-        <v>222</v>
+        <v>550</v>
       </c>
       <c r="Q1339" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1339" t="inlineStr">
         <is>
@@ -96813,7 +96813,7 @@
         </is>
       </c>
       <c r="D1340" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1340" t="n">
         <v>13</v>
@@ -96833,24 +96833,24 @@
       </c>
       <c r="I1340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1340" t="n">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="K1340" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L1340" t="n">
         <v>4000</v>
       </c>
       <c r="M1340" t="n">
-        <v>3778</v>
+        <v>4000</v>
       </c>
       <c r="N1340" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O1340" t="inlineStr">
@@ -96859,10 +96859,10 @@
         </is>
       </c>
       <c r="P1340" t="n">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="Q1340" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1340" t="inlineStr">
         <is>
@@ -96885,7 +96885,7 @@
         </is>
       </c>
       <c r="D1341" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1341" t="n">
         <v>13</v>
@@ -96900,7 +96900,7 @@
       </c>
       <c r="H1341" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Escarola</t>
         </is>
       </c>
       <c r="I1341" t="inlineStr">
@@ -96912,29 +96912,29 @@
         <v>250</v>
       </c>
       <c r="K1341" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L1341" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M1341" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="N1341" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1341" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P1341" t="n">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="Q1341" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1341" t="inlineStr">
         <is>
@@ -96957,7 +96957,7 @@
         </is>
       </c>
       <c r="D1342" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1342" t="n">
         <v>13</v>
@@ -96972,29 +96972,29 @@
       </c>
       <c r="H1342" t="inlineStr">
         <is>
-          <t>Conconina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1342" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1342" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1342" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M1342" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N1342" t="inlineStr">
         <is>
-          <t>$/caja 10 unidades</t>
+          <t>$/caja 15 unidades</t>
         </is>
       </c>
       <c r="O1342" t="inlineStr">
@@ -97003,10 +97003,10 @@
         </is>
       </c>
       <c r="P1342" t="n">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="Q1342" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1342" t="inlineStr">
         <is>
@@ -97029,7 +97029,7 @@
         </is>
       </c>
       <c r="D1343" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1343" t="n">
         <v>13</v>
@@ -97044,41 +97044,41 @@
       </c>
       <c r="H1343" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I1343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1343" t="n">
-        <v>380</v>
+        <v>43</v>
       </c>
       <c r="K1343" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1343" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1343" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1343" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O1343" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1343" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="Q1343" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1343" t="inlineStr">
         <is>
@@ -97116,7 +97116,7 @@
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>Escarola</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1344" t="inlineStr">
@@ -97125,32 +97125,32 @@
         </is>
       </c>
       <c r="J1344" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K1344" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="L1344" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1344" t="n">
-        <v>7000</v>
+        <v>3778</v>
       </c>
       <c r="N1344" t="inlineStr">
         <is>
-          <t>$/caja 15 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1344" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1344" t="n">
-        <v>467</v>
+        <v>378</v>
       </c>
       <c r="Q1344" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1344" t="inlineStr">
         <is>
@@ -97188,7 +97188,7 @@
       </c>
       <c r="H1345" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1345" t="inlineStr">
@@ -97197,20 +97197,20 @@
         </is>
       </c>
       <c r="J1345" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K1345" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1345" t="n">
         <v>4000</v>
       </c>
       <c r="M1345" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="N1345" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1345" t="inlineStr">
@@ -97219,10 +97219,10 @@
         </is>
       </c>
       <c r="P1345" t="n">
-        <v>222</v>
+        <v>380</v>
       </c>
       <c r="Q1345" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1345" t="inlineStr">
         <is>
@@ -97260,29 +97260,29 @@
       </c>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>Milanesa</t>
+          <t>Conconina(o)</t>
         </is>
       </c>
       <c r="I1346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1346" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K1346" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L1346" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1346" t="n">
-        <v>3773</v>
+        <v>3000</v>
       </c>
       <c r="N1346" t="inlineStr">
         <is>
-          <t>$/caja 20 unidades</t>
+          <t>$/caja 10 unidades</t>
         </is>
       </c>
       <c r="O1346" t="inlineStr">
@@ -97291,10 +97291,10 @@
         </is>
       </c>
       <c r="P1346" t="n">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="Q1346" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1346" t="inlineStr">
         <is>
@@ -97332,43 +97332,331 @@
       </c>
       <c r="H1347" t="inlineStr">
         <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1347" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1347" t="n">
+        <v>380</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1347" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1347" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1347" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1347" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1348" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1348" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1348" t="inlineStr">
+        <is>
+          <t>Escarola</t>
+        </is>
+      </c>
+      <c r="I1348" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1348" t="n">
+        <v>180</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1348" t="inlineStr">
+        <is>
+          <t>$/caja 15 unidades</t>
+        </is>
+      </c>
+      <c r="O1348" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P1348" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1348" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1349" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1349" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1349" t="inlineStr">
+        <is>
           <t>Milanesa</t>
         </is>
       </c>
-      <c r="I1347" t="inlineStr">
+      <c r="I1349" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1349" t="n">
+        <v>150</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1349" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O1349" t="inlineStr">
+        <is>
+          <t>Región de Valparaíso</t>
+        </is>
+      </c>
+      <c r="P1349" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1349" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1350" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1350" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1350" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1350" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1350" t="n">
+        <v>220</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>3773</v>
+      </c>
+      <c r="N1350" t="inlineStr">
+        <is>
+          <t>$/caja 20 unidades</t>
+        </is>
+      </c>
+      <c r="O1350" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1350" t="n">
+        <v>189</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1350" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1351" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>100112033</v>
+      </c>
+      <c r="G1351" t="inlineStr">
+        <is>
+          <t>Lechuga</t>
+        </is>
+      </c>
+      <c r="H1351" t="inlineStr">
+        <is>
+          <t>Milanesa</t>
+        </is>
+      </c>
+      <c r="I1351" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1347" t="n">
+      <c r="J1351" t="n">
         <v>150</v>
       </c>
-      <c r="K1347" t="n">
+      <c r="K1351" t="n">
         <v>3000</v>
       </c>
-      <c r="L1347" t="n">
+      <c r="L1351" t="n">
         <v>3000</v>
       </c>
-      <c r="M1347" t="n">
+      <c r="M1351" t="n">
         <v>3000</v>
       </c>
-      <c r="N1347" t="inlineStr">
+      <c r="N1351" t="inlineStr">
         <is>
           <t>$/caja 20 unidades</t>
         </is>
       </c>
-      <c r="O1347" t="inlineStr">
+      <c r="O1351" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1347" t="n">
+      <c r="P1351" t="n">
         <v>150</v>
       </c>
-      <c r="Q1347" t="n">
+      <c r="Q1351" t="n">
         <v>20</v>
       </c>
-      <c r="R1347" t="inlineStr">
+      <c r="R1351" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
